--- a/national_cert.xlsx
+++ b/national_cert.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\jyj_project\project_crawling_25_05\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\yunzi\academy\project_crawling\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4379" uniqueCount="2022">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4897" uniqueCount="2387">
   <si>
     <t>id</t>
   </si>
@@ -6349,6 +6349,1113 @@
   </si>
   <si>
     <t>2종보통운전면허</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭발물처리사</t>
+  </si>
+  <si>
+    <t>공군군수1학교</t>
+  </si>
+  <si>
+    <t>https://www.law.go.kr/법령/군인사법시행규칙/제83조의3</t>
+  </si>
+  <si>
+    <t>항공장구관리사</t>
+  </si>
+  <si>
+    <t>군항공교통관제사</t>
+  </si>
+  <si>
+    <t>공군정보통신학교</t>
+  </si>
+  <si>
+    <t>보건교사</t>
+  </si>
+  <si>
+    <t>교원양성기관(대학) 또는 시도교육청</t>
+  </si>
+  <si>
+    <t>https://www.law.go.kr/법령/초ㆍ중등교육법/제21조</t>
+  </si>
+  <si>
+    <t>사서교사</t>
+  </si>
+  <si>
+    <t>영양교사</t>
+  </si>
+  <si>
+    <t>전문상담교사</t>
+  </si>
+  <si>
+    <t>정교사</t>
+  </si>
+  <si>
+    <t>준교사</t>
+  </si>
+  <si>
+    <t>실기교사</t>
+  </si>
+  <si>
+    <t>교원양성기관(전문대학) 또는 시도교육청</t>
+  </si>
+  <si>
+    <t>기록물관리전문요원</t>
+  </si>
+  <si>
+    <t>국가기록원</t>
+  </si>
+  <si>
+    <t>https://www.archives.go.kr</t>
+  </si>
+  <si>
+    <t>환경교육사(해양환경분야)</t>
+  </si>
+  <si>
+    <t>국가해양환경교육센터(해양환경교육원)</t>
+  </si>
+  <si>
+    <t>https://edu.merti.or.kr</t>
+  </si>
+  <si>
+    <t>환경교육사</t>
+  </si>
+  <si>
+    <t>국가환경교육센터(환경보전협회)</t>
+  </si>
+  <si>
+    <t>https://www.keep.go.kr/license</t>
+  </si>
+  <si>
+    <t>한국수어교원</t>
+  </si>
+  <si>
+    <t>국립국어원(특수언어진흥과), 한국수어교육능력검정시험(한국생산성본부)</t>
+  </si>
+  <si>
+    <t>https://sldict.korean.go.kr/kslteacher/main/main.do
+https://license.kpc.or.kr/qplus/kslt</t>
+  </si>
+  <si>
+    <t>한국어교원</t>
+  </si>
+  <si>
+    <t>국립국어원(한국어진흥과), 한국어교육능력검정시험(한국산업인력공단)</t>
+  </si>
+  <si>
+    <t>https://kteacher.korean.go.kr
+https://www.q-net.or.kr/site/koreanedu</t>
+  </si>
+  <si>
+    <t>농산물검사관</t>
+  </si>
+  <si>
+    <t>국립농산물품질관리원</t>
+  </si>
+  <si>
+    <t>https://www.naqs.go.kr</t>
+  </si>
+  <si>
+    <t>산림레포츠지도사</t>
+  </si>
+  <si>
+    <t>국립등산학교</t>
+  </si>
+  <si>
+    <t>https://www.nationalmschool.kr</t>
+  </si>
+  <si>
+    <t>종자관리사(임업용)</t>
+  </si>
+  <si>
+    <t>국립산림품종관리센터</t>
+  </si>
+  <si>
+    <t>https://nfsv.forest.go.kr</t>
+  </si>
+  <si>
+    <t>수산물검사관</t>
+  </si>
+  <si>
+    <t>국립수산물품질관리원</t>
+  </si>
+  <si>
+    <t>http://www.nfqs.go.kr</t>
+  </si>
+  <si>
+    <t>정신건강간호사</t>
+  </si>
+  <si>
+    <t>국립정신건강센터</t>
+  </si>
+  <si>
+    <t>https://www.ncmh.go.kr:2450</t>
+  </si>
+  <si>
+    <t>정신건강사회복지사</t>
+  </si>
+  <si>
+    <t>정신건강임상심리사</t>
+  </si>
+  <si>
+    <t>정신건강작업치료사</t>
+  </si>
+  <si>
+    <t>종자관리사</t>
+  </si>
+  <si>
+    <t>국립종자원</t>
+  </si>
+  <si>
+    <t>https://www.seed.go.kr/seed/246/subview.do</t>
+  </si>
+  <si>
+    <t>무대예술전문인</t>
+  </si>
+  <si>
+    <t>국립중앙극장</t>
+  </si>
+  <si>
+    <t>https://www.staff.or.kr</t>
+  </si>
+  <si>
+    <t>박물관·미술관학예사</t>
+  </si>
+  <si>
+    <t>국립중앙박물관(미래전략담당관), 준학예사(한국산업인력공단)</t>
+  </si>
+  <si>
+    <t>https://www.museum.go.kr/curator https://www.q-net.or.kr/site/curator</t>
+  </si>
+  <si>
+    <t>환경측정분석사</t>
+  </si>
+  <si>
+    <t>국립환경인재개발원</t>
+  </si>
+  <si>
+    <t>https://qtest.me.go.kr</t>
+  </si>
+  <si>
+    <t>국방보안관리사</t>
+  </si>
+  <si>
+    <t>군사안보지원학교</t>
+  </si>
+  <si>
+    <t>공인회계사</t>
+  </si>
+  <si>
+    <t>금융감독원</t>
+  </si>
+  <si>
+    <t>https://cpa.fss.or.kr</t>
+  </si>
+  <si>
+    <t>기업재난관리사</t>
+  </si>
+  <si>
+    <t>기업재해경감협회</t>
+  </si>
+  <si>
+    <t>http://www.bcdm.or.kr</t>
+  </si>
+  <si>
+    <t>방재전문인력</t>
+  </si>
+  <si>
+    <t>도시농업관리사</t>
+  </si>
+  <si>
+    <t>농림수산식품교육문화정보원</t>
+  </si>
+  <si>
+    <t>https://www.modunong.or.kr:449</t>
+  </si>
+  <si>
+    <t>수의사</t>
+  </si>
+  <si>
+    <t>농림축산검역본부</t>
+  </si>
+  <si>
+    <t>https://www.qia.go.kr/bbs/openAdm/listInfoDataWebAction.do?type=4</t>
+  </si>
+  <si>
+    <t>동물보건사</t>
+  </si>
+  <si>
+    <t>https://vt-exam.or.kr</t>
+  </si>
+  <si>
+    <t>환지사</t>
+  </si>
+  <si>
+    <t>https://www.law.go.kr/법령/농어촌정비법/제28조</t>
+  </si>
+  <si>
+    <t>전문간호사</t>
+  </si>
+  <si>
+    <t>대한간호협회</t>
+  </si>
+  <si>
+    <t>https://exam.koreanurse.or.kr</t>
+  </si>
+  <si>
+    <t>건축사</t>
+  </si>
+  <si>
+    <t>대한건축사협회</t>
+  </si>
+  <si>
+    <t>https://www.kira.or.kr</t>
+  </si>
+  <si>
+    <t>유통관리사</t>
+  </si>
+  <si>
+    <t>대한상공회의소</t>
+  </si>
+  <si>
+    <t>https://license.korcham.net/co/examguide.do?mm=31&amp;cd=0201</t>
+  </si>
+  <si>
+    <t>전문의</t>
+  </si>
+  <si>
+    <t>대한의학회, 대한한의사협회, 대한치과의사협회</t>
+  </si>
+  <si>
+    <t>https://www.kams.or.kr
+https://www.kda.or.kr
+https://www.akom.org</t>
+  </si>
+  <si>
+    <t>자동차운전면허</t>
+  </si>
+  <si>
+    <t>도로교통공단 운전면허본부</t>
+  </si>
+  <si>
+    <t>https://www.safedriving.or.kr</t>
+  </si>
+  <si>
+    <t>자동차운전전문학원강사</t>
+  </si>
+  <si>
+    <t>자동차운전전문학원기능검정원</t>
+  </si>
+  <si>
+    <t>국방사업관리사</t>
+  </si>
+  <si>
+    <t>방위사업교육원</t>
+  </si>
+  <si>
+    <t>진술조력인</t>
+  </si>
+  <si>
+    <t>법무부</t>
+  </si>
+  <si>
+    <t>https://www.law.go.kr/법령/성폭력범죄의처벌등에관한특례법/제35조</t>
+  </si>
+  <si>
+    <t>변호사</t>
+  </si>
+  <si>
+    <t>법무부(법조인력과)</t>
+  </si>
+  <si>
+    <t>https://www.moj.go.kr/moj/440/subview.do</t>
+  </si>
+  <si>
+    <t>법무사</t>
+  </si>
+  <si>
+    <t>법원행정처</t>
+  </si>
+  <si>
+    <t>https://exam.scourt.go.kr</t>
+  </si>
+  <si>
+    <t>보험계리사</t>
+  </si>
+  <si>
+    <t>보험개발원</t>
+  </si>
+  <si>
+    <t>https://www.insis.or.kr:8443</t>
+  </si>
+  <si>
+    <t>보험중개사</t>
+  </si>
+  <si>
+    <t>손해사정사</t>
+  </si>
+  <si>
+    <t>산림기술자</t>
+  </si>
+  <si>
+    <t>http://www.tkfea.or.kr/ko/page.do?menuIdx=228</t>
+  </si>
+  <si>
+    <t>목구조기술자</t>
+  </si>
+  <si>
+    <t>산림청(양성기관: 한국목조건축직업학교 http://builder.kr)</t>
+  </si>
+  <si>
+    <t>https://www.law.go.kr/법령/목재의지속가능한이용에관한법률/제32조</t>
+  </si>
+  <si>
+    <t>건강운동관리사</t>
+  </si>
+  <si>
+    <t>서울올림픽기념국민체육진흥공단</t>
+  </si>
+  <si>
+    <t>https://sqms.kspo.or.kr</t>
+  </si>
+  <si>
+    <t>경주선수</t>
+  </si>
+  <si>
+    <t>https://www.kcycle.or.kr
+http://www.kboat.or.kr</t>
+  </si>
+  <si>
+    <t>경주심판</t>
+  </si>
+  <si>
+    <t>스포츠지도사</t>
+  </si>
+  <si>
+    <t>화재조사관</t>
+  </si>
+  <si>
+    <t>소방청 교육훈련담당관</t>
+  </si>
+  <si>
+    <t>https://www.nfsa.go.kr/nfsa/firefighterway/educationinfo/specialityedu/firdSearch</t>
+  </si>
+  <si>
+    <t>의료사회복지사</t>
+  </si>
+  <si>
+    <t>수련기관(대한의료사회복지사협회)</t>
+  </si>
+  <si>
+    <t>http://www.kamsw.or.kr</t>
+  </si>
+  <si>
+    <t>학교사회복지사</t>
+  </si>
+  <si>
+    <t>수련기관(한국학교사회복지사협회)</t>
+  </si>
+  <si>
+    <t>https://kassw.or.kr</t>
+  </si>
+  <si>
+    <t>마리나선박정비사</t>
+  </si>
+  <si>
+    <t>수자원환경산업진흥㈜</t>
+  </si>
+  <si>
+    <t>https://yachtmnr.or.kr</t>
+  </si>
+  <si>
+    <t>한약업사</t>
+  </si>
+  <si>
+    <t>시·도</t>
+  </si>
+  <si>
+    <t>https://www.law.go.kr/법령/약사법/제45조</t>
+  </si>
+  <si>
+    <t>가축인공수정사</t>
+  </si>
+  <si>
+    <t>시·도 또는 농촌진흥청 국립축산과학원</t>
+  </si>
+  <si>
+    <t>https://ailicense.nias.go.kr</t>
+  </si>
+  <si>
+    <t>안마사</t>
+  </si>
+  <si>
+    <t>시각장애특수학교 또는 지정 수련기관</t>
+  </si>
+  <si>
+    <t>https://www.law.go.kr/법령/의료법/제82조</t>
+  </si>
+  <si>
+    <t>장례지도사</t>
+  </si>
+  <si>
+    <t>신고된 교육기관</t>
+  </si>
+  <si>
+    <t>https://www.law.go.kr/법령/장사등에관한법률/제29조의2</t>
+  </si>
+  <si>
+    <t>국방무인기조종사</t>
+  </si>
+  <si>
+    <t>육군정보학교</t>
+  </si>
+  <si>
+    <t>영상판독사</t>
+  </si>
+  <si>
+    <t>낙하산전문포장사</t>
+  </si>
+  <si>
+    <t>육군특수전학교</t>
+  </si>
+  <si>
+    <t>헬기정비사</t>
+  </si>
+  <si>
+    <t>육군항공학교</t>
+  </si>
+  <si>
+    <t>직업능력개발훈련교사</t>
+  </si>
+  <si>
+    <t>지방고용노동청(지청, 출장소)</t>
+  </si>
+  <si>
+    <t>https://www.law.go.kr/법령/국민평생직업능력개발법/제33조</t>
+  </si>
+  <si>
+    <t>고속구조정조종사</t>
+  </si>
+  <si>
+    <t>지방해양수산청</t>
+  </si>
+  <si>
+    <t>https://www.law.go.kr/법령/선원법시행규칙/제43조의2</t>
+  </si>
+  <si>
+    <t>구명정조종사</t>
+  </si>
+  <si>
+    <t>https://www.law.go.kr/법령/선원법시행규칙/제43조</t>
+  </si>
+  <si>
+    <t>동력수상레저기구조종면허</t>
+  </si>
+  <si>
+    <t>해양경찰청</t>
+  </si>
+  <si>
+    <t>지정 시험대행기관(전국 32개 조정면허시험장 등)</t>
+  </si>
+  <si>
+    <t>https://boat.kcg.go.kr</t>
+  </si>
+  <si>
+    <t>수목치료기술자</t>
+  </si>
+  <si>
+    <t>지정양성기관(13개, ‘23.1.5. 기준)</t>
+  </si>
+  <si>
+    <t>https://namudr.kofpi.or.kr/intro/ExamIntro02.do?MENU_ID=A-02-00</t>
+  </si>
+  <si>
+    <t>산림치유지도사</t>
+  </si>
+  <si>
+    <t>지정양성기관('23.2월 기준 18곳)</t>
+  </si>
+  <si>
+    <t>https://license.fowi.or.kr/licenseHeal/LicenseHealInfo.do</t>
+  </si>
+  <si>
+    <t>산림교육전문가</t>
+  </si>
+  <si>
+    <t>지정양성기관('23.6월 기준 58곳)</t>
+  </si>
+  <si>
+    <t>https://license.fowi.or.kr/licenseEdu/LicenseEduInfo3.do</t>
+  </si>
+  <si>
+    <t>목재교육전문가</t>
+  </si>
+  <si>
+    <t>지정양성기관(9곳)</t>
+  </si>
+  <si>
+    <t>https://www.kawc.or.kr</t>
+  </si>
+  <si>
+    <t>축산물품질평가사</t>
+  </si>
+  <si>
+    <t>축산물품질평가원</t>
+  </si>
+  <si>
+    <t>https://www.ekape.or.kr</t>
+  </si>
+  <si>
+    <t>평생교육사</t>
+  </si>
+  <si>
+    <t>평생교육기관, 국가평생교육진흥원(자격관리)</t>
+  </si>
+  <si>
+    <t>http://lledu.nile.or.kr</t>
+  </si>
+  <si>
+    <t>보세사</t>
+  </si>
+  <si>
+    <t>한국관세물류협회</t>
+  </si>
+  <si>
+    <t>https://www.kcla.kr</t>
+  </si>
+  <si>
+    <t>경량항공기조종사</t>
+  </si>
+  <si>
+    <t>한국교통안전공단</t>
+  </si>
+  <si>
+    <t>https://lic.kotsa.or.kr</t>
+  </si>
+  <si>
+    <t>교통안전관리자</t>
+  </si>
+  <si>
+    <t>버스운전자격</t>
+  </si>
+  <si>
+    <t>부조종사</t>
+  </si>
+  <si>
+    <t>사업용조종사</t>
+  </si>
+  <si>
+    <t>운송용조종사</t>
+  </si>
+  <si>
+    <t>운항관리사</t>
+  </si>
+  <si>
+    <t>자가용조종사</t>
+  </si>
+  <si>
+    <t>철도교통관제사</t>
+  </si>
+  <si>
+    <t>철도차량운전면허</t>
+  </si>
+  <si>
+    <t>초경량비행장치조종자</t>
+  </si>
+  <si>
+    <t>택시운전자격</t>
+  </si>
+  <si>
+    <t>항공교통관제사</t>
+  </si>
+  <si>
+    <t>항공기관사</t>
+  </si>
+  <si>
+    <t>항공사</t>
+  </si>
+  <si>
+    <t>항공정비사</t>
+  </si>
+  <si>
+    <t>화물운송종사자격</t>
+  </si>
+  <si>
+    <t>기상면허</t>
+  </si>
+  <si>
+    <t>한국기상산업기술원</t>
+  </si>
+  <si>
+    <t>https://edu.kmiti.or.kr</t>
+  </si>
+  <si>
+    <t>치유농업사</t>
+  </si>
+  <si>
+    <t>한국농업기술진흥원</t>
+  </si>
+  <si>
+    <t>http://license.agrohealing.go.kr</t>
+  </si>
+  <si>
+    <t>데이터거래사</t>
+  </si>
+  <si>
+    <t>한국데이터산업협회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://datatrade.kodia.kr/</t>
+  </si>
+  <si>
+    <t>사서</t>
+  </si>
+  <si>
+    <t>한국도서관협회</t>
+  </si>
+  <si>
+    <t>https://www.liblicense.kr</t>
+  </si>
+  <si>
+    <t>말조련사</t>
+  </si>
+  <si>
+    <t>한국마사회</t>
+  </si>
+  <si>
+    <t>https://www.horsepia.com</t>
+  </si>
+  <si>
+    <t>장제사</t>
+  </si>
+  <si>
+    <t>재활승마지도사</t>
+  </si>
+  <si>
+    <t>문화예술교육사</t>
+  </si>
+  <si>
+    <t>한국문화예술교육진흥원</t>
+  </si>
+  <si>
+    <t>https://acei.arte.or.kr</t>
+  </si>
+  <si>
+    <t>무선통신사</t>
+  </si>
+  <si>
+    <t>한국방송통신전파진흥원</t>
+  </si>
+  <si>
+    <t>https://www.cq.or.kr</t>
+  </si>
+  <si>
+    <t>아마추어무선기사</t>
+  </si>
+  <si>
+    <t>간호사</t>
+  </si>
+  <si>
+    <t>한국보건의료인국가시험원</t>
+  </si>
+  <si>
+    <t>https://www.kuksiwon.or.kr/subcnt/c_2005/1/view.do?seq=7&amp;itm_seq=05</t>
+  </si>
+  <si>
+    <t>간호조무사</t>
+  </si>
+  <si>
+    <t>https://www.kuksiwon.or.kr/subcnt/c_2028/1/view.do?seq=7&amp;itm_seq=26</t>
+  </si>
+  <si>
+    <t>물리치료사</t>
+  </si>
+  <si>
+    <t>https://www.kuksiwon.or.kr/subcnt/c_2014/1/view.do?seq=7&amp;itm_seq=11</t>
+  </si>
+  <si>
+    <t>방사선사</t>
+  </si>
+  <si>
+    <t>https://www.kuksiwon.or.kr/subcnt/c_2013/1/view.do?seq=7&amp;itm_seq=09</t>
+  </si>
+  <si>
+    <t>보건교육사</t>
+  </si>
+  <si>
+    <t>https://www.kuksiwon.or.kr/subcnt/c_2026/1/view.do?seq=7&amp;itm_seq=31</t>
+  </si>
+  <si>
+    <t>보건의료정보관리사</t>
+  </si>
+  <si>
+    <t>https://www.kuksiwon.or.kr/subcnt/c_2018/1/view.do?seq=7&amp;itm_seq=14</t>
+  </si>
+  <si>
+    <t>보조공학사</t>
+  </si>
+  <si>
+    <t>https://www.kuksiwon.or.kr/subcnt/c_2031/1/view.do?seq=7&amp;itm_seq=16</t>
+  </si>
+  <si>
+    <t>안경사</t>
+  </si>
+  <si>
+    <t>https://www.kuksiwon.or.kr/subcnt/c_2019/1/view.do?seq=7&amp;itm_seq=15</t>
+  </si>
+  <si>
+    <t>약사</t>
+  </si>
+  <si>
+    <t>https://www.kuksiwon.or.kr/subcnt/c_2009/1/view.do?seq=7&amp;itm_seq=06</t>
+  </si>
+  <si>
+    <t>언어재활사</t>
+  </si>
+  <si>
+    <t>https://www.kuksiwon.or.kr/subcnt/c_2024/1/view.do?seq=7&amp;itm_seq=37</t>
+  </si>
+  <si>
+    <t>영양사</t>
+  </si>
+  <si>
+    <t>https://www.kuksiwon.or.kr/subcnt/c_2020/1/view.do?seq=7&amp;itm_seq=07</t>
+  </si>
+  <si>
+    <t>요양보호사</t>
+  </si>
+  <si>
+    <t>https://www.kuksiwon.or.kr/subcnt/c_2027/1/view.do?seq=7&amp;itm_seq=35</t>
+  </si>
+  <si>
+    <t>위생사</t>
+  </si>
+  <si>
+    <t>https://www.kuksiwon.or.kr/subcnt/c_2021/1/view.do?seq=7&amp;itm_seq=21</t>
+  </si>
+  <si>
+    <t>응급구조사</t>
+  </si>
+  <si>
+    <t>https://www.kuksiwon.or.kr/subcnt/c_2022/1/view.do?seq=7&amp;itm_seq=17</t>
+  </si>
+  <si>
+    <t>의사</t>
+  </si>
+  <si>
+    <t>https://www.kuksiwon.or.kr/subcnt/c_2/1/view.do?seq=7&amp;itm_seq=01</t>
+  </si>
+  <si>
+    <t>의지·보조기기사</t>
+  </si>
+  <si>
+    <t>https://www.kuksiwon.or.kr/subcnt/c_2023/1/view.do?seq=7&amp;itm_seq=27</t>
+  </si>
+  <si>
+    <t>임상병리사</t>
+  </si>
+  <si>
+    <t>https://www.kuksiwon.or.kr/subcnt/c_2012/1/view.do?seq=7&amp;itm_seq=08</t>
+  </si>
+  <si>
+    <t>작업치료사</t>
+  </si>
+  <si>
+    <t>https://www.kuksiwon.or.kr/subcnt/c_2015/1/view.do?seq=7&amp;itm_seq=13</t>
+  </si>
+  <si>
+    <t>장애인재활상담사</t>
+  </si>
+  <si>
+    <t>https://www.kuksiwon.or.kr/subcnt/c_2029/1/view.do?seq=7&amp;itm_seq=41</t>
+  </si>
+  <si>
+    <t>조산사</t>
+  </si>
+  <si>
+    <t>https://www.kuksiwon.or.kr/subcnt/c_2006/1/view.do?seq=7&amp;itm_seq=04</t>
+  </si>
+  <si>
+    <t>치과기공사</t>
+  </si>
+  <si>
+    <t>https://www.kuksiwon.or.kr/subcnt/c_2016/1/view.do?seq=7&amp;itm_seq=10</t>
+  </si>
+  <si>
+    <t>치과위생사</t>
+  </si>
+  <si>
+    <t>https://www.kuksiwon.or.kr/subcnt/c_2017/1/view.do?seq=7&amp;itm_seq=12</t>
+  </si>
+  <si>
+    <t>치과의사</t>
+  </si>
+  <si>
+    <t>https://www.kuksiwon.or.kr/subcnt/c_2003/1/view.do?seq=7&amp;itm_seq=02</t>
+  </si>
+  <si>
+    <t>한약사</t>
+  </si>
+  <si>
+    <t>https://www.kuksiwon.or.kr/subcnt/c_2010/1/view.do?seq=7&amp;itm_seq=24</t>
+  </si>
+  <si>
+    <t>한약조제사</t>
+  </si>
+  <si>
+    <t>https://www.kuksiwon.or.kr/subcnt/c_2011/1/view.do?seq=7&amp;itm_seq=25</t>
+  </si>
+  <si>
+    <t>한의사</t>
+  </si>
+  <si>
+    <t>https://www.kuksiwon.or.kr/subcnt/c_2004/1/view.do?seq=7&amp;itm_seq=03</t>
+  </si>
+  <si>
+    <t>보육교사</t>
+  </si>
+  <si>
+    <t>한국보육진흥원</t>
+  </si>
+  <si>
+    <t>https://www.kcpi.or.kr</t>
+  </si>
+  <si>
+    <t>어린이집원장</t>
+  </si>
+  <si>
+    <t>사회복지사</t>
+  </si>
+  <si>
+    <t>한국사회복지사협회, 1급(한국산업인력공단)</t>
+  </si>
+  <si>
+    <t>https://lic.welfare.net http://www.q-net.or.kr/site/welfare</t>
+  </si>
+  <si>
+    <t>기술거래사</t>
+  </si>
+  <si>
+    <t>한국산업기술진흥원(한국기술거래사회)</t>
+  </si>
+  <si>
+    <t>https://kttaa.or.kr</t>
+  </si>
+  <si>
+    <t>상수도관망시설운영관리사</t>
+  </si>
+  <si>
+    <t>한국상하수도협회</t>
+  </si>
+  <si>
+    <t>https://kwwa.step.or.kr</t>
+  </si>
+  <si>
+    <t>맞춤형화장품조제관리사</t>
+  </si>
+  <si>
+    <t>한국생산성본부</t>
+  </si>
+  <si>
+    <t>https://ccmm.kpc.or.kr</t>
+  </si>
+  <si>
+    <t>연구실안전관리사</t>
+  </si>
+  <si>
+    <t>http://safelab.kpc.or.kr</t>
+  </si>
+  <si>
+    <t>소방안전관리자</t>
+  </si>
+  <si>
+    <t>한국소방안전원</t>
+  </si>
+  <si>
+    <t>https://www.kfsi.or.kr/user/edu/Main.do?dept1Menu=1&amp;_menuNo=386</t>
+  </si>
+  <si>
+    <t>건축물에너지평가사</t>
+  </si>
+  <si>
+    <t>한국에너지공단</t>
+  </si>
+  <si>
+    <t>https://bea.kemco.or.kr</t>
+  </si>
+  <si>
+    <t>국외여행인솔자</t>
+  </si>
+  <si>
+    <t>한국여행업협회(해외여행팀)</t>
+  </si>
+  <si>
+    <t>http://www.tchrm.or.kr</t>
+  </si>
+  <si>
+    <t>임상영양사</t>
+  </si>
+  <si>
+    <t>한국영양교육평가원</t>
+  </si>
+  <si>
+    <t>https://www.kidee2011.or.kr/php/03_test_1.php</t>
+  </si>
+  <si>
+    <t>방사선취급감독자면허</t>
+  </si>
+  <si>
+    <t>한국원자력안전기술원</t>
+  </si>
+  <si>
+    <t>https://license.kins.re.kr</t>
+  </si>
+  <si>
+    <t>방사성동위원소취급자일반면허</t>
+  </si>
+  <si>
+    <t>방사성동위원소취급자특수면허</t>
+  </si>
+  <si>
+    <t>원자로조종감독자면허</t>
+  </si>
+  <si>
+    <t>원자로조종사면허</t>
+  </si>
+  <si>
+    <t>핵연료물질취급감독자면허</t>
+  </si>
+  <si>
+    <t>핵연료물질취급자면허</t>
+  </si>
+  <si>
+    <t>나무의사</t>
+  </si>
+  <si>
+    <t>한국임업진흥원</t>
+  </si>
+  <si>
+    <t>https://namudr.kofpi.or.kr/intro/ExamIntro.do?MENU_ID=A-01-00</t>
+  </si>
+  <si>
+    <t>목재등급평가사</t>
+  </si>
+  <si>
+    <t>https://www.law.go.kr/법령/목재의지속가능한이용에관한법률/제19조의4</t>
+  </si>
+  <si>
+    <t>철도안전전문기술자</t>
+  </si>
+  <si>
+    <t>한국전기철도기술협회, 한국철도신호기술협회, 한국철도시설협회, 한국철도차량엔지니어링</t>
+  </si>
+  <si>
+    <t>(전기철도) http://www.kreta.kr
+(철도궤도) http://www.ikrea.or.kr
+(철도신호) http://www.krsea.or.kr
+(철도차량) http://www.roteco.or.kr</t>
+  </si>
+  <si>
+    <t>철도운행안전관리자</t>
+  </si>
+  <si>
+    <t>한국철도운전기술협회</t>
+  </si>
+  <si>
+    <t>https://www.knrotc.or.kr:50015</t>
+  </si>
+  <si>
+    <t>기관사</t>
+  </si>
+  <si>
+    <t>한국해양수산연수원</t>
+  </si>
+  <si>
+    <t>https://lems.seaman.or.kr</t>
+  </si>
+  <si>
+    <t>산지경매사</t>
+  </si>
+  <si>
+    <t>선박안전관리사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국해양수산연수원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>선박조리사</t>
+  </si>
+  <si>
+    <t>소형선박조종사</t>
+  </si>
+  <si>
+    <t>수면비행선박조종사</t>
+  </si>
+  <si>
+    <t>수산질병관리사</t>
+  </si>
+  <si>
+    <t>운항사</t>
+  </si>
+  <si>
+    <t>의료관리자</t>
+  </si>
+  <si>
+    <t>전자기관사</t>
+  </si>
+  <si>
+    <t>통신사</t>
+  </si>
+  <si>
+    <t>항해사</t>
+  </si>
+  <si>
+    <t>환경영향평가사</t>
+  </si>
+  <si>
+    <t>한국환경산업기술원</t>
+  </si>
+  <si>
+    <t>https://www.ceia.re.kr</t>
+  </si>
+  <si>
+    <t>함정손상통제사</t>
+  </si>
+  <si>
+    <t>해군8전단</t>
+  </si>
+  <si>
+    <t>수중무인기조작사</t>
+  </si>
+  <si>
+    <t>해군사관학교</t>
+  </si>
+  <si>
+    <t>수중발파사</t>
+  </si>
+  <si>
+    <t>해군특수전전단</t>
+  </si>
+  <si>
+    <t>심해잠수사</t>
+  </si>
+  <si>
+    <t>수상구조사</t>
+  </si>
+  <si>
+    <t>https://imsm.kcg.go.kr/CLMS/main.do</t>
+  </si>
+  <si>
+    <t>도선사</t>
+  </si>
+  <si>
+    <t>https://www.law.go.kr/법령/도선법/제4조</t>
+  </si>
+  <si>
+    <t>ITQ 엑세스</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -6751,18 +7858,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R1393"/>
+  <dimension ref="A1:R1394"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <pane ySplit="1" topLeftCell="A869" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B884" sqref="B884"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.25" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
-    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.375" customWidth="1"/>
     <col min="11" max="11" width="28" customWidth="1"/>
     <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.25" bestFit="1" customWidth="1"/>
@@ -27823,6 +28930,9 @@
       <c r="B497" t="s">
         <v>1984</v>
       </c>
+      <c r="D497">
+        <v>1</v>
+      </c>
       <c r="E497" t="s">
         <v>10</v>
       </c>
@@ -27837,6 +28947,9 @@
       <c r="B498" t="s">
         <v>1985</v>
       </c>
+      <c r="D498">
+        <v>1</v>
+      </c>
       <c r="E498" t="s">
         <v>10</v>
       </c>
@@ -27851,6 +28964,9 @@
       <c r="B499" t="s">
         <v>1986</v>
       </c>
+      <c r="D499">
+        <v>1</v>
+      </c>
       <c r="E499" t="s">
         <v>10</v>
       </c>
@@ -27865,6 +28981,9 @@
       <c r="B500" t="s">
         <v>1987</v>
       </c>
+      <c r="D500">
+        <v>1</v>
+      </c>
       <c r="E500" t="s">
         <v>10</v>
       </c>
@@ -27879,6 +28998,9 @@
       <c r="B501" t="s">
         <v>1988</v>
       </c>
+      <c r="D501">
+        <v>1</v>
+      </c>
       <c r="E501" t="s">
         <v>10</v>
       </c>
@@ -27893,6 +29015,9 @@
       <c r="B502" t="s">
         <v>1989</v>
       </c>
+      <c r="D502">
+        <v>1</v>
+      </c>
       <c r="E502" t="s">
         <v>10</v>
       </c>
@@ -27907,6 +29032,9 @@
       <c r="B503" t="s">
         <v>1990</v>
       </c>
+      <c r="D503">
+        <v>1</v>
+      </c>
       <c r="E503" t="s">
         <v>10</v>
       </c>
@@ -27921,6 +29049,9 @@
       <c r="B504" t="s">
         <v>1991</v>
       </c>
+      <c r="D504">
+        <v>1</v>
+      </c>
       <c r="E504" t="s">
         <v>10</v>
       </c>
@@ -27935,6 +29066,9 @@
       <c r="B505" t="s">
         <v>1992</v>
       </c>
+      <c r="D505">
+        <v>1</v>
+      </c>
       <c r="E505" t="s">
         <v>10</v>
       </c>
@@ -27949,6 +29083,9 @@
       <c r="B506" t="s">
         <v>1993</v>
       </c>
+      <c r="D506">
+        <v>1</v>
+      </c>
       <c r="E506" t="s">
         <v>10</v>
       </c>
@@ -27963,6 +29100,9 @@
       <c r="B507" t="s">
         <v>1994</v>
       </c>
+      <c r="D507">
+        <v>1</v>
+      </c>
       <c r="E507" t="s">
         <v>10</v>
       </c>
@@ -27977,6 +29117,9 @@
       <c r="B508" t="s">
         <v>1995</v>
       </c>
+      <c r="D508">
+        <v>1</v>
+      </c>
       <c r="E508" t="s">
         <v>10</v>
       </c>
@@ -27991,6 +29134,9 @@
       <c r="B509" t="s">
         <v>1996</v>
       </c>
+      <c r="D509">
+        <v>1</v>
+      </c>
       <c r="E509" t="s">
         <v>10</v>
       </c>
@@ -28005,6 +29151,9 @@
       <c r="B510" t="s">
         <v>1997</v>
       </c>
+      <c r="D510">
+        <v>1</v>
+      </c>
       <c r="E510" t="s">
         <v>10</v>
       </c>
@@ -28019,6 +29168,9 @@
       <c r="B511" t="s">
         <v>2020</v>
       </c>
+      <c r="D511">
+        <v>1</v>
+      </c>
       <c r="E511" t="s">
         <v>10</v>
       </c>
@@ -28033,6 +29185,9 @@
       <c r="B512" t="s">
         <v>1998</v>
       </c>
+      <c r="D512">
+        <v>1</v>
+      </c>
       <c r="E512" t="s">
         <v>10</v>
       </c>
@@ -28047,6 +29202,9 @@
       <c r="B513" t="s">
         <v>1999</v>
       </c>
+      <c r="D513">
+        <v>1</v>
+      </c>
       <c r="E513" t="s">
         <v>10</v>
       </c>
@@ -28061,6 +29219,9 @@
       <c r="B514" t="s">
         <v>2000</v>
       </c>
+      <c r="D514">
+        <v>1</v>
+      </c>
       <c r="E514" t="s">
         <v>10</v>
       </c>
@@ -28075,6 +29236,9 @@
       <c r="B515" t="s">
         <v>2001</v>
       </c>
+      <c r="D515">
+        <v>1</v>
+      </c>
       <c r="E515" t="s">
         <v>10</v>
       </c>
@@ -28089,6 +29253,9 @@
       <c r="B516" t="s">
         <v>2002</v>
       </c>
+      <c r="D516">
+        <v>1</v>
+      </c>
       <c r="E516" t="s">
         <v>10</v>
       </c>
@@ -28103,6 +29270,9 @@
       <c r="B517" t="s">
         <v>2003</v>
       </c>
+      <c r="D517">
+        <v>1</v>
+      </c>
       <c r="E517" t="s">
         <v>10</v>
       </c>
@@ -28117,6 +29287,9 @@
       <c r="B518" t="s">
         <v>2004</v>
       </c>
+      <c r="D518">
+        <v>1</v>
+      </c>
       <c r="E518" t="s">
         <v>10</v>
       </c>
@@ -28131,6 +29304,9 @@
       <c r="B519" t="s">
         <v>2005</v>
       </c>
+      <c r="D519">
+        <v>1</v>
+      </c>
       <c r="E519" t="s">
         <v>10</v>
       </c>
@@ -28145,6 +29321,9 @@
       <c r="B520" t="s">
         <v>2006</v>
       </c>
+      <c r="D520">
+        <v>1</v>
+      </c>
       <c r="E520" t="s">
         <v>10</v>
       </c>
@@ -28159,6 +29338,9 @@
       <c r="B521" t="s">
         <v>2007</v>
       </c>
+      <c r="D521">
+        <v>1</v>
+      </c>
       <c r="E521" t="s">
         <v>10</v>
       </c>
@@ -28173,6 +29355,9 @@
       <c r="B522" t="s">
         <v>2008</v>
       </c>
+      <c r="D522">
+        <v>1</v>
+      </c>
       <c r="E522" t="s">
         <v>10</v>
       </c>
@@ -28187,6 +29372,9 @@
       <c r="B523" t="s">
         <v>2009</v>
       </c>
+      <c r="D523">
+        <v>1</v>
+      </c>
       <c r="E523" t="s">
         <v>10</v>
       </c>
@@ -28201,6 +29389,9 @@
       <c r="B524" t="s">
         <v>2019</v>
       </c>
+      <c r="D524">
+        <v>1</v>
+      </c>
       <c r="E524" t="s">
         <v>10</v>
       </c>
@@ -28215,6 +29406,9 @@
       <c r="B525" t="s">
         <v>2010</v>
       </c>
+      <c r="D525">
+        <v>1</v>
+      </c>
       <c r="E525" t="s">
         <v>10</v>
       </c>
@@ -28229,6 +29423,9 @@
       <c r="B526" t="s">
         <v>2018</v>
       </c>
+      <c r="D526">
+        <v>1</v>
+      </c>
       <c r="E526" t="s">
         <v>10</v>
       </c>
@@ -28243,6 +29440,9 @@
       <c r="B527" t="s">
         <v>2011</v>
       </c>
+      <c r="D527">
+        <v>1</v>
+      </c>
       <c r="E527" t="s">
         <v>10</v>
       </c>
@@ -28257,6 +29457,9 @@
       <c r="B528" t="s">
         <v>2012</v>
       </c>
+      <c r="D528">
+        <v>1</v>
+      </c>
       <c r="E528" t="s">
         <v>10</v>
       </c>
@@ -28271,6 +29474,9 @@
       <c r="B529" t="s">
         <v>2013</v>
       </c>
+      <c r="D529">
+        <v>1</v>
+      </c>
       <c r="E529" t="s">
         <v>10</v>
       </c>
@@ -28285,6 +29491,9 @@
       <c r="B530" t="s">
         <v>2014</v>
       </c>
+      <c r="D530">
+        <v>1</v>
+      </c>
       <c r="E530" t="s">
         <v>10</v>
       </c>
@@ -28299,6 +29508,9 @@
       <c r="B531" t="s">
         <v>2015</v>
       </c>
+      <c r="D531">
+        <v>1</v>
+      </c>
       <c r="E531" t="s">
         <v>10</v>
       </c>
@@ -28313,6 +29525,9 @@
       <c r="B532" t="s">
         <v>2016</v>
       </c>
+      <c r="D532">
+        <v>1</v>
+      </c>
       <c r="E532" t="s">
         <v>10</v>
       </c>
@@ -28327,6 +29542,9 @@
       <c r="B533" t="s">
         <v>2017</v>
       </c>
+      <c r="D533">
+        <v>1</v>
+      </c>
       <c r="E533" t="s">
         <v>10</v>
       </c>
@@ -28339,10 +29557,16 @@
         <v>533</v>
       </c>
       <c r="B534" t="s">
-        <v>1805</v>
+        <v>2022</v>
+      </c>
+      <c r="D534">
+        <v>1</v>
       </c>
       <c r="E534" t="s">
-        <v>1713</v>
+        <v>2023</v>
+      </c>
+      <c r="G534" t="s">
+        <v>2024</v>
       </c>
       <c r="L534" t="s">
         <v>1798</v>
@@ -28356,10 +29580,16 @@
         <v>534</v>
       </c>
       <c r="B535" t="s">
-        <v>1807</v>
+        <v>2025</v>
+      </c>
+      <c r="D535">
+        <v>1</v>
       </c>
       <c r="E535" t="s">
-        <v>1713</v>
+        <v>2023</v>
+      </c>
+      <c r="G535" t="s">
+        <v>2024</v>
       </c>
       <c r="L535" t="s">
         <v>1806</v>
@@ -28373,10 +29603,16 @@
         <v>535</v>
       </c>
       <c r="B536" t="s">
-        <v>1809</v>
+        <v>2026</v>
+      </c>
+      <c r="D536">
+        <v>1</v>
       </c>
       <c r="E536" t="s">
-        <v>1713</v>
+        <v>2027</v>
+      </c>
+      <c r="G536" t="s">
+        <v>2024</v>
       </c>
       <c r="L536" t="s">
         <v>1808</v>
@@ -28390,10 +29626,16 @@
         <v>536</v>
       </c>
       <c r="B537" t="s">
-        <v>1811</v>
+        <v>2028</v>
+      </c>
+      <c r="D537">
+        <v>1</v>
       </c>
       <c r="E537" t="s">
-        <v>1713</v>
+        <v>2029</v>
+      </c>
+      <c r="G537" t="s">
+        <v>2030</v>
       </c>
       <c r="L537" t="s">
         <v>1810</v>
@@ -28407,10 +29649,16 @@
         <v>537</v>
       </c>
       <c r="B538" t="s">
-        <v>1812</v>
+        <v>2031</v>
+      </c>
+      <c r="D538">
+        <v>1</v>
       </c>
       <c r="E538" t="s">
-        <v>1713</v>
+        <v>2029</v>
+      </c>
+      <c r="G538" t="s">
+        <v>2030</v>
       </c>
       <c r="L538" t="s">
         <v>1715</v>
@@ -28424,10 +29672,16 @@
         <v>538</v>
       </c>
       <c r="B539" t="s">
-        <v>1813</v>
+        <v>2032</v>
+      </c>
+      <c r="D539">
+        <v>1</v>
       </c>
       <c r="E539" t="s">
-        <v>1716</v>
+        <v>2029</v>
+      </c>
+      <c r="G539" t="s">
+        <v>2030</v>
       </c>
       <c r="P539" s="3"/>
       <c r="Q539" s="3"/>
@@ -28438,10 +29692,16 @@
         <v>539</v>
       </c>
       <c r="B540" t="s">
-        <v>1814</v>
+        <v>2033</v>
+      </c>
+      <c r="D540">
+        <v>1</v>
       </c>
       <c r="E540" t="s">
-        <v>1717</v>
+        <v>2029</v>
+      </c>
+      <c r="G540" t="s">
+        <v>2030</v>
       </c>
       <c r="P540" s="3"/>
       <c r="Q540" s="3"/>
@@ -28452,10 +29712,16 @@
         <v>540</v>
       </c>
       <c r="B541" t="s">
-        <v>1815</v>
+        <v>2034</v>
+      </c>
+      <c r="D541">
+        <v>1</v>
       </c>
       <c r="E541" t="s">
-        <v>1718</v>
+        <v>2029</v>
+      </c>
+      <c r="G541" t="s">
+        <v>2030</v>
       </c>
       <c r="P541" s="3"/>
       <c r="Q541" s="3"/>
@@ -28466,10 +29732,16 @@
         <v>541</v>
       </c>
       <c r="B542" t="s">
-        <v>1816</v>
+        <v>2035</v>
+      </c>
+      <c r="D542">
+        <v>1</v>
       </c>
       <c r="E542" t="s">
-        <v>1719</v>
+        <v>2029</v>
+      </c>
+      <c r="G542" t="s">
+        <v>2030</v>
       </c>
       <c r="P542" s="3"/>
       <c r="Q542" s="3"/>
@@ -28480,10 +29752,16 @@
         <v>542</v>
       </c>
       <c r="B543" t="s">
-        <v>1888</v>
+        <v>2036</v>
+      </c>
+      <c r="D543">
+        <v>1</v>
       </c>
       <c r="E543" t="s">
-        <v>1720</v>
+        <v>2037</v>
+      </c>
+      <c r="G543" t="s">
+        <v>2030</v>
       </c>
       <c r="L543" t="s">
         <v>1721</v>
@@ -28497,10 +29775,16 @@
         <v>543</v>
       </c>
       <c r="B544" t="s">
-        <v>1889</v>
+        <v>2038</v>
+      </c>
+      <c r="D544">
+        <v>1</v>
       </c>
       <c r="E544" t="s">
-        <v>1720</v>
+        <v>2039</v>
+      </c>
+      <c r="G544" t="s">
+        <v>2040</v>
       </c>
       <c r="L544" t="s">
         <v>1714</v>
@@ -28514,10 +29798,16 @@
         <v>544</v>
       </c>
       <c r="B545" t="s">
-        <v>1890</v>
+        <v>2041</v>
+      </c>
+      <c r="D545">
+        <v>1</v>
       </c>
       <c r="E545" t="s">
-        <v>1720</v>
+        <v>2042</v>
+      </c>
+      <c r="G545" t="s">
+        <v>2043</v>
       </c>
       <c r="L545" t="s">
         <v>1722</v>
@@ -28531,10 +29821,16 @@
         <v>545</v>
       </c>
       <c r="B546" t="s">
-        <v>1817</v>
+        <v>2044</v>
+      </c>
+      <c r="D546">
+        <v>1</v>
       </c>
       <c r="E546" t="s">
-        <v>1720</v>
+        <v>2045</v>
+      </c>
+      <c r="G546" t="s">
+        <v>2046</v>
       </c>
       <c r="L546" t="s">
         <v>1723</v>
@@ -28548,10 +29844,16 @@
         <v>546</v>
       </c>
       <c r="B547" t="s">
-        <v>1891</v>
+        <v>2047</v>
+      </c>
+      <c r="D547">
+        <v>1</v>
       </c>
       <c r="E547" t="s">
-        <v>1720</v>
+        <v>2048</v>
+      </c>
+      <c r="G547" t="s">
+        <v>2049</v>
       </c>
       <c r="L547" t="s">
         <v>1724</v>
@@ -28565,10 +29867,16 @@
         <v>547</v>
       </c>
       <c r="B548" t="s">
-        <v>1818</v>
+        <v>2050</v>
+      </c>
+      <c r="D548">
+        <v>1</v>
       </c>
       <c r="E548" t="s">
-        <v>1725</v>
+        <v>2051</v>
+      </c>
+      <c r="G548" t="s">
+        <v>2052</v>
       </c>
       <c r="P548" s="3"/>
       <c r="Q548" s="3"/>
@@ -28579,10 +29887,16 @@
         <v>548</v>
       </c>
       <c r="B549" t="s">
-        <v>1819</v>
+        <v>2053</v>
+      </c>
+      <c r="D549">
+        <v>1</v>
       </c>
       <c r="E549" t="s">
-        <v>1725</v>
+        <v>2054</v>
+      </c>
+      <c r="G549" t="s">
+        <v>2055</v>
       </c>
       <c r="P549" s="3"/>
       <c r="Q549" s="3"/>
@@ -28593,10 +29907,16 @@
         <v>549</v>
       </c>
       <c r="B550" t="s">
-        <v>1820</v>
+        <v>2056</v>
+      </c>
+      <c r="D550">
+        <v>1</v>
       </c>
       <c r="E550" t="s">
-        <v>1725</v>
+        <v>2057</v>
+      </c>
+      <c r="G550" t="s">
+        <v>2058</v>
       </c>
       <c r="P550" s="3"/>
       <c r="Q550" s="3"/>
@@ -28607,10 +29927,16 @@
         <v>550</v>
       </c>
       <c r="B551" t="s">
-        <v>1821</v>
+        <v>2059</v>
+      </c>
+      <c r="D551">
+        <v>1</v>
       </c>
       <c r="E551" t="s">
-        <v>1725</v>
+        <v>2060</v>
+      </c>
+      <c r="G551" t="s">
+        <v>2061</v>
       </c>
       <c r="P551" s="3"/>
       <c r="Q551" s="3"/>
@@ -28621,10 +29947,16 @@
         <v>551</v>
       </c>
       <c r="B552" t="s">
-        <v>1822</v>
+        <v>2062</v>
+      </c>
+      <c r="D552">
+        <v>1</v>
       </c>
       <c r="E552" t="s">
-        <v>1725</v>
+        <v>2063</v>
+      </c>
+      <c r="G552" t="s">
+        <v>2064</v>
       </c>
       <c r="L552" t="s">
         <v>1726</v>
@@ -28641,10 +29973,16 @@
         <v>552</v>
       </c>
       <c r="B553" t="s">
-        <v>1823</v>
+        <v>2065</v>
+      </c>
+      <c r="D553">
+        <v>1</v>
       </c>
       <c r="E553" t="s">
-        <v>1725</v>
+        <v>2066</v>
+      </c>
+      <c r="G553" t="s">
+        <v>2067</v>
       </c>
       <c r="L553" t="s">
         <v>1727</v>
@@ -28661,10 +29999,16 @@
         <v>553</v>
       </c>
       <c r="B554" t="s">
-        <v>1824</v>
+        <v>2068</v>
+      </c>
+      <c r="D554">
+        <v>1</v>
       </c>
       <c r="E554" t="s">
-        <v>1725</v>
+        <v>2066</v>
+      </c>
+      <c r="G554" t="s">
+        <v>2067</v>
       </c>
       <c r="P554" s="3"/>
       <c r="Q554" s="3"/>
@@ -28675,10 +30019,16 @@
         <v>554</v>
       </c>
       <c r="B555" t="s">
-        <v>1825</v>
+        <v>2069</v>
+      </c>
+      <c r="D555">
+        <v>1</v>
       </c>
       <c r="E555" t="s">
-        <v>1728</v>
+        <v>2066</v>
+      </c>
+      <c r="G555" t="s">
+        <v>2067</v>
       </c>
       <c r="P555" s="3"/>
       <c r="Q555" s="3"/>
@@ -28689,10 +30039,16 @@
         <v>555</v>
       </c>
       <c r="B556" t="s">
-        <v>1892</v>
+        <v>2070</v>
+      </c>
+      <c r="D556">
+        <v>1</v>
       </c>
       <c r="E556" t="s">
-        <v>1729</v>
+        <v>2066</v>
+      </c>
+      <c r="G556" t="s">
+        <v>2067</v>
       </c>
       <c r="L556" t="s">
         <v>1721</v>
@@ -28706,10 +30062,16 @@
         <v>556</v>
       </c>
       <c r="B557" t="s">
-        <v>1893</v>
+        <v>2071</v>
+      </c>
+      <c r="D557">
+        <v>1</v>
       </c>
       <c r="E557" t="s">
-        <v>1729</v>
+        <v>2072</v>
+      </c>
+      <c r="G557" t="s">
+        <v>2073</v>
       </c>
       <c r="L557" t="s">
         <v>1714</v>
@@ -28723,10 +30085,16 @@
         <v>557</v>
       </c>
       <c r="B558" t="s">
-        <v>1826</v>
+        <v>2074</v>
+      </c>
+      <c r="D558">
+        <v>1</v>
       </c>
       <c r="E558" t="s">
-        <v>1729</v>
+        <v>2075</v>
+      </c>
+      <c r="G558" t="s">
+        <v>2076</v>
       </c>
       <c r="L558" t="s">
         <v>1730</v>
@@ -28740,10 +30108,16 @@
         <v>558</v>
       </c>
       <c r="B559" t="s">
-        <v>1894</v>
+        <v>2077</v>
+      </c>
+      <c r="D559">
+        <v>1</v>
       </c>
       <c r="E559" t="s">
-        <v>1731</v>
+        <v>2078</v>
+      </c>
+      <c r="G559" t="s">
+        <v>2079</v>
       </c>
       <c r="L559" t="s">
         <v>1714</v>
@@ -28757,10 +30131,16 @@
         <v>559</v>
       </c>
       <c r="B560" t="s">
-        <v>1827</v>
+        <v>2080</v>
+      </c>
+      <c r="D560">
+        <v>1</v>
       </c>
       <c r="E560" t="s">
-        <v>1732</v>
+        <v>2081</v>
+      </c>
+      <c r="G560" t="s">
+        <v>2082</v>
       </c>
       <c r="P560" s="3"/>
       <c r="Q560" s="3"/>
@@ -28771,10 +30151,16 @@
         <v>560</v>
       </c>
       <c r="B561" t="s">
-        <v>1828</v>
+        <v>2083</v>
+      </c>
+      <c r="D561">
+        <v>1</v>
       </c>
       <c r="E561" t="s">
-        <v>1733</v>
+        <v>2084</v>
+      </c>
+      <c r="G561" t="s">
+        <v>2024</v>
       </c>
       <c r="P561" s="3"/>
       <c r="Q561" s="3"/>
@@ -28785,10 +30171,16 @@
         <v>561</v>
       </c>
       <c r="B562" t="s">
-        <v>1829</v>
+        <v>2085</v>
+      </c>
+      <c r="D562">
+        <v>1</v>
       </c>
       <c r="E562" t="s">
-        <v>1733</v>
+        <v>2086</v>
+      </c>
+      <c r="G562" t="s">
+        <v>2087</v>
       </c>
       <c r="L562" t="s">
         <v>1721</v>
@@ -28802,10 +30194,16 @@
         <v>562</v>
       </c>
       <c r="B563" t="s">
-        <v>1895</v>
+        <v>2088</v>
+      </c>
+      <c r="D563">
+        <v>1</v>
       </c>
       <c r="E563" t="s">
-        <v>1733</v>
+        <v>2089</v>
+      </c>
+      <c r="G563" t="s">
+        <v>2090</v>
       </c>
       <c r="L563" t="s">
         <v>1714</v>
@@ -28819,10 +30217,16 @@
         <v>563</v>
       </c>
       <c r="B564" t="s">
-        <v>1896</v>
+        <v>2091</v>
+      </c>
+      <c r="D564">
+        <v>1</v>
       </c>
       <c r="E564" t="s">
-        <v>1733</v>
+        <v>2089</v>
+      </c>
+      <c r="G564" t="s">
+        <v>2090</v>
       </c>
       <c r="L564" t="s">
         <v>1723</v>
@@ -28836,10 +30240,16 @@
         <v>564</v>
       </c>
       <c r="B565" t="s">
-        <v>1830</v>
+        <v>2092</v>
+      </c>
+      <c r="D565">
+        <v>1</v>
       </c>
       <c r="E565" t="s">
-        <v>1733</v>
+        <v>2093</v>
+      </c>
+      <c r="G565" t="s">
+        <v>2094</v>
       </c>
       <c r="P565" s="3"/>
       <c r="Q565" s="3"/>
@@ -28850,10 +30260,16 @@
         <v>565</v>
       </c>
       <c r="B566" t="s">
-        <v>1831</v>
+        <v>2095</v>
+      </c>
+      <c r="D566">
+        <v>1</v>
       </c>
       <c r="E566" t="s">
-        <v>1734</v>
+        <v>2096</v>
+      </c>
+      <c r="G566" t="s">
+        <v>2097</v>
       </c>
       <c r="L566" t="s">
         <v>1721</v>
@@ -28867,10 +30283,16 @@
         <v>566</v>
       </c>
       <c r="B567" t="s">
-        <v>1897</v>
+        <v>2098</v>
+      </c>
+      <c r="D567">
+        <v>1</v>
       </c>
       <c r="E567" t="s">
-        <v>1734</v>
+        <v>342</v>
+      </c>
+      <c r="G567" t="s">
+        <v>2099</v>
       </c>
       <c r="L567" t="s">
         <v>1714</v>
@@ -28884,10 +30306,16 @@
         <v>567</v>
       </c>
       <c r="B568" t="s">
-        <v>1898</v>
+        <v>2100</v>
+      </c>
+      <c r="D568">
+        <v>1</v>
       </c>
       <c r="E568" t="s">
-        <v>1734</v>
+        <v>342</v>
+      </c>
+      <c r="G568" t="s">
+        <v>2101</v>
       </c>
       <c r="L568" t="s">
         <v>1723</v>
@@ -28901,10 +30329,16 @@
         <v>568</v>
       </c>
       <c r="B569" t="s">
-        <v>1899</v>
+        <v>2102</v>
+      </c>
+      <c r="D569">
+        <v>1</v>
       </c>
       <c r="E569" t="s">
-        <v>1735</v>
+        <v>2103</v>
+      </c>
+      <c r="G569" t="s">
+        <v>2104</v>
       </c>
       <c r="L569" t="s">
         <v>1736</v>
@@ -28918,10 +30352,16 @@
         <v>569</v>
       </c>
       <c r="B570" t="s">
-        <v>1832</v>
+        <v>2105</v>
+      </c>
+      <c r="D570">
+        <v>1</v>
       </c>
       <c r="E570" t="s">
-        <v>1735</v>
+        <v>2106</v>
+      </c>
+      <c r="G570" t="s">
+        <v>2107</v>
       </c>
       <c r="L570" t="s">
         <v>1799</v>
@@ -28935,10 +30375,16 @@
         <v>570</v>
       </c>
       <c r="B571" t="s">
-        <v>1900</v>
+        <v>2108</v>
+      </c>
+      <c r="D571">
+        <v>1</v>
       </c>
       <c r="E571" t="s">
-        <v>1735</v>
+        <v>2109</v>
+      </c>
+      <c r="G571" t="s">
+        <v>2110</v>
       </c>
       <c r="L571">
         <v>1</v>
@@ -28952,10 +30398,16 @@
         <v>571</v>
       </c>
       <c r="B572" t="s">
-        <v>1901</v>
+        <v>2111</v>
+      </c>
+      <c r="D572">
+        <v>1</v>
       </c>
       <c r="E572" t="s">
-        <v>1735</v>
+        <v>2112</v>
+      </c>
+      <c r="G572" t="s">
+        <v>2113</v>
       </c>
       <c r="L572">
         <v>2</v>
@@ -28969,10 +30421,16 @@
         <v>572</v>
       </c>
       <c r="B573" t="s">
-        <v>1902</v>
+        <v>2114</v>
+      </c>
+      <c r="D573">
+        <v>1</v>
       </c>
       <c r="E573" t="s">
-        <v>1735</v>
+        <v>2115</v>
+      </c>
+      <c r="G573" t="s">
+        <v>2116</v>
       </c>
       <c r="L573">
         <v>3</v>
@@ -28986,10 +30444,16 @@
         <v>573</v>
       </c>
       <c r="B574" t="s">
-        <v>1833</v>
+        <v>2117</v>
+      </c>
+      <c r="D574">
+        <v>1</v>
       </c>
       <c r="E574" t="s">
-        <v>1735</v>
+        <v>2115</v>
+      </c>
+      <c r="G574" t="s">
+        <v>2116</v>
       </c>
       <c r="L574" t="s">
         <v>1800</v>
@@ -29003,10 +30467,16 @@
         <v>574</v>
       </c>
       <c r="B575" t="s">
-        <v>1834</v>
+        <v>2118</v>
+      </c>
+      <c r="D575">
+        <v>1</v>
       </c>
       <c r="E575" t="s">
-        <v>1737</v>
+        <v>2115</v>
+      </c>
+      <c r="G575" t="s">
+        <v>2116</v>
       </c>
       <c r="P575" s="3"/>
       <c r="Q575" s="3"/>
@@ -29017,10 +30487,16 @@
         <v>575</v>
       </c>
       <c r="B576" t="s">
-        <v>1903</v>
+        <v>2119</v>
+      </c>
+      <c r="D576">
+        <v>1</v>
       </c>
       <c r="E576" t="s">
-        <v>1738</v>
+        <v>2120</v>
+      </c>
+      <c r="G576" t="s">
+        <v>2024</v>
       </c>
       <c r="L576" t="s">
         <v>1981</v>
@@ -29034,10 +30510,16 @@
         <v>576</v>
       </c>
       <c r="B577" t="s">
-        <v>1904</v>
+        <v>2121</v>
+      </c>
+      <c r="D577">
+        <v>1</v>
       </c>
       <c r="E577" t="s">
-        <v>1738</v>
+        <v>2122</v>
+      </c>
+      <c r="G577" t="s">
+        <v>2123</v>
       </c>
       <c r="L577" t="s">
         <v>1714</v>
@@ -29051,10 +30533,16 @@
         <v>577</v>
       </c>
       <c r="B578" t="s">
-        <v>1835</v>
+        <v>2124</v>
+      </c>
+      <c r="D578">
+        <v>1</v>
       </c>
       <c r="E578" t="s">
-        <v>1739</v>
+        <v>2125</v>
+      </c>
+      <c r="G578" t="s">
+        <v>2126</v>
       </c>
       <c r="P578" s="3"/>
       <c r="Q578" s="3"/>
@@ -29065,10 +30553,16 @@
         <v>578</v>
       </c>
       <c r="B579" t="s">
-        <v>1905</v>
+        <v>2127</v>
+      </c>
+      <c r="D579">
+        <v>1</v>
       </c>
       <c r="E579" t="s">
-        <v>1740</v>
+        <v>2128</v>
+      </c>
+      <c r="G579" t="s">
+        <v>2129</v>
       </c>
       <c r="L579" t="s">
         <v>1721</v>
@@ -29082,10 +30576,16 @@
         <v>579</v>
       </c>
       <c r="B580" t="s">
-        <v>1906</v>
+        <v>2130</v>
+      </c>
+      <c r="D580">
+        <v>1</v>
       </c>
       <c r="E580" t="s">
-        <v>1740</v>
+        <v>2131</v>
+      </c>
+      <c r="G580" t="s">
+        <v>2132</v>
       </c>
       <c r="L580" t="s">
         <v>1714</v>
@@ -29099,10 +30599,16 @@
         <v>580</v>
       </c>
       <c r="B581" t="s">
-        <v>1836</v>
+        <v>2133</v>
+      </c>
+      <c r="D581">
+        <v>1</v>
       </c>
       <c r="E581" t="s">
-        <v>1741</v>
+        <v>2131</v>
+      </c>
+      <c r="G581" t="s">
+        <v>2132</v>
       </c>
       <c r="P581" s="3"/>
       <c r="Q581" s="3"/>
@@ -29113,10 +30619,16 @@
         <v>581</v>
       </c>
       <c r="B582" t="s">
-        <v>1837</v>
+        <v>2134</v>
+      </c>
+      <c r="D582">
+        <v>1</v>
       </c>
       <c r="E582" t="s">
-        <v>1741</v>
+        <v>2131</v>
+      </c>
+      <c r="G582" t="s">
+        <v>2132</v>
       </c>
       <c r="P582" s="3"/>
       <c r="Q582" s="3"/>
@@ -29127,10 +30639,16 @@
         <v>582</v>
       </c>
       <c r="B583" t="s">
-        <v>1838</v>
+        <v>2135</v>
+      </c>
+      <c r="D583">
+        <v>1</v>
       </c>
       <c r="E583" t="s">
-        <v>1741</v>
+        <v>423</v>
+      </c>
+      <c r="G583" t="s">
+        <v>2136</v>
       </c>
       <c r="P583" s="3"/>
       <c r="Q583" s="3"/>
@@ -29141,10 +30659,16 @@
         <v>583</v>
       </c>
       <c r="B584" t="s">
-        <v>1907</v>
+        <v>2137</v>
+      </c>
+      <c r="D584">
+        <v>1</v>
       </c>
       <c r="E584" t="s">
-        <v>1742</v>
+        <v>2138</v>
+      </c>
+      <c r="G584" t="s">
+        <v>2139</v>
       </c>
       <c r="L584" t="s">
         <v>1743</v>
@@ -29158,10 +30682,16 @@
         <v>584</v>
       </c>
       <c r="B585" t="s">
-        <v>1908</v>
+        <v>2140</v>
+      </c>
+      <c r="D585">
+        <v>1</v>
       </c>
       <c r="E585" t="s">
-        <v>1742</v>
+        <v>2141</v>
+      </c>
+      <c r="G585" t="s">
+        <v>2142</v>
       </c>
       <c r="L585" t="s">
         <v>1744</v>
@@ -29175,10 +30705,16 @@
         <v>585</v>
       </c>
       <c r="B586" t="s">
-        <v>1909</v>
+        <v>2143</v>
+      </c>
+      <c r="D586">
+        <v>1</v>
       </c>
       <c r="E586" t="s">
-        <v>1742</v>
+        <v>2141</v>
+      </c>
+      <c r="G586" t="s">
+        <v>2144</v>
       </c>
       <c r="L586" t="s">
         <v>1745</v>
@@ -29192,10 +30728,16 @@
         <v>586</v>
       </c>
       <c r="B587" t="s">
-        <v>1839</v>
+        <v>2145</v>
+      </c>
+      <c r="D587">
+        <v>1</v>
       </c>
       <c r="E587" t="s">
-        <v>1742</v>
+        <v>2141</v>
+      </c>
+      <c r="G587" t="s">
+        <v>2144</v>
       </c>
       <c r="L587" t="s">
         <v>1746</v>
@@ -29209,10 +30751,16 @@
         <v>587</v>
       </c>
       <c r="B588" t="s">
-        <v>1910</v>
+        <v>2146</v>
+      </c>
+      <c r="D588">
+        <v>1</v>
       </c>
       <c r="E588" t="s">
-        <v>1742</v>
+        <v>2141</v>
+      </c>
+      <c r="G588" t="s">
+        <v>2142</v>
       </c>
       <c r="L588" t="s">
         <v>1721</v>
@@ -29226,10 +30774,16 @@
         <v>588</v>
       </c>
       <c r="B589" t="s">
-        <v>1911</v>
+        <v>2147</v>
+      </c>
+      <c r="D589">
+        <v>1</v>
       </c>
       <c r="E589" t="s">
-        <v>1742</v>
+        <v>2148</v>
+      </c>
+      <c r="G589" t="s">
+        <v>2149</v>
       </c>
       <c r="L589" t="s">
         <v>1714</v>
@@ -29243,10 +30797,16 @@
         <v>589</v>
       </c>
       <c r="B590" t="s">
-        <v>1840</v>
+        <v>2150</v>
+      </c>
+      <c r="D590">
+        <v>1</v>
       </c>
       <c r="E590" t="s">
-        <v>1747</v>
+        <v>2151</v>
+      </c>
+      <c r="G590" t="s">
+        <v>2152</v>
       </c>
       <c r="P590" s="3"/>
       <c r="Q590" s="3"/>
@@ -29257,10 +30817,16 @@
         <v>590</v>
       </c>
       <c r="B591" t="s">
-        <v>1841</v>
+        <v>2153</v>
+      </c>
+      <c r="D591">
+        <v>1</v>
       </c>
       <c r="E591" t="s">
-        <v>1747</v>
+        <v>2154</v>
+      </c>
+      <c r="G591" t="s">
+        <v>2155</v>
       </c>
       <c r="P591" s="3"/>
       <c r="Q591" s="3"/>
@@ -29271,10 +30837,16 @@
         <v>591</v>
       </c>
       <c r="B592" t="s">
-        <v>1842</v>
+        <v>2156</v>
+      </c>
+      <c r="D592">
+        <v>1</v>
       </c>
       <c r="E592" t="s">
-        <v>1748</v>
+        <v>2157</v>
+      </c>
+      <c r="G592" t="s">
+        <v>2158</v>
       </c>
       <c r="P592" s="3"/>
       <c r="Q592" s="3"/>
@@ -29285,10 +30857,16 @@
         <v>592</v>
       </c>
       <c r="B593" t="s">
-        <v>1912</v>
+        <v>2159</v>
+      </c>
+      <c r="D593">
+        <v>1</v>
       </c>
       <c r="E593" t="s">
-        <v>1749</v>
+        <v>2160</v>
+      </c>
+      <c r="G593" t="s">
+        <v>2161</v>
       </c>
       <c r="L593" t="s">
         <v>1714</v>
@@ -29302,10 +30880,16 @@
         <v>593</v>
       </c>
       <c r="B594" t="s">
-        <v>1843</v>
+        <v>2162</v>
+      </c>
+      <c r="D594">
+        <v>1</v>
       </c>
       <c r="E594" t="s">
-        <v>1749</v>
+        <v>2163</v>
+      </c>
+      <c r="G594" t="s">
+        <v>2164</v>
       </c>
       <c r="L594" t="s">
         <v>1723</v>
@@ -29319,10 +30903,16 @@
         <v>594</v>
       </c>
       <c r="B595" t="s">
-        <v>1844</v>
+        <v>2165</v>
+      </c>
+      <c r="D595">
+        <v>1</v>
       </c>
       <c r="E595" t="s">
-        <v>1750</v>
+        <v>2166</v>
+      </c>
+      <c r="G595" t="s">
+        <v>2167</v>
       </c>
       <c r="P595" s="3"/>
       <c r="Q595" s="3"/>
@@ -29333,10 +30923,16 @@
         <v>595</v>
       </c>
       <c r="B596" t="s">
-        <v>1845</v>
+        <v>2168</v>
+      </c>
+      <c r="D596">
+        <v>1</v>
       </c>
       <c r="E596" t="s">
-        <v>1751</v>
+        <v>2169</v>
+      </c>
+      <c r="G596" t="s">
+        <v>2170</v>
       </c>
       <c r="P596" s="3"/>
       <c r="Q596" s="3"/>
@@ -29347,10 +30943,16 @@
         <v>596</v>
       </c>
       <c r="B597" t="s">
-        <v>1913</v>
+        <v>2171</v>
+      </c>
+      <c r="D597">
+        <v>1</v>
       </c>
       <c r="E597" t="s">
-        <v>1752</v>
+        <v>2172</v>
+      </c>
+      <c r="G597" t="s">
+        <v>2024</v>
       </c>
       <c r="L597" t="s">
         <v>1753</v>
@@ -29364,10 +30966,16 @@
         <v>597</v>
       </c>
       <c r="B598" t="s">
-        <v>1846</v>
+        <v>2173</v>
+      </c>
+      <c r="D598">
+        <v>1</v>
       </c>
       <c r="E598" t="s">
-        <v>1752</v>
+        <v>2172</v>
+      </c>
+      <c r="G598" t="s">
+        <v>2024</v>
       </c>
       <c r="L598" t="s">
         <v>1754</v>
@@ -29381,10 +30989,16 @@
         <v>598</v>
       </c>
       <c r="B599" t="s">
-        <v>1847</v>
+        <v>2174</v>
+      </c>
+      <c r="D599">
+        <v>1</v>
       </c>
       <c r="E599" t="s">
-        <v>1755</v>
+        <v>2175</v>
+      </c>
+      <c r="G599" t="s">
+        <v>2024</v>
       </c>
       <c r="L599" t="s">
         <v>1723</v>
@@ -29398,10 +31012,16 @@
         <v>599</v>
       </c>
       <c r="B600" t="s">
-        <v>1914</v>
+        <v>2176</v>
+      </c>
+      <c r="D600">
+        <v>1</v>
       </c>
       <c r="E600" t="s">
-        <v>1756</v>
+        <v>2177</v>
+      </c>
+      <c r="G600" t="s">
+        <v>2024</v>
       </c>
       <c r="L600">
         <v>1</v>
@@ -29415,10 +31035,16 @@
         <v>600</v>
       </c>
       <c r="B601" t="s">
-        <v>1915</v>
+        <v>2178</v>
+      </c>
+      <c r="D601">
+        <v>1</v>
       </c>
       <c r="E601" t="s">
-        <v>1756</v>
+        <v>2179</v>
+      </c>
+      <c r="G601" t="s">
+        <v>2180</v>
       </c>
       <c r="L601">
         <v>2</v>
@@ -29432,10 +31058,16 @@
         <v>601</v>
       </c>
       <c r="B602" t="s">
-        <v>1916</v>
+        <v>2181</v>
+      </c>
+      <c r="D602">
+        <v>1</v>
       </c>
       <c r="E602" t="s">
-        <v>1756</v>
+        <v>2182</v>
+      </c>
+      <c r="G602" t="s">
+        <v>2183</v>
       </c>
       <c r="L602">
         <v>3</v>
@@ -29449,10 +31081,16 @@
         <v>602</v>
       </c>
       <c r="B603" t="s">
-        <v>1917</v>
+        <v>2184</v>
+      </c>
+      <c r="D603">
+        <v>1</v>
       </c>
       <c r="E603" t="s">
-        <v>1756</v>
+        <v>2182</v>
+      </c>
+      <c r="G603" t="s">
+        <v>2185</v>
       </c>
       <c r="L603">
         <v>4</v>
@@ -29466,10 +31104,16 @@
         <v>603</v>
       </c>
       <c r="B604" t="s">
-        <v>1918</v>
+        <v>2186</v>
+      </c>
+      <c r="D604">
+        <v>1</v>
       </c>
       <c r="E604" t="s">
-        <v>1757</v>
+        <v>2188</v>
+      </c>
+      <c r="G604" t="s">
+        <v>2189</v>
       </c>
       <c r="L604">
         <v>1</v>
@@ -29483,10 +31127,16 @@
         <v>604</v>
       </c>
       <c r="B605" t="s">
-        <v>1919</v>
+        <v>2190</v>
+      </c>
+      <c r="D605">
+        <v>1</v>
       </c>
       <c r="E605" t="s">
-        <v>1757</v>
+        <v>2191</v>
+      </c>
+      <c r="G605" t="s">
+        <v>2192</v>
       </c>
       <c r="L605">
         <v>2</v>
@@ -29500,10 +31150,16 @@
         <v>605</v>
       </c>
       <c r="B606" t="s">
-        <v>1920</v>
+        <v>2193</v>
+      </c>
+      <c r="D606">
+        <v>1</v>
       </c>
       <c r="E606" t="s">
-        <v>1757</v>
+        <v>2194</v>
+      </c>
+      <c r="G606" t="s">
+        <v>2195</v>
       </c>
       <c r="L606" t="s">
         <v>1758</v>
@@ -29517,10 +31173,16 @@
         <v>606</v>
       </c>
       <c r="B607" t="s">
-        <v>1848</v>
+        <v>2196</v>
+      </c>
+      <c r="D607">
+        <v>1</v>
       </c>
       <c r="E607" t="s">
-        <v>1759</v>
+        <v>2197</v>
+      </c>
+      <c r="G607" t="s">
+        <v>2198</v>
       </c>
       <c r="P607" s="3"/>
       <c r="Q607" s="3"/>
@@ -29531,10 +31193,16 @@
         <v>607</v>
       </c>
       <c r="B608" t="s">
-        <v>1921</v>
+        <v>2199</v>
+      </c>
+      <c r="D608">
+        <v>1</v>
       </c>
       <c r="E608" t="s">
-        <v>1760</v>
+        <v>2200</v>
+      </c>
+      <c r="G608" t="s">
+        <v>2201</v>
       </c>
       <c r="L608">
         <v>1</v>
@@ -29548,10 +31216,16 @@
         <v>608</v>
       </c>
       <c r="B609" t="s">
-        <v>1922</v>
+        <v>2202</v>
+      </c>
+      <c r="D609">
+        <v>1</v>
       </c>
       <c r="E609" t="s">
-        <v>1760</v>
+        <v>2203</v>
+      </c>
+      <c r="G609" t="s">
+        <v>2204</v>
       </c>
       <c r="L609">
         <v>2</v>
@@ -29565,10 +31239,16 @@
         <v>609</v>
       </c>
       <c r="B610" t="s">
-        <v>1923</v>
+        <v>2205</v>
+      </c>
+      <c r="D610">
+        <v>1</v>
       </c>
       <c r="E610" t="s">
-        <v>1760</v>
+        <v>2206</v>
+      </c>
+      <c r="G610" t="s">
+        <v>2207</v>
       </c>
       <c r="L610">
         <v>3</v>
@@ -29582,10 +31262,16 @@
         <v>610</v>
       </c>
       <c r="B611" t="s">
-        <v>1924</v>
+        <v>2208</v>
+      </c>
+      <c r="D611">
+        <v>1</v>
       </c>
       <c r="E611" t="s">
-        <v>1761</v>
+        <v>2209</v>
+      </c>
+      <c r="G611" t="s">
+        <v>2210</v>
       </c>
       <c r="L611" t="s">
         <v>1762</v>
@@ -29599,10 +31285,16 @@
         <v>611</v>
       </c>
       <c r="B612" t="s">
-        <v>1925</v>
+        <v>2211</v>
+      </c>
+      <c r="D612">
+        <v>1</v>
       </c>
       <c r="E612" t="s">
-        <v>1761</v>
+        <v>2212</v>
+      </c>
+      <c r="G612" t="s">
+        <v>2213</v>
       </c>
       <c r="L612">
         <v>1</v>
@@ -29616,10 +31308,16 @@
         <v>612</v>
       </c>
       <c r="B613" t="s">
-        <v>1926</v>
+        <v>2214</v>
+      </c>
+      <c r="D613">
+        <v>1</v>
       </c>
       <c r="E613" t="s">
-        <v>1761</v>
+        <v>2212</v>
+      </c>
+      <c r="G613" t="s">
+        <v>2213</v>
       </c>
       <c r="L613">
         <v>2</v>
@@ -29633,10 +31331,16 @@
         <v>613</v>
       </c>
       <c r="B614" t="s">
-        <v>1982</v>
+        <v>2215</v>
+      </c>
+      <c r="D614">
+        <v>1</v>
       </c>
       <c r="E614" t="s">
-        <v>1761</v>
+        <v>2212</v>
+      </c>
+      <c r="G614" t="s">
+        <v>2213</v>
       </c>
       <c r="L614">
         <v>3</v>
@@ -29650,10 +31354,16 @@
         <v>614</v>
       </c>
       <c r="B615" t="s">
-        <v>1927</v>
+        <v>2216</v>
+      </c>
+      <c r="D615">
+        <v>1</v>
       </c>
       <c r="E615" t="s">
-        <v>1761</v>
+        <v>2212</v>
+      </c>
+      <c r="G615" t="s">
+        <v>2213</v>
       </c>
       <c r="L615" t="s">
         <v>1983</v>
@@ -29667,10 +31377,16 @@
         <v>615</v>
       </c>
       <c r="B616" t="s">
-        <v>1928</v>
+        <v>2217</v>
+      </c>
+      <c r="D616">
+        <v>1</v>
       </c>
       <c r="E616" t="s">
-        <v>1761</v>
+        <v>2212</v>
+      </c>
+      <c r="G616" t="s">
+        <v>2213</v>
       </c>
       <c r="L616">
         <v>1</v>
@@ -29684,10 +31400,16 @@
         <v>616</v>
       </c>
       <c r="B617" t="s">
-        <v>1929</v>
+        <v>2218</v>
+      </c>
+      <c r="D617">
+        <v>1</v>
       </c>
       <c r="E617" t="s">
-        <v>1761</v>
+        <v>2212</v>
+      </c>
+      <c r="G617" t="s">
+        <v>2213</v>
       </c>
       <c r="L617">
         <v>2</v>
@@ -29701,10 +31423,16 @@
         <v>617</v>
       </c>
       <c r="B618" t="s">
-        <v>1930</v>
+        <v>2219</v>
+      </c>
+      <c r="D618">
+        <v>1</v>
       </c>
       <c r="E618" t="s">
-        <v>1761</v>
+        <v>2212</v>
+      </c>
+      <c r="G618" t="s">
+        <v>2213</v>
       </c>
       <c r="L618">
         <v>3</v>
@@ -29718,10 +31446,16 @@
         <v>618</v>
       </c>
       <c r="B619" t="s">
-        <v>1849</v>
+        <v>2220</v>
+      </c>
+      <c r="D619">
+        <v>1</v>
       </c>
       <c r="E619" t="s">
-        <v>1763</v>
+        <v>2212</v>
+      </c>
+      <c r="G619" t="s">
+        <v>2213</v>
       </c>
       <c r="P619" s="3"/>
       <c r="Q619" s="3"/>
@@ -29732,10 +31466,16 @@
         <v>619</v>
       </c>
       <c r="B620" t="s">
-        <v>1931</v>
+        <v>2221</v>
+      </c>
+      <c r="D620">
+        <v>1</v>
       </c>
       <c r="E620" t="s">
-        <v>1764</v>
+        <v>2212</v>
+      </c>
+      <c r="G620" t="s">
+        <v>2213</v>
       </c>
       <c r="L620" t="s">
         <v>1765</v>
@@ -29749,10 +31489,16 @@
         <v>620</v>
       </c>
       <c r="B621" t="s">
-        <v>1850</v>
+        <v>2222</v>
+      </c>
+      <c r="D621">
+        <v>1</v>
       </c>
       <c r="E621" t="s">
-        <v>1764</v>
+        <v>2212</v>
+      </c>
+      <c r="G621" t="s">
+        <v>2213</v>
       </c>
       <c r="L621">
         <v>2</v>
@@ -29766,10 +31512,16 @@
         <v>621</v>
       </c>
       <c r="B622" t="s">
-        <v>1932</v>
+        <v>2223</v>
+      </c>
+      <c r="D622">
+        <v>1</v>
       </c>
       <c r="E622" t="s">
-        <v>1764</v>
+        <v>2212</v>
+      </c>
+      <c r="G622" t="s">
+        <v>2213</v>
       </c>
       <c r="L622">
         <v>3</v>
@@ -29783,10 +31535,16 @@
         <v>622</v>
       </c>
       <c r="B623" t="s">
-        <v>1933</v>
+        <v>2224</v>
+      </c>
+      <c r="D623">
+        <v>1</v>
       </c>
       <c r="E623" t="s">
-        <v>1764</v>
+        <v>2212</v>
+      </c>
+      <c r="G623" t="s">
+        <v>2213</v>
       </c>
       <c r="L623" t="s">
         <v>1766</v>
@@ -29800,10 +31558,16 @@
         <v>623</v>
       </c>
       <c r="B624" t="s">
-        <v>1851</v>
+        <v>2225</v>
+      </c>
+      <c r="D624">
+        <v>1</v>
       </c>
       <c r="E624" t="s">
-        <v>1767</v>
+        <v>2212</v>
+      </c>
+      <c r="G624" t="s">
+        <v>2213</v>
       </c>
       <c r="P624" s="3"/>
       <c r="Q624" s="3"/>
@@ -29814,10 +31578,16 @@
         <v>624</v>
       </c>
       <c r="B625" t="s">
-        <v>1852</v>
+        <v>2226</v>
+      </c>
+      <c r="D625">
+        <v>1</v>
       </c>
       <c r="E625" t="s">
-        <v>1767</v>
+        <v>2212</v>
+      </c>
+      <c r="G625" t="s">
+        <v>2213</v>
       </c>
       <c r="P625" s="3"/>
       <c r="Q625" s="3"/>
@@ -29828,10 +31598,16 @@
         <v>625</v>
       </c>
       <c r="B626" t="s">
-        <v>1853</v>
+        <v>2227</v>
+      </c>
+      <c r="D626">
+        <v>1</v>
       </c>
       <c r="E626" t="s">
-        <v>1767</v>
+        <v>2212</v>
+      </c>
+      <c r="G626" t="s">
+        <v>2213</v>
       </c>
       <c r="P626" s="3"/>
       <c r="Q626" s="3"/>
@@ -29842,10 +31618,16 @@
         <v>626</v>
       </c>
       <c r="B627" t="s">
-        <v>1854</v>
+        <v>2228</v>
+      </c>
+      <c r="D627">
+        <v>1</v>
       </c>
       <c r="E627" t="s">
-        <v>1767</v>
+        <v>2212</v>
+      </c>
+      <c r="G627" t="s">
+        <v>2213</v>
       </c>
       <c r="P627" s="3"/>
       <c r="Q627" s="3"/>
@@ -29856,10 +31638,16 @@
         <v>627</v>
       </c>
       <c r="B628" t="s">
-        <v>1855</v>
+        <v>2229</v>
+      </c>
+      <c r="D628">
+        <v>1</v>
       </c>
       <c r="E628" t="s">
-        <v>1767</v>
+        <v>2212</v>
+      </c>
+      <c r="G628" t="s">
+        <v>2213</v>
       </c>
       <c r="P628" s="3"/>
       <c r="Q628" s="3"/>
@@ -29870,10 +31658,16 @@
         <v>628</v>
       </c>
       <c r="B629" t="s">
-        <v>1934</v>
+        <v>2230</v>
+      </c>
+      <c r="D629">
+        <v>1</v>
       </c>
       <c r="E629" t="s">
-        <v>1768</v>
+        <v>2231</v>
+      </c>
+      <c r="G629" t="s">
+        <v>2232</v>
       </c>
       <c r="L629" t="s">
         <v>1769</v>
@@ -29887,10 +31681,16 @@
         <v>629</v>
       </c>
       <c r="B630" t="s">
-        <v>1935</v>
+        <v>2233</v>
+      </c>
+      <c r="D630">
+        <v>1</v>
       </c>
       <c r="E630" t="s">
-        <v>1768</v>
+        <v>2234</v>
+      </c>
+      <c r="G630" t="s">
+        <v>2235</v>
       </c>
       <c r="L630" t="s">
         <v>1770</v>
@@ -29904,10 +31704,16 @@
         <v>630</v>
       </c>
       <c r="B631" t="s">
-        <v>1936</v>
+        <v>2236</v>
+      </c>
+      <c r="D631">
+        <v>1</v>
       </c>
       <c r="E631" t="s">
-        <v>1771</v>
+        <v>2237</v>
+      </c>
+      <c r="G631" t="s">
+        <v>2238</v>
       </c>
       <c r="L631">
         <v>1</v>
@@ -29921,10 +31727,16 @@
         <v>631</v>
       </c>
       <c r="B632" t="s">
-        <v>1937</v>
+        <v>2239</v>
+      </c>
+      <c r="D632">
+        <v>1</v>
       </c>
       <c r="E632" t="s">
-        <v>1771</v>
+        <v>2240</v>
+      </c>
+      <c r="G632" t="s">
+        <v>2241</v>
       </c>
       <c r="L632" t="s">
         <v>1766</v>
@@ -29938,10 +31750,16 @@
         <v>632</v>
       </c>
       <c r="B633" t="s">
-        <v>1938</v>
+        <v>2242</v>
+      </c>
+      <c r="D633">
+        <v>1</v>
       </c>
       <c r="E633" t="s">
-        <v>1771</v>
+        <v>2243</v>
+      </c>
+      <c r="G633" t="s">
+        <v>2244</v>
       </c>
       <c r="L633" t="s">
         <v>1772</v>
@@ -29955,10 +31773,16 @@
         <v>633</v>
       </c>
       <c r="B634" t="s">
-        <v>1939</v>
+        <v>2245</v>
+      </c>
+      <c r="D634">
+        <v>1</v>
       </c>
       <c r="E634" t="s">
-        <v>1771</v>
+        <v>2243</v>
+      </c>
+      <c r="G634" t="s">
+        <v>2244</v>
       </c>
       <c r="L634" t="s">
         <v>1773</v>
@@ -29972,10 +31796,16 @@
         <v>634</v>
       </c>
       <c r="B635" t="s">
-        <v>1940</v>
+        <v>2246</v>
+      </c>
+      <c r="D635">
+        <v>1</v>
       </c>
       <c r="E635" t="s">
-        <v>1771</v>
+        <v>2243</v>
+      </c>
+      <c r="G635" t="s">
+        <v>2244</v>
       </c>
       <c r="L635" t="s">
         <v>1774</v>
@@ -29989,10 +31819,16 @@
         <v>635</v>
       </c>
       <c r="B636" t="s">
-        <v>1941</v>
+        <v>2247</v>
+      </c>
+      <c r="D636">
+        <v>1</v>
       </c>
       <c r="E636" t="s">
-        <v>1771</v>
+        <v>2248</v>
+      </c>
+      <c r="G636" t="s">
+        <v>2249</v>
       </c>
       <c r="L636" t="s">
         <v>1775</v>
@@ -30006,10 +31842,16 @@
         <v>636</v>
       </c>
       <c r="B637" t="s">
-        <v>1856</v>
+        <v>2250</v>
+      </c>
+      <c r="D637">
+        <v>1</v>
       </c>
       <c r="E637" t="s">
-        <v>1776</v>
+        <v>2251</v>
+      </c>
+      <c r="G637" t="s">
+        <v>2252</v>
       </c>
       <c r="P637" s="3"/>
       <c r="Q637" s="3"/>
@@ -30020,10 +31862,16 @@
         <v>637</v>
       </c>
       <c r="B638" t="s">
-        <v>1857</v>
+        <v>2253</v>
+      </c>
+      <c r="D638">
+        <v>1</v>
       </c>
       <c r="E638" t="s">
-        <v>1777</v>
+        <v>2251</v>
+      </c>
+      <c r="G638" t="s">
+        <v>2252</v>
       </c>
       <c r="P638" s="3"/>
       <c r="Q638" s="3"/>
@@ -30034,10 +31882,16 @@
         <v>638</v>
       </c>
       <c r="B639" t="s">
-        <v>1858</v>
+        <v>2254</v>
+      </c>
+      <c r="D639">
+        <v>1</v>
       </c>
       <c r="E639" t="s">
-        <v>1778</v>
+        <v>2255</v>
+      </c>
+      <c r="G639" t="s">
+        <v>2256</v>
       </c>
       <c r="P639" s="3"/>
       <c r="Q639" s="3"/>
@@ -30048,10 +31902,16 @@
         <v>639</v>
       </c>
       <c r="B640" t="s">
-        <v>1859</v>
+        <v>2257</v>
+      </c>
+      <c r="D640">
+        <v>1</v>
       </c>
       <c r="E640" t="s">
-        <v>1778</v>
+        <v>2255</v>
+      </c>
+      <c r="G640" t="s">
+        <v>2258</v>
       </c>
       <c r="P640" s="3"/>
       <c r="Q640" s="3"/>
@@ -30062,10 +31922,16 @@
         <v>640</v>
       </c>
       <c r="B641" t="s">
-        <v>1860</v>
+        <v>2259</v>
+      </c>
+      <c r="D641">
+        <v>1</v>
       </c>
       <c r="E641" t="s">
-        <v>1778</v>
+        <v>2255</v>
+      </c>
+      <c r="G641" t="s">
+        <v>2260</v>
       </c>
       <c r="P641" s="3"/>
       <c r="Q641" s="3"/>
@@ -30076,10 +31942,16 @@
         <v>641</v>
       </c>
       <c r="B642" t="s">
-        <v>1861</v>
+        <v>2261</v>
+      </c>
+      <c r="D642">
+        <v>1</v>
       </c>
       <c r="E642" t="s">
-        <v>1778</v>
+        <v>2255</v>
+      </c>
+      <c r="G642" t="s">
+        <v>2262</v>
       </c>
       <c r="P642" s="3"/>
       <c r="Q642" s="3"/>
@@ -30090,10 +31962,16 @@
         <v>642</v>
       </c>
       <c r="B643" t="s">
-        <v>1862</v>
+        <v>2263</v>
+      </c>
+      <c r="D643">
+        <v>1</v>
       </c>
       <c r="E643" t="s">
-        <v>1778</v>
+        <v>2255</v>
+      </c>
+      <c r="G643" t="s">
+        <v>2264</v>
       </c>
       <c r="P643" s="3"/>
       <c r="Q643" s="3"/>
@@ -30104,10 +31982,16 @@
         <v>643</v>
       </c>
       <c r="B644" t="s">
-        <v>1863</v>
+        <v>2265</v>
+      </c>
+      <c r="D644">
+        <v>1</v>
       </c>
       <c r="E644" t="s">
-        <v>1778</v>
+        <v>2255</v>
+      </c>
+      <c r="G644" t="s">
+        <v>2266</v>
       </c>
       <c r="P644" s="3"/>
       <c r="Q644" s="3"/>
@@ -30118,10 +32002,16 @@
         <v>644</v>
       </c>
       <c r="B645" t="s">
-        <v>1864</v>
+        <v>2267</v>
+      </c>
+      <c r="D645">
+        <v>1</v>
       </c>
       <c r="E645" t="s">
-        <v>1778</v>
+        <v>2255</v>
+      </c>
+      <c r="G645" t="s">
+        <v>2268</v>
       </c>
       <c r="P645" s="3"/>
       <c r="Q645" s="3"/>
@@ -30132,10 +32022,16 @@
         <v>645</v>
       </c>
       <c r="B646" t="s">
-        <v>1865</v>
+        <v>2269</v>
+      </c>
+      <c r="D646">
+        <v>1</v>
       </c>
       <c r="E646" t="s">
-        <v>1778</v>
+        <v>2255</v>
+      </c>
+      <c r="G646" t="s">
+        <v>2270</v>
       </c>
       <c r="P646" s="3"/>
       <c r="Q646" s="3"/>
@@ -30146,10 +32042,16 @@
         <v>646</v>
       </c>
       <c r="B647" t="s">
-        <v>1866</v>
+        <v>2271</v>
+      </c>
+      <c r="D647">
+        <v>1</v>
       </c>
       <c r="E647" t="s">
-        <v>1778</v>
+        <v>2255</v>
+      </c>
+      <c r="G647" t="s">
+        <v>2272</v>
       </c>
       <c r="P647" s="3"/>
       <c r="Q647" s="3"/>
@@ -30160,10 +32062,16 @@
         <v>647</v>
       </c>
       <c r="B648" t="s">
-        <v>1867</v>
+        <v>2273</v>
+      </c>
+      <c r="D648">
+        <v>1</v>
       </c>
       <c r="E648" t="s">
-        <v>1778</v>
+        <v>2255</v>
+      </c>
+      <c r="G648" t="s">
+        <v>2274</v>
       </c>
       <c r="P648" s="3"/>
       <c r="Q648" s="3"/>
@@ -30174,10 +32082,16 @@
         <v>648</v>
       </c>
       <c r="B649" t="s">
-        <v>1868</v>
+        <v>2275</v>
+      </c>
+      <c r="D649">
+        <v>1</v>
       </c>
       <c r="E649" t="s">
-        <v>1797</v>
+        <v>2255</v>
+      </c>
+      <c r="G649" t="s">
+        <v>2276</v>
       </c>
       <c r="P649" s="3"/>
       <c r="Q649" s="3"/>
@@ -30188,10 +32102,16 @@
         <v>649</v>
       </c>
       <c r="B650" t="s">
-        <v>1869</v>
+        <v>2277</v>
+      </c>
+      <c r="D650">
+        <v>1</v>
       </c>
       <c r="E650" t="s">
-        <v>1779</v>
+        <v>2255</v>
+      </c>
+      <c r="G650" t="s">
+        <v>2278</v>
       </c>
       <c r="P650" s="3"/>
       <c r="Q650" s="3"/>
@@ -30202,10 +32122,16 @@
         <v>650</v>
       </c>
       <c r="B651" t="s">
-        <v>1869</v>
+        <v>2279</v>
+      </c>
+      <c r="D651">
+        <v>1</v>
       </c>
       <c r="E651" t="s">
-        <v>1779</v>
+        <v>2255</v>
+      </c>
+      <c r="G651" t="s">
+        <v>2280</v>
       </c>
       <c r="P651" s="3"/>
       <c r="Q651" s="3"/>
@@ -30216,10 +32142,16 @@
         <v>651</v>
       </c>
       <c r="B652" t="s">
-        <v>1870</v>
+        <v>2281</v>
+      </c>
+      <c r="D652">
+        <v>1</v>
       </c>
       <c r="E652" t="s">
-        <v>1780</v>
+        <v>2255</v>
+      </c>
+      <c r="G652" t="s">
+        <v>2282</v>
       </c>
       <c r="P652" s="3"/>
       <c r="Q652" s="3"/>
@@ -30230,10 +32162,16 @@
         <v>652</v>
       </c>
       <c r="B653" t="s">
-        <v>1871</v>
+        <v>2283</v>
+      </c>
+      <c r="D653">
+        <v>1</v>
       </c>
       <c r="E653" t="s">
-        <v>1780</v>
+        <v>2255</v>
+      </c>
+      <c r="G653" t="s">
+        <v>2284</v>
       </c>
       <c r="P653" s="3"/>
       <c r="Q653" s="3"/>
@@ -30244,10 +32182,16 @@
         <v>653</v>
       </c>
       <c r="B654" t="s">
-        <v>1872</v>
+        <v>2285</v>
+      </c>
+      <c r="D654">
+        <v>1</v>
       </c>
       <c r="E654" t="s">
-        <v>1781</v>
+        <v>2255</v>
+      </c>
+      <c r="G654" t="s">
+        <v>2286</v>
       </c>
       <c r="P654" s="3"/>
       <c r="Q654" s="3"/>
@@ -30258,10 +32202,16 @@
         <v>654</v>
       </c>
       <c r="B655" t="s">
-        <v>1873</v>
+        <v>2287</v>
+      </c>
+      <c r="D655">
+        <v>1</v>
       </c>
       <c r="E655" t="s">
-        <v>1781</v>
+        <v>2255</v>
+      </c>
+      <c r="G655" t="s">
+        <v>2288</v>
       </c>
       <c r="P655" s="3"/>
       <c r="Q655" s="3"/>
@@ -30272,10 +32222,16 @@
         <v>655</v>
       </c>
       <c r="B656" t="s">
-        <v>1874</v>
+        <v>2289</v>
+      </c>
+      <c r="D656">
+        <v>1</v>
       </c>
       <c r="E656" t="s">
-        <v>1782</v>
+        <v>2255</v>
+      </c>
+      <c r="G656" t="s">
+        <v>2290</v>
       </c>
       <c r="P656" s="3"/>
       <c r="Q656" s="3"/>
@@ -30286,10 +32242,16 @@
         <v>656</v>
       </c>
       <c r="B657" t="s">
-        <v>1875</v>
+        <v>2291</v>
+      </c>
+      <c r="D657">
+        <v>1</v>
       </c>
       <c r="E657" t="s">
-        <v>1782</v>
+        <v>2255</v>
+      </c>
+      <c r="G657" t="s">
+        <v>2292</v>
       </c>
       <c r="L657" t="s">
         <v>1721</v>
@@ -30303,10 +32265,16 @@
         <v>657</v>
       </c>
       <c r="B658" t="s">
-        <v>1876</v>
+        <v>2293</v>
+      </c>
+      <c r="D658">
+        <v>1</v>
       </c>
       <c r="E658" t="s">
-        <v>1782</v>
+        <v>2255</v>
+      </c>
+      <c r="G658" t="s">
+        <v>2294</v>
       </c>
       <c r="L658" t="s">
         <v>1714</v>
@@ -30320,10 +32288,16 @@
         <v>658</v>
       </c>
       <c r="B659" t="s">
-        <v>1877</v>
+        <v>2295</v>
+      </c>
+      <c r="D659">
+        <v>1</v>
       </c>
       <c r="E659" t="s">
-        <v>1783</v>
+        <v>2255</v>
+      </c>
+      <c r="G659" t="s">
+        <v>2296</v>
       </c>
       <c r="P659" s="3"/>
       <c r="Q659" s="3"/>
@@ -30334,10 +32308,16 @@
         <v>659</v>
       </c>
       <c r="B660" t="s">
-        <v>1878</v>
+        <v>2297</v>
+      </c>
+      <c r="D660">
+        <v>1</v>
       </c>
       <c r="E660" t="s">
-        <v>1784</v>
+        <v>2255</v>
+      </c>
+      <c r="G660" t="s">
+        <v>2298</v>
       </c>
       <c r="P660" s="3"/>
       <c r="Q660" s="3"/>
@@ -30348,10 +32328,16 @@
         <v>660</v>
       </c>
       <c r="B661" t="s">
-        <v>1879</v>
+        <v>2299</v>
+      </c>
+      <c r="D661">
+        <v>1</v>
       </c>
       <c r="E661" t="s">
-        <v>1784</v>
+        <v>2255</v>
+      </c>
+      <c r="G661" t="s">
+        <v>2300</v>
       </c>
       <c r="P661" s="3"/>
       <c r="Q661" s="3"/>
@@ -30362,10 +32348,16 @@
         <v>661</v>
       </c>
       <c r="B662" t="s">
-        <v>1942</v>
+        <v>2301</v>
+      </c>
+      <c r="D662">
+        <v>1</v>
       </c>
       <c r="E662" t="s">
-        <v>1785</v>
+        <v>2255</v>
+      </c>
+      <c r="G662" t="s">
+        <v>2302</v>
       </c>
       <c r="L662">
         <v>1</v>
@@ -30379,10 +32371,16 @@
         <v>662</v>
       </c>
       <c r="B663" t="s">
-        <v>1943</v>
+        <v>2303</v>
+      </c>
+      <c r="D663">
+        <v>1</v>
       </c>
       <c r="E663" t="s">
-        <v>1785</v>
+        <v>2255</v>
+      </c>
+      <c r="G663" t="s">
+        <v>2304</v>
       </c>
       <c r="L663">
         <v>2</v>
@@ -30396,10 +32394,16 @@
         <v>663</v>
       </c>
       <c r="B664" t="s">
-        <v>1944</v>
+        <v>2305</v>
+      </c>
+      <c r="D664">
+        <v>1</v>
       </c>
       <c r="E664" t="s">
-        <v>1785</v>
+        <v>2255</v>
+      </c>
+      <c r="G664" t="s">
+        <v>2306</v>
       </c>
       <c r="L664">
         <v>1</v>
@@ -30413,10 +32417,16 @@
         <v>664</v>
       </c>
       <c r="B665" t="s">
-        <v>1945</v>
+        <v>2307</v>
+      </c>
+      <c r="D665">
+        <v>1</v>
       </c>
       <c r="E665" t="s">
-        <v>1785</v>
+        <v>2308</v>
+      </c>
+      <c r="G665" t="s">
+        <v>2309</v>
       </c>
       <c r="L665">
         <v>2</v>
@@ -30430,10 +32440,16 @@
         <v>665</v>
       </c>
       <c r="B666" t="s">
-        <v>1880</v>
+        <v>2310</v>
+      </c>
+      <c r="D666">
+        <v>1</v>
       </c>
       <c r="E666" t="s">
-        <v>1786</v>
+        <v>2308</v>
+      </c>
+      <c r="G666" t="s">
+        <v>2309</v>
       </c>
       <c r="P666" s="3"/>
       <c r="Q666" s="3"/>
@@ -30444,10 +32460,16 @@
         <v>666</v>
       </c>
       <c r="B667" t="s">
-        <v>1881</v>
+        <v>2311</v>
+      </c>
+      <c r="D667">
+        <v>1</v>
       </c>
       <c r="E667" t="s">
-        <v>1787</v>
+        <v>2312</v>
+      </c>
+      <c r="G667" t="s">
+        <v>2313</v>
       </c>
       <c r="P667" s="3"/>
       <c r="Q667" s="3"/>
@@ -30458,10 +32480,16 @@
         <v>667</v>
       </c>
       <c r="B668" t="s">
-        <v>1946</v>
+        <v>2314</v>
+      </c>
+      <c r="D668">
+        <v>1</v>
       </c>
       <c r="E668" t="s">
-        <v>1788</v>
+        <v>2315</v>
+      </c>
+      <c r="G668" t="s">
+        <v>2316</v>
       </c>
       <c r="L668">
         <v>1</v>
@@ -30475,10 +32503,16 @@
         <v>668</v>
       </c>
       <c r="B669" t="s">
-        <v>1947</v>
+        <v>2317</v>
+      </c>
+      <c r="D669">
+        <v>1</v>
       </c>
       <c r="E669" t="s">
-        <v>1788</v>
+        <v>2318</v>
+      </c>
+      <c r="G669" t="s">
+        <v>2319</v>
       </c>
       <c r="L669">
         <v>2</v>
@@ -30492,10 +32526,16 @@
         <v>669</v>
       </c>
       <c r="B670" t="s">
-        <v>1948</v>
+        <v>2320</v>
+      </c>
+      <c r="D670">
+        <v>1</v>
       </c>
       <c r="E670" t="s">
-        <v>1788</v>
+        <v>2321</v>
+      </c>
+      <c r="G670" t="s">
+        <v>2322</v>
       </c>
       <c r="L670">
         <v>3</v>
@@ -30509,10 +32549,16 @@
         <v>670</v>
       </c>
       <c r="B671" t="s">
-        <v>1949</v>
+        <v>2323</v>
+      </c>
+      <c r="D671">
+        <v>1</v>
       </c>
       <c r="E671" t="s">
-        <v>1788</v>
+        <v>2321</v>
+      </c>
+      <c r="G671" t="s">
+        <v>2324</v>
       </c>
       <c r="L671">
         <v>4</v>
@@ -30526,10 +32572,16 @@
         <v>671</v>
       </c>
       <c r="B672" t="s">
-        <v>1882</v>
+        <v>2325</v>
+      </c>
+      <c r="D672">
+        <v>1</v>
       </c>
       <c r="E672" t="s">
-        <v>1789</v>
+        <v>2326</v>
+      </c>
+      <c r="G672" t="s">
+        <v>2327</v>
       </c>
       <c r="P672" s="3"/>
       <c r="Q672" s="3"/>
@@ -30540,10 +32592,16 @@
         <v>672</v>
       </c>
       <c r="B673" t="s">
-        <v>1950</v>
+        <v>2328</v>
+      </c>
+      <c r="D673">
+        <v>1</v>
       </c>
       <c r="E673" t="s">
-        <v>1790</v>
+        <v>2329</v>
+      </c>
+      <c r="G673" t="s">
+        <v>2330</v>
       </c>
       <c r="L673">
         <v>1</v>
@@ -30557,10 +32615,16 @@
         <v>673</v>
       </c>
       <c r="B674" t="s">
-        <v>1951</v>
+        <v>2331</v>
+      </c>
+      <c r="D674">
+        <v>1</v>
       </c>
       <c r="E674" t="s">
-        <v>1790</v>
+        <v>2332</v>
+      </c>
+      <c r="G674" t="s">
+        <v>2333</v>
       </c>
       <c r="L674">
         <v>2</v>
@@ -30574,10 +32638,16 @@
         <v>674</v>
       </c>
       <c r="B675" t="s">
-        <v>1953</v>
+        <v>2334</v>
+      </c>
+      <c r="D675">
+        <v>1</v>
       </c>
       <c r="E675" t="s">
-        <v>1790</v>
+        <v>2335</v>
+      </c>
+      <c r="G675" t="s">
+        <v>2336</v>
       </c>
       <c r="L675">
         <v>1</v>
@@ -30591,10 +32661,16 @@
         <v>675</v>
       </c>
       <c r="B676" t="s">
-        <v>1952</v>
+        <v>2337</v>
+      </c>
+      <c r="D676">
+        <v>1</v>
       </c>
       <c r="E676" t="s">
-        <v>1790</v>
+        <v>2338</v>
+      </c>
+      <c r="G676" t="s">
+        <v>2339</v>
       </c>
       <c r="L676">
         <v>2</v>
@@ -30608,10 +32684,16 @@
         <v>676</v>
       </c>
       <c r="B677" t="s">
-        <v>1954</v>
+        <v>2340</v>
+      </c>
+      <c r="D677">
+        <v>1</v>
       </c>
       <c r="E677" t="s">
-        <v>1790</v>
+        <v>2338</v>
+      </c>
+      <c r="G677" t="s">
+        <v>2339</v>
       </c>
       <c r="L677">
         <v>1</v>
@@ -30625,10 +32707,16 @@
         <v>677</v>
       </c>
       <c r="B678" t="s">
-        <v>1955</v>
+        <v>2341</v>
+      </c>
+      <c r="D678">
+        <v>1</v>
       </c>
       <c r="E678" t="s">
-        <v>1790</v>
+        <v>2338</v>
+      </c>
+      <c r="G678" t="s">
+        <v>2339</v>
       </c>
       <c r="L678">
         <v>2</v>
@@ -30642,10 +32730,16 @@
         <v>678</v>
       </c>
       <c r="B679" t="s">
-        <v>1956</v>
+        <v>2342</v>
+      </c>
+      <c r="D679">
+        <v>1</v>
       </c>
       <c r="E679" t="s">
-        <v>1790</v>
+        <v>2338</v>
+      </c>
+      <c r="G679" t="s">
+        <v>2339</v>
       </c>
       <c r="L679">
         <v>1</v>
@@ -30659,10 +32753,16 @@
         <v>679</v>
       </c>
       <c r="B680" t="s">
-        <v>1957</v>
+        <v>2343</v>
+      </c>
+      <c r="D680">
+        <v>1</v>
       </c>
       <c r="E680" t="s">
-        <v>1790</v>
+        <v>2338</v>
+      </c>
+      <c r="G680" t="s">
+        <v>2339</v>
       </c>
       <c r="L680">
         <v>2</v>
@@ -30676,10 +32776,16 @@
         <v>680</v>
       </c>
       <c r="B681" t="s">
-        <v>1958</v>
+        <v>2344</v>
+      </c>
+      <c r="D681">
+        <v>1</v>
       </c>
       <c r="E681" t="s">
-        <v>1790</v>
+        <v>2338</v>
+      </c>
+      <c r="G681" t="s">
+        <v>2339</v>
       </c>
       <c r="L681">
         <v>1</v>
@@ -30693,10 +32799,16 @@
         <v>681</v>
       </c>
       <c r="B682" t="s">
-        <v>1959</v>
+        <v>2345</v>
+      </c>
+      <c r="D682">
+        <v>1</v>
       </c>
       <c r="E682" t="s">
-        <v>1790</v>
+        <v>2338</v>
+      </c>
+      <c r="G682" t="s">
+        <v>2339</v>
       </c>
       <c r="L682">
         <v>2</v>
@@ -30710,10 +32822,16 @@
         <v>682</v>
       </c>
       <c r="B683" t="s">
-        <v>1960</v>
+        <v>2346</v>
+      </c>
+      <c r="D683">
+        <v>1</v>
       </c>
       <c r="E683" t="s">
-        <v>1790</v>
+        <v>2347</v>
+      </c>
+      <c r="G683" t="s">
+        <v>2348</v>
       </c>
       <c r="L683">
         <v>1</v>
@@ -30727,10 +32845,16 @@
         <v>683</v>
       </c>
       <c r="B684" t="s">
-        <v>1961</v>
+        <v>2349</v>
+      </c>
+      <c r="D684">
+        <v>1</v>
       </c>
       <c r="E684" t="s">
-        <v>1790</v>
+        <v>2347</v>
+      </c>
+      <c r="G684" t="s">
+        <v>2350</v>
       </c>
       <c r="L684">
         <v>2</v>
@@ -30744,10 +32868,16 @@
         <v>684</v>
       </c>
       <c r="B685" t="s">
-        <v>1883</v>
+        <v>2351</v>
+      </c>
+      <c r="D685">
+        <v>1</v>
       </c>
       <c r="E685" t="s">
-        <v>1790</v>
+        <v>2352</v>
+      </c>
+      <c r="G685" t="s">
+        <v>2353</v>
       </c>
       <c r="P685" s="3"/>
       <c r="Q685" s="3"/>
@@ -30758,10 +32888,16 @@
         <v>685</v>
       </c>
       <c r="B686" t="s">
-        <v>1962</v>
+        <v>2354</v>
+      </c>
+      <c r="D686">
+        <v>1</v>
       </c>
       <c r="E686" t="s">
-        <v>1790</v>
+        <v>2355</v>
+      </c>
+      <c r="G686" t="s">
+        <v>2356</v>
       </c>
       <c r="L686">
         <v>1</v>
@@ -30775,10 +32911,16 @@
         <v>686</v>
       </c>
       <c r="B687" t="s">
-        <v>1963</v>
+        <v>2357</v>
+      </c>
+      <c r="D687">
+        <v>1</v>
       </c>
       <c r="E687" t="s">
-        <v>1790</v>
+        <v>2358</v>
+      </c>
+      <c r="G687" t="s">
+        <v>2359</v>
       </c>
       <c r="L687">
         <v>2</v>
@@ -30792,10 +32934,16 @@
         <v>687</v>
       </c>
       <c r="B688" t="s">
-        <v>1964</v>
+        <v>2360</v>
+      </c>
+      <c r="D688">
+        <v>1</v>
       </c>
       <c r="E688" t="s">
-        <v>1790</v>
+        <v>2358</v>
+      </c>
+      <c r="G688" t="s">
+        <v>2359</v>
       </c>
       <c r="L688">
         <v>3</v>
@@ -30809,10 +32957,16 @@
         <v>688</v>
       </c>
       <c r="B689" t="s">
-        <v>1972</v>
+        <v>2361</v>
+      </c>
+      <c r="D689">
+        <v>1</v>
       </c>
       <c r="E689" t="s">
-        <v>1790</v>
+        <v>2362</v>
+      </c>
+      <c r="G689" t="s">
+        <v>2359</v>
       </c>
       <c r="L689" t="s">
         <v>1769</v>
@@ -30826,10 +32980,16 @@
         <v>689</v>
       </c>
       <c r="B690" t="s">
-        <v>1973</v>
+        <v>2363</v>
+      </c>
+      <c r="D690">
+        <v>1</v>
       </c>
       <c r="E690" t="s">
-        <v>1790</v>
+        <v>2358</v>
+      </c>
+      <c r="G690" t="s">
+        <v>2359</v>
       </c>
       <c r="L690" t="s">
         <v>1770</v>
@@ -30843,10 +33003,16 @@
         <v>690</v>
       </c>
       <c r="B691" t="s">
-        <v>1974</v>
+        <v>2364</v>
+      </c>
+      <c r="D691">
+        <v>1</v>
       </c>
       <c r="E691" t="s">
-        <v>1790</v>
+        <v>2358</v>
+      </c>
+      <c r="G691" t="s">
+        <v>2359</v>
       </c>
       <c r="L691" t="s">
         <v>1791</v>
@@ -30860,10 +33026,16 @@
         <v>691</v>
       </c>
       <c r="B692" t="s">
-        <v>1965</v>
+        <v>2365</v>
+      </c>
+      <c r="D692">
+        <v>1</v>
       </c>
       <c r="E692" t="s">
-        <v>1792</v>
+        <v>2358</v>
+      </c>
+      <c r="G692" t="s">
+        <v>2359</v>
       </c>
       <c r="L692">
         <v>1</v>
@@ -30877,10 +33049,16 @@
         <v>692</v>
       </c>
       <c r="B693" t="s">
-        <v>1966</v>
+        <v>2366</v>
+      </c>
+      <c r="D693">
+        <v>1</v>
       </c>
       <c r="E693" t="s">
-        <v>1792</v>
+        <v>2358</v>
+      </c>
+      <c r="G693" t="s">
+        <v>2359</v>
       </c>
       <c r="L693">
         <v>2</v>
@@ -30894,10 +33072,16 @@
         <v>693</v>
       </c>
       <c r="B694" t="s">
-        <v>1967</v>
+        <v>2367</v>
+      </c>
+      <c r="D694">
+        <v>1</v>
       </c>
       <c r="E694" t="s">
-        <v>1792</v>
+        <v>2358</v>
+      </c>
+      <c r="G694" t="s">
+        <v>2359</v>
       </c>
       <c r="L694">
         <v>3</v>
@@ -30911,10 +33095,16 @@
         <v>694</v>
       </c>
       <c r="B695" t="s">
-        <v>1968</v>
+        <v>2368</v>
+      </c>
+      <c r="D695">
+        <v>1</v>
       </c>
       <c r="E695" t="s">
-        <v>1792</v>
+        <v>2358</v>
+      </c>
+      <c r="G695" t="s">
+        <v>2359</v>
       </c>
       <c r="L695">
         <v>1</v>
@@ -30928,10 +33118,16 @@
         <v>695</v>
       </c>
       <c r="B696" t="s">
-        <v>1969</v>
+        <v>2369</v>
+      </c>
+      <c r="D696">
+        <v>1</v>
       </c>
       <c r="E696" t="s">
-        <v>1792</v>
+        <v>2358</v>
+      </c>
+      <c r="G696" t="s">
+        <v>2359</v>
       </c>
       <c r="L696">
         <v>2</v>
@@ -30945,10 +33141,16 @@
         <v>696</v>
       </c>
       <c r="B697" t="s">
-        <v>1970</v>
+        <v>2370</v>
+      </c>
+      <c r="D697">
+        <v>1</v>
       </c>
       <c r="E697" t="s">
-        <v>1792</v>
+        <v>2358</v>
+      </c>
+      <c r="G697" t="s">
+        <v>2359</v>
       </c>
       <c r="L697">
         <v>1</v>
@@ -30962,10 +33164,16 @@
         <v>697</v>
       </c>
       <c r="B698" t="s">
-        <v>1971</v>
+        <v>2371</v>
+      </c>
+      <c r="D698">
+        <v>1</v>
       </c>
       <c r="E698" t="s">
-        <v>1792</v>
+        <v>2358</v>
+      </c>
+      <c r="G698" t="s">
+        <v>2359</v>
       </c>
       <c r="L698">
         <v>2</v>
@@ -30979,10 +33187,16 @@
         <v>698</v>
       </c>
       <c r="B699" t="s">
-        <v>1884</v>
+        <v>2372</v>
+      </c>
+      <c r="D699">
+        <v>1</v>
       </c>
       <c r="E699" t="s">
-        <v>1793</v>
+        <v>2373</v>
+      </c>
+      <c r="G699" t="s">
+        <v>2374</v>
       </c>
       <c r="P699" s="3"/>
       <c r="Q699" s="3"/>
@@ -30993,10 +33207,16 @@
         <v>699</v>
       </c>
       <c r="B700" t="s">
-        <v>1885</v>
+        <v>2375</v>
+      </c>
+      <c r="D700">
+        <v>1</v>
       </c>
       <c r="E700" t="s">
-        <v>1794</v>
+        <v>2376</v>
+      </c>
+      <c r="G700" t="s">
+        <v>2024</v>
       </c>
       <c r="P700" s="3"/>
       <c r="Q700" s="3"/>
@@ -31007,10 +33227,16 @@
         <v>700</v>
       </c>
       <c r="B701" t="s">
-        <v>1886</v>
+        <v>2377</v>
+      </c>
+      <c r="D701">
+        <v>1</v>
       </c>
       <c r="E701" t="s">
-        <v>1795</v>
+        <v>2378</v>
+      </c>
+      <c r="G701" t="s">
+        <v>2024</v>
       </c>
       <c r="P701" s="3"/>
       <c r="Q701" s="3"/>
@@ -31021,10 +33247,16 @@
         <v>701</v>
       </c>
       <c r="B702" t="s">
-        <v>1887</v>
+        <v>2379</v>
+      </c>
+      <c r="D702">
+        <v>1</v>
       </c>
       <c r="E702" t="s">
-        <v>1796</v>
+        <v>2380</v>
+      </c>
+      <c r="G702" t="s">
+        <v>2024</v>
       </c>
       <c r="P702" s="3"/>
       <c r="Q702" s="3"/>
@@ -31035,10 +33267,16 @@
         <v>702</v>
       </c>
       <c r="B703" t="s">
-        <v>1978</v>
+        <v>2381</v>
+      </c>
+      <c r="D703">
+        <v>1</v>
       </c>
       <c r="E703" t="s">
-        <v>1975</v>
+        <v>2380</v>
+      </c>
+      <c r="G703" t="s">
+        <v>2024</v>
       </c>
       <c r="P703" s="3"/>
       <c r="Q703" s="3"/>
@@ -31049,10 +33287,16 @@
         <v>703</v>
       </c>
       <c r="B704" t="s">
-        <v>1979</v>
+        <v>2382</v>
+      </c>
+      <c r="D704">
+        <v>1</v>
       </c>
       <c r="E704" t="s">
-        <v>1975</v>
+        <v>2187</v>
+      </c>
+      <c r="G704" t="s">
+        <v>2383</v>
       </c>
       <c r="P704" s="3"/>
       <c r="Q704" s="3"/>
@@ -31063,10 +33307,16 @@
         <v>704</v>
       </c>
       <c r="B705" t="s">
-        <v>1976</v>
+        <v>2384</v>
+      </c>
+      <c r="D705">
+        <v>1</v>
       </c>
       <c r="E705" t="s">
-        <v>1975</v>
+        <v>681</v>
+      </c>
+      <c r="G705" t="s">
+        <v>2385</v>
       </c>
       <c r="P705" s="3"/>
       <c r="Q705" s="3"/>
@@ -31077,10 +33327,13 @@
         <v>705</v>
       </c>
       <c r="B706" t="s">
-        <v>1980</v>
+        <v>1805</v>
+      </c>
+      <c r="D706">
+        <v>0</v>
       </c>
       <c r="E706" t="s">
-        <v>1975</v>
+        <v>1713</v>
       </c>
       <c r="P706" s="3"/>
       <c r="Q706" s="3"/>
@@ -31091,10 +33344,13 @@
         <v>706</v>
       </c>
       <c r="B707" t="s">
-        <v>1976</v>
+        <v>1807</v>
+      </c>
+      <c r="D707">
+        <v>0</v>
       </c>
       <c r="E707" t="s">
-        <v>1975</v>
+        <v>1713</v>
       </c>
       <c r="P707" s="3"/>
       <c r="Q707" s="3"/>
@@ -31105,10 +33361,13 @@
         <v>707</v>
       </c>
       <c r="B708" t="s">
-        <v>2021</v>
+        <v>1809</v>
+      </c>
+      <c r="D708">
+        <v>0</v>
       </c>
       <c r="E708" t="s">
-        <v>1975</v>
+        <v>1713</v>
       </c>
       <c r="P708" s="3"/>
       <c r="Q708" s="3"/>
@@ -31119,946 +33378,2506 @@
         <v>708</v>
       </c>
       <c r="B709" t="s">
-        <v>1977</v>
+        <v>1811</v>
+      </c>
+      <c r="D709">
+        <v>0</v>
       </c>
       <c r="E709" t="s">
-        <v>1975</v>
+        <v>1713</v>
       </c>
       <c r="P709" s="3"/>
       <c r="Q709" s="3"/>
       <c r="R709" s="3"/>
     </row>
     <row r="710" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B710" t="s">
+        <v>1812</v>
+      </c>
+      <c r="D710">
+        <v>0</v>
+      </c>
+      <c r="E710" t="s">
+        <v>1713</v>
+      </c>
       <c r="P710" s="3"/>
       <c r="Q710" s="3"/>
       <c r="R710" s="3"/>
     </row>
     <row r="711" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B711" t="s">
+        <v>1813</v>
+      </c>
+      <c r="D711">
+        <v>0</v>
+      </c>
+      <c r="E711" t="s">
+        <v>1716</v>
+      </c>
       <c r="P711" s="3"/>
       <c r="Q711" s="3"/>
       <c r="R711" s="3"/>
     </row>
     <row r="712" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B712" t="s">
+        <v>1814</v>
+      </c>
+      <c r="D712">
+        <v>0</v>
+      </c>
+      <c r="E712" t="s">
+        <v>1717</v>
+      </c>
       <c r="P712" s="3"/>
       <c r="Q712" s="3"/>
       <c r="R712" s="3"/>
     </row>
     <row r="713" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B713" t="s">
+        <v>1815</v>
+      </c>
+      <c r="D713">
+        <v>0</v>
+      </c>
+      <c r="E713" t="s">
+        <v>1718</v>
+      </c>
       <c r="P713" s="3"/>
       <c r="Q713" s="3"/>
       <c r="R713" s="3"/>
     </row>
     <row r="714" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B714" t="s">
+        <v>1816</v>
+      </c>
+      <c r="D714">
+        <v>0</v>
+      </c>
+      <c r="E714" t="s">
+        <v>1719</v>
+      </c>
       <c r="P714" s="3"/>
       <c r="Q714" s="3"/>
       <c r="R714" s="3"/>
     </row>
     <row r="715" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B715" t="s">
+        <v>1888</v>
+      </c>
+      <c r="D715">
+        <v>0</v>
+      </c>
+      <c r="E715" t="s">
+        <v>1720</v>
+      </c>
       <c r="P715" s="3"/>
       <c r="Q715" s="3"/>
       <c r="R715" s="3"/>
     </row>
     <row r="716" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B716" t="s">
+        <v>1889</v>
+      </c>
+      <c r="D716">
+        <v>0</v>
+      </c>
+      <c r="E716" t="s">
+        <v>1720</v>
+      </c>
       <c r="P716" s="3"/>
       <c r="Q716" s="3"/>
       <c r="R716" s="3"/>
     </row>
     <row r="717" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B717" t="s">
+        <v>1890</v>
+      </c>
+      <c r="D717">
+        <v>0</v>
+      </c>
+      <c r="E717" t="s">
+        <v>1720</v>
+      </c>
       <c r="P717" s="3"/>
       <c r="Q717" s="3"/>
       <c r="R717" s="3"/>
     </row>
     <row r="718" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B718" t="s">
+        <v>1817</v>
+      </c>
+      <c r="D718">
+        <v>0</v>
+      </c>
+      <c r="E718" t="s">
+        <v>1720</v>
+      </c>
       <c r="P718" s="3"/>
       <c r="Q718" s="3"/>
       <c r="R718" s="3"/>
     </row>
     <row r="719" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B719" t="s">
+        <v>1891</v>
+      </c>
+      <c r="D719">
+        <v>0</v>
+      </c>
+      <c r="E719" t="s">
+        <v>1720</v>
+      </c>
       <c r="P719" s="3"/>
       <c r="Q719" s="3"/>
       <c r="R719" s="3"/>
     </row>
     <row r="720" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B720" t="s">
+        <v>1818</v>
+      </c>
+      <c r="D720">
+        <v>0</v>
+      </c>
+      <c r="E720" t="s">
+        <v>1725</v>
+      </c>
       <c r="P720" s="3"/>
       <c r="Q720" s="3"/>
       <c r="R720" s="3"/>
     </row>
-    <row r="721" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="721" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B721" t="s">
+        <v>1819</v>
+      </c>
+      <c r="D721">
+        <v>0</v>
+      </c>
+      <c r="E721" t="s">
+        <v>1725</v>
+      </c>
       <c r="P721" s="3"/>
       <c r="Q721" s="3"/>
       <c r="R721" s="3"/>
     </row>
-    <row r="722" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="722" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B722" t="s">
+        <v>1820</v>
+      </c>
+      <c r="D722">
+        <v>0</v>
+      </c>
+      <c r="E722" t="s">
+        <v>1725</v>
+      </c>
       <c r="P722" s="3"/>
       <c r="Q722" s="3"/>
       <c r="R722" s="3"/>
     </row>
-    <row r="723" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="723" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B723" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D723">
+        <v>0</v>
+      </c>
+      <c r="E723" t="s">
+        <v>1725</v>
+      </c>
       <c r="P723" s="3"/>
       <c r="Q723" s="3"/>
       <c r="R723" s="3"/>
     </row>
-    <row r="724" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="724" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B724" t="s">
+        <v>1822</v>
+      </c>
+      <c r="D724">
+        <v>0</v>
+      </c>
+      <c r="E724" t="s">
+        <v>1725</v>
+      </c>
       <c r="P724" s="3"/>
       <c r="Q724" s="3"/>
       <c r="R724" s="3"/>
     </row>
-    <row r="725" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="725" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B725" t="s">
+        <v>1823</v>
+      </c>
+      <c r="D725">
+        <v>0</v>
+      </c>
+      <c r="E725" t="s">
+        <v>1725</v>
+      </c>
       <c r="P725" s="3"/>
       <c r="Q725" s="3"/>
       <c r="R725" s="3"/>
     </row>
-    <row r="726" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="726" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B726" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D726">
+        <v>0</v>
+      </c>
+      <c r="E726" t="s">
+        <v>1725</v>
+      </c>
       <c r="P726" s="3"/>
       <c r="Q726" s="3"/>
       <c r="R726" s="3"/>
     </row>
-    <row r="727" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="727" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B727" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D727">
+        <v>0</v>
+      </c>
+      <c r="E727" t="s">
+        <v>1728</v>
+      </c>
       <c r="P727" s="3"/>
       <c r="Q727" s="3"/>
       <c r="R727" s="3"/>
     </row>
-    <row r="728" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="728" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B728" t="s">
+        <v>1892</v>
+      </c>
+      <c r="D728">
+        <v>0</v>
+      </c>
+      <c r="E728" t="s">
+        <v>1729</v>
+      </c>
       <c r="P728" s="3"/>
       <c r="Q728" s="3"/>
       <c r="R728" s="3"/>
     </row>
-    <row r="729" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="729" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B729" t="s">
+        <v>1893</v>
+      </c>
+      <c r="D729">
+        <v>0</v>
+      </c>
+      <c r="E729" t="s">
+        <v>1729</v>
+      </c>
       <c r="P729" s="3"/>
       <c r="Q729" s="3"/>
       <c r="R729" s="3"/>
     </row>
-    <row r="730" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="730" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B730" t="s">
+        <v>1826</v>
+      </c>
+      <c r="D730">
+        <v>0</v>
+      </c>
+      <c r="E730" t="s">
+        <v>1729</v>
+      </c>
       <c r="P730" s="3"/>
       <c r="Q730" s="3"/>
       <c r="R730" s="3"/>
     </row>
-    <row r="731" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="731" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B731" t="s">
+        <v>1894</v>
+      </c>
+      <c r="D731">
+        <v>0</v>
+      </c>
+      <c r="E731" t="s">
+        <v>1731</v>
+      </c>
       <c r="P731" s="3"/>
       <c r="Q731" s="3"/>
       <c r="R731" s="3"/>
     </row>
-    <row r="732" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="732" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B732" t="s">
+        <v>1827</v>
+      </c>
+      <c r="D732">
+        <v>0</v>
+      </c>
+      <c r="E732" t="s">
+        <v>1732</v>
+      </c>
       <c r="P732" s="3"/>
       <c r="Q732" s="3"/>
       <c r="R732" s="3"/>
     </row>
-    <row r="733" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="733" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B733" t="s">
+        <v>1828</v>
+      </c>
+      <c r="D733">
+        <v>0</v>
+      </c>
+      <c r="E733" t="s">
+        <v>1733</v>
+      </c>
       <c r="P733" s="3"/>
       <c r="Q733" s="3"/>
       <c r="R733" s="3"/>
     </row>
-    <row r="734" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="734" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B734" t="s">
+        <v>1829</v>
+      </c>
+      <c r="D734">
+        <v>0</v>
+      </c>
+      <c r="E734" t="s">
+        <v>1733</v>
+      </c>
       <c r="P734" s="3"/>
       <c r="Q734" s="3"/>
       <c r="R734" s="3"/>
     </row>
-    <row r="735" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="735" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B735" t="s">
+        <v>1895</v>
+      </c>
+      <c r="D735">
+        <v>0</v>
+      </c>
+      <c r="E735" t="s">
+        <v>1733</v>
+      </c>
       <c r="P735" s="3"/>
       <c r="Q735" s="3"/>
       <c r="R735" s="3"/>
     </row>
-    <row r="736" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="736" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B736" t="s">
+        <v>1896</v>
+      </c>
+      <c r="D736">
+        <v>0</v>
+      </c>
+      <c r="E736" t="s">
+        <v>1733</v>
+      </c>
       <c r="P736" s="3"/>
       <c r="Q736" s="3"/>
       <c r="R736" s="3"/>
     </row>
-    <row r="737" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="737" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B737" t="s">
+        <v>1830</v>
+      </c>
+      <c r="D737">
+        <v>0</v>
+      </c>
+      <c r="E737" t="s">
+        <v>1733</v>
+      </c>
       <c r="P737" s="3"/>
       <c r="Q737" s="3"/>
       <c r="R737" s="3"/>
     </row>
-    <row r="738" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="738" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B738" t="s">
+        <v>1831</v>
+      </c>
+      <c r="D738">
+        <v>0</v>
+      </c>
+      <c r="E738" t="s">
+        <v>1734</v>
+      </c>
       <c r="P738" s="3"/>
       <c r="Q738" s="3"/>
       <c r="R738" s="3"/>
     </row>
-    <row r="739" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="739" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B739" t="s">
+        <v>1897</v>
+      </c>
+      <c r="D739">
+        <v>0</v>
+      </c>
+      <c r="E739" t="s">
+        <v>1734</v>
+      </c>
       <c r="P739" s="3"/>
       <c r="Q739" s="3"/>
       <c r="R739" s="3"/>
     </row>
-    <row r="740" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="740" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B740" t="s">
+        <v>1898</v>
+      </c>
+      <c r="D740">
+        <v>0</v>
+      </c>
+      <c r="E740" t="s">
+        <v>1734</v>
+      </c>
       <c r="P740" s="3"/>
       <c r="Q740" s="3"/>
       <c r="R740" s="3"/>
     </row>
-    <row r="741" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="741" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B741" t="s">
+        <v>1899</v>
+      </c>
+      <c r="D741">
+        <v>0</v>
+      </c>
+      <c r="E741" t="s">
+        <v>1735</v>
+      </c>
       <c r="P741" s="3"/>
       <c r="Q741" s="3"/>
       <c r="R741" s="3"/>
     </row>
-    <row r="742" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="742" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B742" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D742">
+        <v>0</v>
+      </c>
+      <c r="E742" t="s">
+        <v>1735</v>
+      </c>
       <c r="P742" s="3"/>
       <c r="Q742" s="3"/>
       <c r="R742" s="3"/>
     </row>
-    <row r="743" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="743" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B743" t="s">
+        <v>1900</v>
+      </c>
+      <c r="D743">
+        <v>0</v>
+      </c>
+      <c r="E743" t="s">
+        <v>1735</v>
+      </c>
       <c r="P743" s="3"/>
       <c r="Q743" s="3"/>
       <c r="R743" s="3"/>
     </row>
-    <row r="744" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="744" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B744" t="s">
+        <v>1901</v>
+      </c>
+      <c r="D744">
+        <v>0</v>
+      </c>
+      <c r="E744" t="s">
+        <v>1735</v>
+      </c>
       <c r="P744" s="3"/>
       <c r="Q744" s="3"/>
       <c r="R744" s="3"/>
     </row>
-    <row r="745" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="745" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B745" t="s">
+        <v>1902</v>
+      </c>
+      <c r="D745">
+        <v>0</v>
+      </c>
+      <c r="E745" t="s">
+        <v>1735</v>
+      </c>
       <c r="P745" s="3"/>
       <c r="Q745" s="3"/>
       <c r="R745" s="3"/>
     </row>
-    <row r="746" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="746" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B746" t="s">
+        <v>1833</v>
+      </c>
+      <c r="D746">
+        <v>0</v>
+      </c>
+      <c r="E746" t="s">
+        <v>1735</v>
+      </c>
       <c r="P746" s="3"/>
       <c r="Q746" s="3"/>
       <c r="R746" s="3"/>
     </row>
-    <row r="747" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="747" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B747" t="s">
+        <v>1834</v>
+      </c>
+      <c r="D747">
+        <v>0</v>
+      </c>
+      <c r="E747" t="s">
+        <v>1737</v>
+      </c>
       <c r="P747" s="3"/>
       <c r="Q747" s="3"/>
       <c r="R747" s="3"/>
     </row>
-    <row r="748" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="748" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B748" t="s">
+        <v>1903</v>
+      </c>
+      <c r="D748">
+        <v>0</v>
+      </c>
+      <c r="E748" t="s">
+        <v>1738</v>
+      </c>
       <c r="P748" s="3"/>
       <c r="Q748" s="3"/>
       <c r="R748" s="3"/>
     </row>
-    <row r="749" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="749" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B749" t="s">
+        <v>1904</v>
+      </c>
+      <c r="D749">
+        <v>0</v>
+      </c>
+      <c r="E749" t="s">
+        <v>1738</v>
+      </c>
       <c r="P749" s="3"/>
       <c r="Q749" s="3"/>
       <c r="R749" s="3"/>
     </row>
-    <row r="750" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="750" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B750" t="s">
+        <v>1835</v>
+      </c>
+      <c r="D750">
+        <v>0</v>
+      </c>
+      <c r="E750" t="s">
+        <v>1739</v>
+      </c>
       <c r="P750" s="3"/>
       <c r="Q750" s="3"/>
       <c r="R750" s="3"/>
     </row>
-    <row r="751" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="751" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B751" t="s">
+        <v>1905</v>
+      </c>
+      <c r="D751">
+        <v>0</v>
+      </c>
+      <c r="E751" t="s">
+        <v>1740</v>
+      </c>
       <c r="P751" s="3"/>
       <c r="Q751" s="3"/>
       <c r="R751" s="3"/>
     </row>
-    <row r="752" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="752" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B752" t="s">
+        <v>1906</v>
+      </c>
+      <c r="D752">
+        <v>0</v>
+      </c>
+      <c r="E752" t="s">
+        <v>1740</v>
+      </c>
       <c r="P752" s="3"/>
       <c r="Q752" s="3"/>
       <c r="R752" s="3"/>
     </row>
-    <row r="753" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="753" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B753" t="s">
+        <v>1836</v>
+      </c>
+      <c r="D753">
+        <v>0</v>
+      </c>
+      <c r="E753" t="s">
+        <v>1741</v>
+      </c>
       <c r="P753" s="3"/>
       <c r="Q753" s="3"/>
       <c r="R753" s="3"/>
     </row>
-    <row r="754" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="754" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B754" t="s">
+        <v>1837</v>
+      </c>
+      <c r="D754">
+        <v>0</v>
+      </c>
+      <c r="E754" t="s">
+        <v>1741</v>
+      </c>
       <c r="P754" s="3"/>
       <c r="Q754" s="3"/>
       <c r="R754" s="3"/>
     </row>
-    <row r="755" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="755" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B755" t="s">
+        <v>1838</v>
+      </c>
+      <c r="D755">
+        <v>0</v>
+      </c>
+      <c r="E755" t="s">
+        <v>1741</v>
+      </c>
       <c r="P755" s="3"/>
       <c r="Q755" s="3"/>
       <c r="R755" s="3"/>
     </row>
-    <row r="756" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="756" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B756" t="s">
+        <v>1907</v>
+      </c>
+      <c r="D756">
+        <v>0</v>
+      </c>
+      <c r="E756" t="s">
+        <v>1742</v>
+      </c>
       <c r="P756" s="3"/>
       <c r="Q756" s="3"/>
       <c r="R756" s="3"/>
     </row>
-    <row r="757" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="757" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B757" t="s">
+        <v>1908</v>
+      </c>
+      <c r="D757">
+        <v>0</v>
+      </c>
+      <c r="E757" t="s">
+        <v>1742</v>
+      </c>
       <c r="P757" s="3"/>
       <c r="Q757" s="3"/>
       <c r="R757" s="3"/>
     </row>
-    <row r="758" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="758" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B758" t="s">
+        <v>1909</v>
+      </c>
+      <c r="D758">
+        <v>0</v>
+      </c>
+      <c r="E758" t="s">
+        <v>1742</v>
+      </c>
       <c r="P758" s="3"/>
       <c r="Q758" s="3"/>
       <c r="R758" s="3"/>
     </row>
-    <row r="759" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="759" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B759" t="s">
+        <v>1839</v>
+      </c>
+      <c r="D759">
+        <v>0</v>
+      </c>
+      <c r="E759" t="s">
+        <v>1742</v>
+      </c>
       <c r="P759" s="3"/>
       <c r="Q759" s="3"/>
       <c r="R759" s="3"/>
     </row>
-    <row r="760" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="760" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B760" t="s">
+        <v>1910</v>
+      </c>
+      <c r="D760">
+        <v>0</v>
+      </c>
+      <c r="E760" t="s">
+        <v>1742</v>
+      </c>
       <c r="P760" s="3"/>
       <c r="Q760" s="3"/>
       <c r="R760" s="3"/>
     </row>
-    <row r="761" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="761" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B761" t="s">
+        <v>1911</v>
+      </c>
+      <c r="D761">
+        <v>0</v>
+      </c>
+      <c r="E761" t="s">
+        <v>1742</v>
+      </c>
       <c r="P761" s="3"/>
       <c r="Q761" s="3"/>
       <c r="R761" s="3"/>
     </row>
-    <row r="762" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="762" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B762" t="s">
+        <v>1840</v>
+      </c>
+      <c r="D762">
+        <v>0</v>
+      </c>
+      <c r="E762" t="s">
+        <v>1747</v>
+      </c>
       <c r="P762" s="3"/>
       <c r="Q762" s="3"/>
       <c r="R762" s="3"/>
     </row>
-    <row r="763" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="763" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B763" t="s">
+        <v>1841</v>
+      </c>
+      <c r="D763">
+        <v>0</v>
+      </c>
+      <c r="E763" t="s">
+        <v>1747</v>
+      </c>
       <c r="P763" s="3"/>
       <c r="Q763" s="3"/>
       <c r="R763" s="3"/>
     </row>
-    <row r="764" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="764" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B764" t="s">
+        <v>1842</v>
+      </c>
+      <c r="D764">
+        <v>0</v>
+      </c>
+      <c r="E764" t="s">
+        <v>1748</v>
+      </c>
       <c r="P764" s="3"/>
       <c r="Q764" s="3"/>
       <c r="R764" s="3"/>
     </row>
-    <row r="765" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="765" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B765" t="s">
+        <v>1912</v>
+      </c>
+      <c r="D765">
+        <v>0</v>
+      </c>
+      <c r="E765" t="s">
+        <v>1749</v>
+      </c>
       <c r="P765" s="3"/>
       <c r="Q765" s="3"/>
       <c r="R765" s="3"/>
     </row>
-    <row r="766" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="766" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B766" t="s">
+        <v>1843</v>
+      </c>
+      <c r="D766">
+        <v>0</v>
+      </c>
+      <c r="E766" t="s">
+        <v>1749</v>
+      </c>
       <c r="P766" s="3"/>
       <c r="Q766" s="3"/>
       <c r="R766" s="3"/>
     </row>
-    <row r="767" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="767" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B767" t="s">
+        <v>1844</v>
+      </c>
+      <c r="D767">
+        <v>0</v>
+      </c>
+      <c r="E767" t="s">
+        <v>1750</v>
+      </c>
       <c r="P767" s="3"/>
       <c r="Q767" s="3"/>
       <c r="R767" s="3"/>
     </row>
-    <row r="768" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="768" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B768" t="s">
+        <v>1845</v>
+      </c>
+      <c r="D768">
+        <v>0</v>
+      </c>
+      <c r="E768" t="s">
+        <v>1751</v>
+      </c>
       <c r="P768" s="3"/>
       <c r="Q768" s="3"/>
       <c r="R768" s="3"/>
     </row>
-    <row r="769" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="769" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B769" t="s">
+        <v>1913</v>
+      </c>
+      <c r="D769">
+        <v>0</v>
+      </c>
+      <c r="E769" t="s">
+        <v>1752</v>
+      </c>
       <c r="P769" s="3"/>
       <c r="Q769" s="3"/>
       <c r="R769" s="3"/>
     </row>
-    <row r="770" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="770" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B770" t="s">
+        <v>1846</v>
+      </c>
+      <c r="D770">
+        <v>0</v>
+      </c>
+      <c r="E770" t="s">
+        <v>1752</v>
+      </c>
       <c r="P770" s="3"/>
       <c r="Q770" s="3"/>
       <c r="R770" s="3"/>
     </row>
-    <row r="771" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="771" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B771" t="s">
+        <v>1847</v>
+      </c>
+      <c r="D771">
+        <v>0</v>
+      </c>
+      <c r="E771" t="s">
+        <v>1755</v>
+      </c>
       <c r="P771" s="3"/>
       <c r="Q771" s="3"/>
       <c r="R771" s="3"/>
     </row>
-    <row r="772" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="772" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B772" t="s">
+        <v>1914</v>
+      </c>
+      <c r="D772">
+        <v>0</v>
+      </c>
+      <c r="E772" t="s">
+        <v>1756</v>
+      </c>
       <c r="P772" s="3"/>
       <c r="Q772" s="3"/>
       <c r="R772" s="3"/>
     </row>
-    <row r="773" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="773" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B773" t="s">
+        <v>1915</v>
+      </c>
+      <c r="D773">
+        <v>0</v>
+      </c>
+      <c r="E773" t="s">
+        <v>1756</v>
+      </c>
       <c r="P773" s="3"/>
       <c r="Q773" s="3"/>
       <c r="R773" s="3"/>
     </row>
-    <row r="774" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="774" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B774" t="s">
+        <v>1916</v>
+      </c>
+      <c r="D774">
+        <v>0</v>
+      </c>
+      <c r="E774" t="s">
+        <v>1756</v>
+      </c>
       <c r="P774" s="3"/>
       <c r="Q774" s="3"/>
       <c r="R774" s="3"/>
     </row>
-    <row r="775" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="775" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B775" t="s">
+        <v>1917</v>
+      </c>
+      <c r="D775">
+        <v>0</v>
+      </c>
+      <c r="E775" t="s">
+        <v>1756</v>
+      </c>
       <c r="P775" s="3"/>
       <c r="Q775" s="3"/>
       <c r="R775" s="3"/>
     </row>
-    <row r="776" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="776" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B776" t="s">
+        <v>1918</v>
+      </c>
+      <c r="D776">
+        <v>0</v>
+      </c>
+      <c r="E776" t="s">
+        <v>1757</v>
+      </c>
       <c r="P776" s="3"/>
       <c r="Q776" s="3"/>
       <c r="R776" s="3"/>
     </row>
-    <row r="777" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="777" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B777" t="s">
+        <v>1919</v>
+      </c>
+      <c r="D777">
+        <v>0</v>
+      </c>
+      <c r="E777" t="s">
+        <v>1757</v>
+      </c>
       <c r="P777" s="3"/>
       <c r="Q777" s="3"/>
       <c r="R777" s="3"/>
     </row>
-    <row r="778" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="778" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B778" t="s">
+        <v>1920</v>
+      </c>
+      <c r="D778">
+        <v>0</v>
+      </c>
+      <c r="E778" t="s">
+        <v>1757</v>
+      </c>
       <c r="P778" s="3"/>
       <c r="Q778" s="3"/>
       <c r="R778" s="3"/>
     </row>
-    <row r="779" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="779" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B779" t="s">
+        <v>1848</v>
+      </c>
+      <c r="D779">
+        <v>0</v>
+      </c>
+      <c r="E779" t="s">
+        <v>1759</v>
+      </c>
       <c r="P779" s="3"/>
       <c r="Q779" s="3"/>
       <c r="R779" s="3"/>
     </row>
-    <row r="780" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="780" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B780" t="s">
+        <v>1921</v>
+      </c>
+      <c r="D780">
+        <v>0</v>
+      </c>
+      <c r="E780" t="s">
+        <v>1760</v>
+      </c>
       <c r="P780" s="3"/>
       <c r="Q780" s="3"/>
       <c r="R780" s="3"/>
     </row>
-    <row r="781" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="781" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B781" t="s">
+        <v>1922</v>
+      </c>
+      <c r="D781">
+        <v>0</v>
+      </c>
+      <c r="E781" t="s">
+        <v>1760</v>
+      </c>
       <c r="P781" s="3"/>
       <c r="Q781" s="3"/>
       <c r="R781" s="3"/>
     </row>
-    <row r="782" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="782" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B782" t="s">
+        <v>1923</v>
+      </c>
+      <c r="D782">
+        <v>0</v>
+      </c>
+      <c r="E782" t="s">
+        <v>1760</v>
+      </c>
       <c r="P782" s="3"/>
       <c r="Q782" s="3"/>
       <c r="R782" s="3"/>
     </row>
-    <row r="783" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="783" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B783" t="s">
+        <v>1924</v>
+      </c>
+      <c r="D783">
+        <v>0</v>
+      </c>
+      <c r="E783" t="s">
+        <v>1761</v>
+      </c>
       <c r="P783" s="3"/>
       <c r="Q783" s="3"/>
       <c r="R783" s="3"/>
     </row>
-    <row r="784" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="784" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B784" t="s">
+        <v>1925</v>
+      </c>
+      <c r="D784">
+        <v>0</v>
+      </c>
+      <c r="E784" t="s">
+        <v>1761</v>
+      </c>
       <c r="P784" s="3"/>
       <c r="Q784" s="3"/>
       <c r="R784" s="3"/>
     </row>
-    <row r="785" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="785" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B785" t="s">
+        <v>1926</v>
+      </c>
+      <c r="D785">
+        <v>0</v>
+      </c>
+      <c r="E785" t="s">
+        <v>1761</v>
+      </c>
       <c r="P785" s="3"/>
       <c r="Q785" s="3"/>
       <c r="R785" s="3"/>
     </row>
-    <row r="786" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="786" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B786" t="s">
+        <v>1982</v>
+      </c>
+      <c r="D786">
+        <v>0</v>
+      </c>
+      <c r="E786" t="s">
+        <v>1761</v>
+      </c>
       <c r="P786" s="3"/>
       <c r="Q786" s="3"/>
       <c r="R786" s="3"/>
     </row>
-    <row r="787" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="787" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B787" t="s">
+        <v>1927</v>
+      </c>
+      <c r="D787">
+        <v>0</v>
+      </c>
+      <c r="E787" t="s">
+        <v>1761</v>
+      </c>
       <c r="P787" s="3"/>
       <c r="Q787" s="3"/>
       <c r="R787" s="3"/>
     </row>
-    <row r="788" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="788" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B788" t="s">
+        <v>1928</v>
+      </c>
+      <c r="D788">
+        <v>0</v>
+      </c>
+      <c r="E788" t="s">
+        <v>1761</v>
+      </c>
       <c r="P788" s="3"/>
       <c r="Q788" s="3"/>
       <c r="R788" s="3"/>
     </row>
-    <row r="789" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="789" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B789" t="s">
+        <v>1929</v>
+      </c>
+      <c r="D789">
+        <v>0</v>
+      </c>
+      <c r="E789" t="s">
+        <v>1761</v>
+      </c>
       <c r="P789" s="3"/>
       <c r="Q789" s="3"/>
       <c r="R789" s="3"/>
     </row>
-    <row r="790" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="790" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B790" t="s">
+        <v>1930</v>
+      </c>
+      <c r="D790">
+        <v>0</v>
+      </c>
+      <c r="E790" t="s">
+        <v>1761</v>
+      </c>
       <c r="P790" s="3"/>
       <c r="Q790" s="3"/>
       <c r="R790" s="3"/>
     </row>
-    <row r="791" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="791" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B791" t="s">
+        <v>1849</v>
+      </c>
+      <c r="D791">
+        <v>0</v>
+      </c>
+      <c r="E791" t="s">
+        <v>1763</v>
+      </c>
       <c r="P791" s="3"/>
       <c r="Q791" s="3"/>
       <c r="R791" s="3"/>
     </row>
-    <row r="792" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="792" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B792" t="s">
+        <v>1931</v>
+      </c>
+      <c r="D792">
+        <v>0</v>
+      </c>
+      <c r="E792" t="s">
+        <v>1764</v>
+      </c>
       <c r="P792" s="3"/>
       <c r="Q792" s="3"/>
       <c r="R792" s="3"/>
     </row>
-    <row r="793" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="793" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B793" t="s">
+        <v>1850</v>
+      </c>
+      <c r="D793">
+        <v>0</v>
+      </c>
+      <c r="E793" t="s">
+        <v>1764</v>
+      </c>
       <c r="P793" s="3"/>
       <c r="Q793" s="3"/>
       <c r="R793" s="3"/>
     </row>
-    <row r="794" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="794" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B794" t="s">
+        <v>1932</v>
+      </c>
+      <c r="D794">
+        <v>0</v>
+      </c>
+      <c r="E794" t="s">
+        <v>1764</v>
+      </c>
       <c r="P794" s="3"/>
       <c r="Q794" s="3"/>
       <c r="R794" s="3"/>
     </row>
-    <row r="795" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="795" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B795" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D795">
+        <v>0</v>
+      </c>
+      <c r="E795" t="s">
+        <v>1764</v>
+      </c>
       <c r="P795" s="3"/>
       <c r="Q795" s="3"/>
       <c r="R795" s="3"/>
     </row>
-    <row r="796" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="796" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B796" t="s">
+        <v>1851</v>
+      </c>
+      <c r="D796">
+        <v>0</v>
+      </c>
+      <c r="E796" t="s">
+        <v>1767</v>
+      </c>
       <c r="P796" s="3"/>
       <c r="Q796" s="3"/>
       <c r="R796" s="3"/>
     </row>
-    <row r="797" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="797" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B797" t="s">
+        <v>1852</v>
+      </c>
+      <c r="D797">
+        <v>0</v>
+      </c>
+      <c r="E797" t="s">
+        <v>1767</v>
+      </c>
       <c r="P797" s="3"/>
       <c r="Q797" s="3"/>
       <c r="R797" s="3"/>
     </row>
-    <row r="798" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="798" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B798" t="s">
+        <v>1853</v>
+      </c>
+      <c r="D798">
+        <v>0</v>
+      </c>
+      <c r="E798" t="s">
+        <v>1767</v>
+      </c>
       <c r="P798" s="3"/>
       <c r="Q798" s="3"/>
       <c r="R798" s="3"/>
     </row>
-    <row r="799" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="799" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B799" t="s">
+        <v>1854</v>
+      </c>
+      <c r="D799">
+        <v>0</v>
+      </c>
+      <c r="E799" t="s">
+        <v>1767</v>
+      </c>
       <c r="P799" s="3"/>
       <c r="Q799" s="3"/>
       <c r="R799" s="3"/>
     </row>
-    <row r="800" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="800" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B800" t="s">
+        <v>1855</v>
+      </c>
+      <c r="D800">
+        <v>0</v>
+      </c>
+      <c r="E800" t="s">
+        <v>1767</v>
+      </c>
       <c r="P800" s="3"/>
       <c r="Q800" s="3"/>
       <c r="R800" s="3"/>
     </row>
-    <row r="801" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="801" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B801" t="s">
+        <v>1934</v>
+      </c>
+      <c r="D801">
+        <v>0</v>
+      </c>
+      <c r="E801" t="s">
+        <v>1768</v>
+      </c>
       <c r="P801" s="3"/>
       <c r="Q801" s="3"/>
       <c r="R801" s="3"/>
     </row>
-    <row r="802" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="802" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B802" t="s">
+        <v>1935</v>
+      </c>
+      <c r="D802">
+        <v>0</v>
+      </c>
+      <c r="E802" t="s">
+        <v>1768</v>
+      </c>
       <c r="P802" s="3"/>
       <c r="Q802" s="3"/>
       <c r="R802" s="3"/>
     </row>
-    <row r="803" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="803" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B803" t="s">
+        <v>1936</v>
+      </c>
+      <c r="D803">
+        <v>0</v>
+      </c>
+      <c r="E803" t="s">
+        <v>1771</v>
+      </c>
       <c r="P803" s="3"/>
       <c r="Q803" s="3"/>
       <c r="R803" s="3"/>
     </row>
-    <row r="804" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="804" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B804" t="s">
+        <v>1937</v>
+      </c>
+      <c r="D804">
+        <v>0</v>
+      </c>
+      <c r="E804" t="s">
+        <v>1771</v>
+      </c>
       <c r="P804" s="3"/>
       <c r="Q804" s="3"/>
       <c r="R804" s="3"/>
     </row>
-    <row r="805" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="805" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B805" t="s">
+        <v>1938</v>
+      </c>
+      <c r="D805">
+        <v>0</v>
+      </c>
+      <c r="E805" t="s">
+        <v>1771</v>
+      </c>
       <c r="P805" s="3"/>
       <c r="Q805" s="3"/>
       <c r="R805" s="3"/>
     </row>
-    <row r="806" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="806" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B806" t="s">
+        <v>1939</v>
+      </c>
+      <c r="D806">
+        <v>0</v>
+      </c>
+      <c r="E806" t="s">
+        <v>1771</v>
+      </c>
       <c r="P806" s="3"/>
       <c r="Q806" s="3"/>
       <c r="R806" s="3"/>
     </row>
-    <row r="807" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="807" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B807" t="s">
+        <v>1940</v>
+      </c>
+      <c r="D807">
+        <v>0</v>
+      </c>
+      <c r="E807" t="s">
+        <v>1771</v>
+      </c>
       <c r="P807" s="3"/>
       <c r="Q807" s="3"/>
       <c r="R807" s="3"/>
     </row>
-    <row r="808" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="808" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B808" t="s">
+        <v>1941</v>
+      </c>
+      <c r="D808">
+        <v>0</v>
+      </c>
+      <c r="E808" t="s">
+        <v>1771</v>
+      </c>
       <c r="P808" s="3"/>
       <c r="Q808" s="3"/>
       <c r="R808" s="3"/>
     </row>
-    <row r="809" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="809" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B809" t="s">
+        <v>1856</v>
+      </c>
+      <c r="D809">
+        <v>0</v>
+      </c>
+      <c r="E809" t="s">
+        <v>1776</v>
+      </c>
       <c r="P809" s="3"/>
       <c r="Q809" s="3"/>
       <c r="R809" s="3"/>
     </row>
-    <row r="810" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="810" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B810" t="s">
+        <v>1857</v>
+      </c>
+      <c r="D810">
+        <v>0</v>
+      </c>
+      <c r="E810" t="s">
+        <v>1777</v>
+      </c>
       <c r="P810" s="3"/>
       <c r="Q810" s="3"/>
       <c r="R810" s="3"/>
     </row>
-    <row r="811" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="811" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B811" t="s">
+        <v>1858</v>
+      </c>
+      <c r="D811">
+        <v>0</v>
+      </c>
+      <c r="E811" t="s">
+        <v>1778</v>
+      </c>
       <c r="P811" s="3"/>
       <c r="Q811" s="3"/>
       <c r="R811" s="3"/>
     </row>
-    <row r="812" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="812" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B812" t="s">
+        <v>1859</v>
+      </c>
+      <c r="D812">
+        <v>0</v>
+      </c>
+      <c r="E812" t="s">
+        <v>1778</v>
+      </c>
       <c r="P812" s="3"/>
       <c r="Q812" s="3"/>
       <c r="R812" s="3"/>
     </row>
-    <row r="813" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="813" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B813" t="s">
+        <v>1860</v>
+      </c>
+      <c r="D813">
+        <v>0</v>
+      </c>
+      <c r="E813" t="s">
+        <v>1778</v>
+      </c>
       <c r="P813" s="3"/>
       <c r="Q813" s="3"/>
       <c r="R813" s="3"/>
     </row>
-    <row r="814" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="814" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B814" t="s">
+        <v>1861</v>
+      </c>
+      <c r="D814">
+        <v>0</v>
+      </c>
+      <c r="E814" t="s">
+        <v>1778</v>
+      </c>
       <c r="P814" s="3"/>
       <c r="Q814" s="3"/>
       <c r="R814" s="3"/>
     </row>
-    <row r="815" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="815" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B815" t="s">
+        <v>1862</v>
+      </c>
+      <c r="D815">
+        <v>0</v>
+      </c>
+      <c r="E815" t="s">
+        <v>1778</v>
+      </c>
       <c r="P815" s="3"/>
       <c r="Q815" s="3"/>
       <c r="R815" s="3"/>
     </row>
-    <row r="816" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="816" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B816" t="s">
+        <v>1863</v>
+      </c>
+      <c r="D816">
+        <v>0</v>
+      </c>
+      <c r="E816" t="s">
+        <v>1778</v>
+      </c>
       <c r="P816" s="3"/>
       <c r="Q816" s="3"/>
       <c r="R816" s="3"/>
     </row>
-    <row r="817" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="817" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B817" t="s">
+        <v>1864</v>
+      </c>
+      <c r="D817">
+        <v>0</v>
+      </c>
+      <c r="E817" t="s">
+        <v>1778</v>
+      </c>
       <c r="P817" s="3"/>
       <c r="Q817" s="3"/>
       <c r="R817" s="3"/>
     </row>
-    <row r="818" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="818" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B818" t="s">
+        <v>1865</v>
+      </c>
+      <c r="D818">
+        <v>0</v>
+      </c>
+      <c r="E818" t="s">
+        <v>1778</v>
+      </c>
       <c r="P818" s="3"/>
       <c r="Q818" s="3"/>
       <c r="R818" s="3"/>
     </row>
-    <row r="819" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="819" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B819" t="s">
+        <v>1866</v>
+      </c>
+      <c r="D819">
+        <v>0</v>
+      </c>
+      <c r="E819" t="s">
+        <v>1778</v>
+      </c>
       <c r="P819" s="3"/>
       <c r="Q819" s="3"/>
       <c r="R819" s="3"/>
     </row>
-    <row r="820" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="820" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B820" t="s">
+        <v>1867</v>
+      </c>
+      <c r="D820">
+        <v>0</v>
+      </c>
+      <c r="E820" t="s">
+        <v>1778</v>
+      </c>
       <c r="P820" s="3"/>
       <c r="Q820" s="3"/>
       <c r="R820" s="3"/>
     </row>
-    <row r="821" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="821" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B821" t="s">
+        <v>1868</v>
+      </c>
+      <c r="D821">
+        <v>0</v>
+      </c>
+      <c r="E821" t="s">
+        <v>1797</v>
+      </c>
       <c r="P821" s="3"/>
       <c r="Q821" s="3"/>
       <c r="R821" s="3"/>
     </row>
-    <row r="822" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="822" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B822" t="s">
+        <v>1869</v>
+      </c>
+      <c r="D822">
+        <v>0</v>
+      </c>
+      <c r="E822" t="s">
+        <v>1779</v>
+      </c>
       <c r="P822" s="3"/>
       <c r="Q822" s="3"/>
       <c r="R822" s="3"/>
     </row>
-    <row r="823" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="823" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B823" t="s">
+        <v>1869</v>
+      </c>
+      <c r="D823">
+        <v>0</v>
+      </c>
+      <c r="E823" t="s">
+        <v>1779</v>
+      </c>
       <c r="P823" s="3"/>
       <c r="Q823" s="3"/>
       <c r="R823" s="3"/>
     </row>
-    <row r="824" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="824" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B824" t="s">
+        <v>1870</v>
+      </c>
+      <c r="D824">
+        <v>0</v>
+      </c>
+      <c r="E824" t="s">
+        <v>1780</v>
+      </c>
       <c r="P824" s="3"/>
       <c r="Q824" s="3"/>
       <c r="R824" s="3"/>
     </row>
-    <row r="825" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="825" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B825" t="s">
+        <v>1871</v>
+      </c>
+      <c r="D825">
+        <v>0</v>
+      </c>
+      <c r="E825" t="s">
+        <v>1780</v>
+      </c>
       <c r="P825" s="3"/>
       <c r="Q825" s="3"/>
       <c r="R825" s="3"/>
     </row>
-    <row r="826" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="826" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B826" t="s">
+        <v>1872</v>
+      </c>
+      <c r="D826">
+        <v>0</v>
+      </c>
+      <c r="E826" t="s">
+        <v>1781</v>
+      </c>
       <c r="P826" s="3"/>
       <c r="Q826" s="3"/>
       <c r="R826" s="3"/>
     </row>
-    <row r="827" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="827" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B827" t="s">
+        <v>1873</v>
+      </c>
+      <c r="D827">
+        <v>0</v>
+      </c>
+      <c r="E827" t="s">
+        <v>1781</v>
+      </c>
       <c r="P827" s="3"/>
       <c r="Q827" s="3"/>
       <c r="R827" s="3"/>
     </row>
-    <row r="828" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="828" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B828" t="s">
+        <v>1874</v>
+      </c>
+      <c r="D828">
+        <v>0</v>
+      </c>
+      <c r="E828" t="s">
+        <v>1782</v>
+      </c>
       <c r="P828" s="3"/>
       <c r="Q828" s="3"/>
       <c r="R828" s="3"/>
     </row>
-    <row r="829" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="829" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B829" t="s">
+        <v>1875</v>
+      </c>
+      <c r="D829">
+        <v>0</v>
+      </c>
+      <c r="E829" t="s">
+        <v>1782</v>
+      </c>
       <c r="P829" s="3"/>
       <c r="Q829" s="3"/>
       <c r="R829" s="3"/>
     </row>
-    <row r="830" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="830" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B830" t="s">
+        <v>1876</v>
+      </c>
+      <c r="D830">
+        <v>0</v>
+      </c>
+      <c r="E830" t="s">
+        <v>1782</v>
+      </c>
       <c r="P830" s="3"/>
       <c r="Q830" s="3"/>
       <c r="R830" s="3"/>
     </row>
-    <row r="831" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="831" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B831" t="s">
+        <v>1877</v>
+      </c>
+      <c r="D831">
+        <v>0</v>
+      </c>
+      <c r="E831" t="s">
+        <v>1783</v>
+      </c>
       <c r="P831" s="3"/>
       <c r="Q831" s="3"/>
       <c r="R831" s="3"/>
     </row>
-    <row r="832" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="832" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B832" t="s">
+        <v>1878</v>
+      </c>
+      <c r="D832">
+        <v>0</v>
+      </c>
+      <c r="E832" t="s">
+        <v>1784</v>
+      </c>
       <c r="P832" s="3"/>
       <c r="Q832" s="3"/>
       <c r="R832" s="3"/>
     </row>
-    <row r="833" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="833" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B833" t="s">
+        <v>1879</v>
+      </c>
+      <c r="D833">
+        <v>0</v>
+      </c>
+      <c r="E833" t="s">
+        <v>1784</v>
+      </c>
       <c r="P833" s="3"/>
       <c r="Q833" s="3"/>
       <c r="R833" s="3"/>
     </row>
-    <row r="834" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="834" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B834" t="s">
+        <v>1942</v>
+      </c>
+      <c r="D834">
+        <v>0</v>
+      </c>
+      <c r="E834" t="s">
+        <v>1785</v>
+      </c>
       <c r="P834" s="3"/>
       <c r="Q834" s="3"/>
       <c r="R834" s="3"/>
     </row>
-    <row r="835" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="835" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B835" t="s">
+        <v>1943</v>
+      </c>
+      <c r="D835">
+        <v>0</v>
+      </c>
+      <c r="E835" t="s">
+        <v>1785</v>
+      </c>
       <c r="P835" s="3"/>
       <c r="Q835" s="3"/>
       <c r="R835" s="3"/>
     </row>
-    <row r="836" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="836" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B836" t="s">
+        <v>1944</v>
+      </c>
+      <c r="D836">
+        <v>0</v>
+      </c>
+      <c r="E836" t="s">
+        <v>1785</v>
+      </c>
       <c r="P836" s="3"/>
       <c r="Q836" s="3"/>
       <c r="R836" s="3"/>
     </row>
-    <row r="837" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="837" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B837" t="s">
+        <v>1945</v>
+      </c>
+      <c r="D837">
+        <v>0</v>
+      </c>
+      <c r="E837" t="s">
+        <v>1785</v>
+      </c>
       <c r="P837" s="3"/>
       <c r="Q837" s="3"/>
       <c r="R837" s="3"/>
     </row>
-    <row r="838" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="838" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B838" t="s">
+        <v>1880</v>
+      </c>
+      <c r="D838">
+        <v>0</v>
+      </c>
+      <c r="E838" t="s">
+        <v>1786</v>
+      </c>
       <c r="P838" s="3"/>
       <c r="Q838" s="3"/>
       <c r="R838" s="3"/>
     </row>
-    <row r="839" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="839" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B839" t="s">
+        <v>1881</v>
+      </c>
+      <c r="D839">
+        <v>0</v>
+      </c>
+      <c r="E839" t="s">
+        <v>1787</v>
+      </c>
       <c r="P839" s="3"/>
       <c r="Q839" s="3"/>
       <c r="R839" s="3"/>
     </row>
-    <row r="840" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="840" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B840" t="s">
+        <v>1946</v>
+      </c>
+      <c r="D840">
+        <v>0</v>
+      </c>
+      <c r="E840" t="s">
+        <v>1788</v>
+      </c>
       <c r="P840" s="3"/>
       <c r="Q840" s="3"/>
       <c r="R840" s="3"/>
     </row>
-    <row r="841" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="841" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B841" t="s">
+        <v>1947</v>
+      </c>
+      <c r="D841">
+        <v>0</v>
+      </c>
+      <c r="E841" t="s">
+        <v>1788</v>
+      </c>
       <c r="P841" s="3"/>
       <c r="Q841" s="3"/>
       <c r="R841" s="3"/>
     </row>
-    <row r="842" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="842" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B842" t="s">
+        <v>1948</v>
+      </c>
+      <c r="D842">
+        <v>0</v>
+      </c>
+      <c r="E842" t="s">
+        <v>1788</v>
+      </c>
       <c r="P842" s="3"/>
       <c r="Q842" s="3"/>
       <c r="R842" s="3"/>
     </row>
-    <row r="843" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="843" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B843" t="s">
+        <v>1949</v>
+      </c>
+      <c r="D843">
+        <v>0</v>
+      </c>
+      <c r="E843" t="s">
+        <v>1788</v>
+      </c>
       <c r="P843" s="3"/>
       <c r="Q843" s="3"/>
       <c r="R843" s="3"/>
     </row>
-    <row r="844" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="844" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B844" t="s">
+        <v>1882</v>
+      </c>
+      <c r="D844">
+        <v>0</v>
+      </c>
+      <c r="E844" t="s">
+        <v>1789</v>
+      </c>
       <c r="P844" s="3"/>
       <c r="Q844" s="3"/>
       <c r="R844" s="3"/>
     </row>
-    <row r="845" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="845" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B845" t="s">
+        <v>1950</v>
+      </c>
+      <c r="D845">
+        <v>0</v>
+      </c>
+      <c r="E845" t="s">
+        <v>1790</v>
+      </c>
       <c r="P845" s="3"/>
       <c r="Q845" s="3"/>
       <c r="R845" s="3"/>
     </row>
-    <row r="846" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="846" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B846" t="s">
+        <v>1951</v>
+      </c>
+      <c r="D846">
+        <v>0</v>
+      </c>
+      <c r="E846" t="s">
+        <v>1790</v>
+      </c>
       <c r="P846" s="3"/>
       <c r="Q846" s="3"/>
       <c r="R846" s="3"/>
     </row>
-    <row r="847" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="847" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B847" t="s">
+        <v>1953</v>
+      </c>
+      <c r="D847">
+        <v>0</v>
+      </c>
+      <c r="E847" t="s">
+        <v>1790</v>
+      </c>
       <c r="P847" s="3"/>
       <c r="Q847" s="3"/>
       <c r="R847" s="3"/>
     </row>
-    <row r="848" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="848" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B848" t="s">
+        <v>1952</v>
+      </c>
+      <c r="D848">
+        <v>0</v>
+      </c>
+      <c r="E848" t="s">
+        <v>1790</v>
+      </c>
       <c r="P848" s="3"/>
       <c r="Q848" s="3"/>
       <c r="R848" s="3"/>
     </row>
-    <row r="849" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="849" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B849" t="s">
+        <v>1954</v>
+      </c>
+      <c r="D849">
+        <v>0</v>
+      </c>
+      <c r="E849" t="s">
+        <v>1790</v>
+      </c>
       <c r="P849" s="3"/>
       <c r="Q849" s="3"/>
       <c r="R849" s="3"/>
     </row>
-    <row r="850" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="850" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B850" t="s">
+        <v>1955</v>
+      </c>
+      <c r="D850">
+        <v>0</v>
+      </c>
+      <c r="E850" t="s">
+        <v>1790</v>
+      </c>
       <c r="P850" s="3"/>
       <c r="Q850" s="3"/>
       <c r="R850" s="3"/>
     </row>
-    <row r="851" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="851" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B851" t="s">
+        <v>1956</v>
+      </c>
+      <c r="D851">
+        <v>0</v>
+      </c>
+      <c r="E851" t="s">
+        <v>1790</v>
+      </c>
       <c r="P851" s="3"/>
       <c r="Q851" s="3"/>
       <c r="R851" s="3"/>
     </row>
-    <row r="852" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="852" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B852" t="s">
+        <v>1957</v>
+      </c>
+      <c r="D852">
+        <v>0</v>
+      </c>
+      <c r="E852" t="s">
+        <v>1790</v>
+      </c>
       <c r="P852" s="3"/>
       <c r="Q852" s="3"/>
       <c r="R852" s="3"/>
     </row>
-    <row r="853" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="853" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B853" t="s">
+        <v>1958</v>
+      </c>
+      <c r="D853">
+        <v>0</v>
+      </c>
+      <c r="E853" t="s">
+        <v>1790</v>
+      </c>
       <c r="P853" s="3"/>
       <c r="Q853" s="3"/>
       <c r="R853" s="3"/>
     </row>
-    <row r="854" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="854" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B854" t="s">
+        <v>1959</v>
+      </c>
+      <c r="D854">
+        <v>0</v>
+      </c>
+      <c r="E854" t="s">
+        <v>1790</v>
+      </c>
       <c r="P854" s="3"/>
       <c r="Q854" s="3"/>
       <c r="R854" s="3"/>
     </row>
-    <row r="855" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="855" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B855" t="s">
+        <v>1960</v>
+      </c>
+      <c r="D855">
+        <v>0</v>
+      </c>
+      <c r="E855" t="s">
+        <v>1790</v>
+      </c>
       <c r="P855" s="3"/>
       <c r="Q855" s="3"/>
       <c r="R855" s="3"/>
     </row>
-    <row r="856" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="856" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B856" t="s">
+        <v>1961</v>
+      </c>
+      <c r="D856">
+        <v>0</v>
+      </c>
+      <c r="E856" t="s">
+        <v>1790</v>
+      </c>
       <c r="P856" s="3"/>
       <c r="Q856" s="3"/>
       <c r="R856" s="3"/>
     </row>
-    <row r="857" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="857" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B857" t="s">
+        <v>1883</v>
+      </c>
+      <c r="D857">
+        <v>0</v>
+      </c>
+      <c r="E857" t="s">
+        <v>1790</v>
+      </c>
       <c r="P857" s="3"/>
       <c r="Q857" s="3"/>
       <c r="R857" s="3"/>
     </row>
-    <row r="858" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="858" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B858" t="s">
+        <v>1962</v>
+      </c>
+      <c r="D858">
+        <v>0</v>
+      </c>
+      <c r="E858" t="s">
+        <v>1790</v>
+      </c>
       <c r="P858" s="3"/>
       <c r="Q858" s="3"/>
       <c r="R858" s="3"/>
     </row>
-    <row r="859" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="859" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B859" t="s">
+        <v>1963</v>
+      </c>
+      <c r="D859">
+        <v>0</v>
+      </c>
+      <c r="E859" t="s">
+        <v>1790</v>
+      </c>
       <c r="P859" s="3"/>
       <c r="Q859" s="3"/>
       <c r="R859" s="3"/>
     </row>
-    <row r="860" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="860" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B860" t="s">
+        <v>1964</v>
+      </c>
+      <c r="D860">
+        <v>0</v>
+      </c>
+      <c r="E860" t="s">
+        <v>1790</v>
+      </c>
       <c r="P860" s="3"/>
       <c r="Q860" s="3"/>
       <c r="R860" s="3"/>
     </row>
-    <row r="861" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="861" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B861" t="s">
+        <v>1972</v>
+      </c>
+      <c r="D861">
+        <v>0</v>
+      </c>
+      <c r="E861" t="s">
+        <v>1790</v>
+      </c>
       <c r="P861" s="3"/>
       <c r="Q861" s="3"/>
       <c r="R861" s="3"/>
     </row>
-    <row r="862" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="862" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B862" t="s">
+        <v>1973</v>
+      </c>
+      <c r="D862">
+        <v>0</v>
+      </c>
+      <c r="E862" t="s">
+        <v>1790</v>
+      </c>
       <c r="P862" s="3"/>
       <c r="Q862" s="3"/>
       <c r="R862" s="3"/>
     </row>
-    <row r="863" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="863" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B863" t="s">
+        <v>1974</v>
+      </c>
+      <c r="D863">
+        <v>0</v>
+      </c>
+      <c r="E863" t="s">
+        <v>1790</v>
+      </c>
       <c r="P863" s="3"/>
       <c r="Q863" s="3"/>
       <c r="R863" s="3"/>
     </row>
-    <row r="864" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="864" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B864" t="s">
+        <v>2386</v>
+      </c>
+      <c r="D864">
+        <v>0</v>
+      </c>
+      <c r="E864" t="s">
+        <v>1790</v>
+      </c>
       <c r="P864" s="3"/>
       <c r="Q864" s="3"/>
       <c r="R864" s="3"/>
     </row>
-    <row r="865" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="865" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B865" t="s">
+        <v>1965</v>
+      </c>
+      <c r="D865">
+        <v>0</v>
+      </c>
+      <c r="E865" t="s">
+        <v>1792</v>
+      </c>
       <c r="P865" s="3"/>
       <c r="Q865" s="3"/>
       <c r="R865" s="3"/>
     </row>
-    <row r="866" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="866" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B866" t="s">
+        <v>1966</v>
+      </c>
+      <c r="D866">
+        <v>0</v>
+      </c>
+      <c r="E866" t="s">
+        <v>1792</v>
+      </c>
       <c r="P866" s="3"/>
       <c r="Q866" s="3"/>
       <c r="R866" s="3"/>
     </row>
-    <row r="867" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="867" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B867" t="s">
+        <v>1967</v>
+      </c>
+      <c r="D867">
+        <v>0</v>
+      </c>
+      <c r="E867" t="s">
+        <v>1792</v>
+      </c>
       <c r="P867" s="3"/>
       <c r="Q867" s="3"/>
       <c r="R867" s="3"/>
     </row>
-    <row r="868" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="868" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B868" t="s">
+        <v>1968</v>
+      </c>
+      <c r="D868">
+        <v>0</v>
+      </c>
+      <c r="E868" t="s">
+        <v>1792</v>
+      </c>
       <c r="P868" s="3"/>
       <c r="Q868" s="3"/>
       <c r="R868" s="3"/>
     </row>
-    <row r="869" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="869" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B869" t="s">
+        <v>1969</v>
+      </c>
+      <c r="D869">
+        <v>0</v>
+      </c>
+      <c r="E869" t="s">
+        <v>1792</v>
+      </c>
       <c r="P869" s="3"/>
       <c r="Q869" s="3"/>
       <c r="R869" s="3"/>
     </row>
-    <row r="870" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="870" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B870" t="s">
+        <v>1970</v>
+      </c>
+      <c r="D870">
+        <v>0</v>
+      </c>
+      <c r="E870" t="s">
+        <v>1792</v>
+      </c>
       <c r="P870" s="3"/>
       <c r="Q870" s="3"/>
       <c r="R870" s="3"/>
     </row>
-    <row r="871" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="871" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B871" t="s">
+        <v>1971</v>
+      </c>
+      <c r="D871">
+        <v>0</v>
+      </c>
+      <c r="E871" t="s">
+        <v>1792</v>
+      </c>
       <c r="P871" s="3"/>
       <c r="Q871" s="3"/>
       <c r="R871" s="3"/>
     </row>
-    <row r="872" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="872" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B872" t="s">
+        <v>1884</v>
+      </c>
+      <c r="D872">
+        <v>0</v>
+      </c>
+      <c r="E872" t="s">
+        <v>1793</v>
+      </c>
       <c r="P872" s="3"/>
       <c r="Q872" s="3"/>
       <c r="R872" s="3"/>
     </row>
-    <row r="873" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="873" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B873" t="s">
+        <v>1885</v>
+      </c>
+      <c r="D873">
+        <v>0</v>
+      </c>
+      <c r="E873" t="s">
+        <v>1794</v>
+      </c>
       <c r="P873" s="3"/>
       <c r="Q873" s="3"/>
       <c r="R873" s="3"/>
     </row>
-    <row r="874" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="874" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B874" t="s">
+        <v>1886</v>
+      </c>
+      <c r="D874">
+        <v>0</v>
+      </c>
+      <c r="E874" t="s">
+        <v>1795</v>
+      </c>
       <c r="P874" s="3"/>
       <c r="Q874" s="3"/>
       <c r="R874" s="3"/>
     </row>
-    <row r="875" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="875" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B875" t="s">
+        <v>1887</v>
+      </c>
+      <c r="D875">
+        <v>0</v>
+      </c>
+      <c r="E875" t="s">
+        <v>1796</v>
+      </c>
       <c r="P875" s="3"/>
       <c r="Q875" s="3"/>
       <c r="R875" s="3"/>
     </row>
-    <row r="876" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="876" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B876" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D876">
+        <v>0</v>
+      </c>
+      <c r="E876" t="s">
+        <v>1975</v>
+      </c>
       <c r="P876" s="3"/>
       <c r="Q876" s="3"/>
       <c r="R876" s="3"/>
     </row>
-    <row r="877" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="877" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B877" t="s">
+        <v>1979</v>
+      </c>
+      <c r="D877">
+        <v>0</v>
+      </c>
+      <c r="E877" t="s">
+        <v>1975</v>
+      </c>
       <c r="P877" s="3"/>
       <c r="Q877" s="3"/>
       <c r="R877" s="3"/>
     </row>
-    <row r="878" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="878" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B878" t="s">
+        <v>1976</v>
+      </c>
+      <c r="D878">
+        <v>0</v>
+      </c>
+      <c r="E878" t="s">
+        <v>1975</v>
+      </c>
       <c r="P878" s="3"/>
       <c r="Q878" s="3"/>
       <c r="R878" s="3"/>
     </row>
-    <row r="879" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="879" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B879" t="s">
+        <v>1980</v>
+      </c>
+      <c r="D879">
+        <v>0</v>
+      </c>
+      <c r="E879" t="s">
+        <v>1975</v>
+      </c>
       <c r="P879" s="3"/>
       <c r="Q879" s="3"/>
       <c r="R879" s="3"/>
     </row>
-    <row r="880" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="880" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B880" t="s">
+        <v>1976</v>
+      </c>
+      <c r="D880">
+        <v>0</v>
+      </c>
+      <c r="E880" t="s">
+        <v>1975</v>
+      </c>
       <c r="P880" s="3"/>
       <c r="Q880" s="3"/>
       <c r="R880" s="3"/>
     </row>
-    <row r="881" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="881" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B881" t="s">
+        <v>2021</v>
+      </c>
+      <c r="D881">
+        <v>0</v>
+      </c>
+      <c r="E881" t="s">
+        <v>1975</v>
+      </c>
       <c r="P881" s="3"/>
       <c r="Q881" s="3"/>
       <c r="R881" s="3"/>
     </row>
-    <row r="882" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="882" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B882" t="s">
+        <v>1977</v>
+      </c>
+      <c r="D882">
+        <v>0</v>
+      </c>
+      <c r="E882" t="s">
+        <v>1975</v>
+      </c>
       <c r="P882" s="3"/>
       <c r="Q882" s="3"/>
       <c r="R882" s="3"/>
     </row>
-    <row r="883" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="883" spans="2:18" x14ac:dyDescent="0.3">
       <c r="P883" s="3"/>
       <c r="Q883" s="3"/>
       <c r="R883" s="3"/>
     </row>
-    <row r="884" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="884" spans="2:18" x14ac:dyDescent="0.3">
       <c r="P884" s="3"/>
       <c r="Q884" s="3"/>
       <c r="R884" s="3"/>
     </row>
-    <row r="885" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="885" spans="2:18" x14ac:dyDescent="0.3">
       <c r="P885" s="3"/>
       <c r="Q885" s="3"/>
       <c r="R885" s="3"/>
     </row>
-    <row r="886" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="886" spans="2:18" x14ac:dyDescent="0.3">
       <c r="P886" s="3"/>
       <c r="Q886" s="3"/>
       <c r="R886" s="3"/>
     </row>
-    <row r="887" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="887" spans="2:18" x14ac:dyDescent="0.3">
       <c r="P887" s="3"/>
       <c r="Q887" s="3"/>
       <c r="R887" s="3"/>
     </row>
-    <row r="888" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="888" spans="2:18" x14ac:dyDescent="0.3">
       <c r="P888" s="3"/>
       <c r="Q888" s="3"/>
       <c r="R888" s="3"/>
     </row>
-    <row r="889" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="889" spans="2:18" x14ac:dyDescent="0.3">
       <c r="P889" s="3"/>
       <c r="Q889" s="3"/>
       <c r="R889" s="3"/>
     </row>
-    <row r="890" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="890" spans="2:18" x14ac:dyDescent="0.3">
       <c r="P890" s="3"/>
       <c r="Q890" s="3"/>
       <c r="R890" s="3"/>
     </row>
-    <row r="891" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="891" spans="2:18" x14ac:dyDescent="0.3">
       <c r="P891" s="3"/>
       <c r="Q891" s="3"/>
       <c r="R891" s="3"/>
     </row>
-    <row r="892" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="892" spans="2:18" x14ac:dyDescent="0.3">
       <c r="P892" s="3"/>
       <c r="Q892" s="3"/>
       <c r="R892" s="3"/>
     </row>
-    <row r="893" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="893" spans="2:18" x14ac:dyDescent="0.3">
       <c r="P893" s="3"/>
       <c r="Q893" s="3"/>
       <c r="R893" s="3"/>
     </row>
-    <row r="894" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="894" spans="2:18" x14ac:dyDescent="0.3">
       <c r="P894" s="3"/>
       <c r="Q894" s="3"/>
       <c r="R894" s="3"/>
     </row>
-    <row r="895" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="895" spans="2:18" x14ac:dyDescent="0.3">
       <c r="P895" s="3"/>
       <c r="Q895" s="3"/>
       <c r="R895" s="3"/>
     </row>
-    <row r="896" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="896" spans="2:18" x14ac:dyDescent="0.3">
       <c r="P896" s="3"/>
       <c r="Q896" s="3"/>
       <c r="R896" s="3"/>
@@ -32244,7 +36063,6 @@
       <c r="R932" s="3"/>
     </row>
     <row r="933" spans="15:18" x14ac:dyDescent="0.3">
-      <c r="O933" s="3"/>
       <c r="P933" s="3"/>
       <c r="Q933" s="3"/>
       <c r="R933" s="3"/>
@@ -35008,6 +38826,12 @@
       <c r="P1393" s="3"/>
       <c r="Q1393" s="3"/>
       <c r="R1393" s="3"/>
+    </row>
+    <row r="1394" spans="15:18" x14ac:dyDescent="0.3">
+      <c r="O1394" s="3"/>
+      <c r="P1394" s="3"/>
+      <c r="Q1394" s="3"/>
+      <c r="R1394" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/national_cert.xlsx
+++ b/national_cert.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4897" uniqueCount="2387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4952" uniqueCount="2442">
   <si>
     <t>id</t>
   </si>
@@ -7456,6 +7456,179 @@
   </si>
   <si>
     <t>ITQ 엑세스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화물운송종사</t>
+  </si>
+  <si>
+    <t>굴삭기운전기능사</t>
+  </si>
+  <si>
+    <t>건설기계조종사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>포크레인기능사</t>
+  </si>
+  <si>
+    <t>대부관리사</t>
+  </si>
+  <si>
+    <t>병원코디네이터 1급</t>
+  </si>
+  <si>
+    <t>6급항해사</t>
+  </si>
+  <si>
+    <t>CS관리사 1급</t>
+  </si>
+  <si>
+    <t>CS관리사 2급</t>
+  </si>
+  <si>
+    <t>청각사</t>
+  </si>
+  <si>
+    <t>사회복지사2급</t>
+  </si>
+  <si>
+    <t>평생교육사 2급</t>
+  </si>
+  <si>
+    <t>코디네이터</t>
+  </si>
+  <si>
+    <t>컴퓨터활용능력 2급</t>
+  </si>
+  <si>
+    <t>피부관리사</t>
+  </si>
+  <si>
+    <t>청능사</t>
+  </si>
+  <si>
+    <t>보청기관리사</t>
+  </si>
+  <si>
+    <t>MOS Master</t>
+  </si>
+  <si>
+    <t>TOEIC Speaking</t>
+  </si>
+  <si>
+    <t>TOEIC</t>
+  </si>
+  <si>
+    <t>PMP</t>
+  </si>
+  <si>
+    <t>PRINCE2</t>
+  </si>
+  <si>
+    <t>MCSE</t>
+  </si>
+  <si>
+    <t>MCP</t>
+  </si>
+  <si>
+    <t>CCNA</t>
+  </si>
+  <si>
+    <t>1종소형운전면허</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOS Excel</t>
+  </si>
+  <si>
+    <t>MOS Word</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOS Powerpoint</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴퓨터활용능력 1급</t>
+  </si>
+  <si>
+    <t>ACA Photoshop</t>
+  </si>
+  <si>
+    <t>ACA Illustrator</t>
+  </si>
+  <si>
+    <t>바리스타</t>
+  </si>
+  <si>
+    <t>워드프로세서</t>
+  </si>
+  <si>
+    <t>컴퓨터그래픽스운용기능사</t>
+  </si>
+  <si>
+    <t>리눅스마스터 2급</t>
+  </si>
+  <si>
+    <t>리눅스마스터 1급</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPA</t>
+  </si>
+  <si>
+    <t>Barista Skills Professional</t>
+  </si>
+  <si>
+    <t>교통사고분석사</t>
+  </si>
+  <si>
+    <t>인공지능 학습용 데이터 프로젝트 매니저(AIDPM)</t>
+  </si>
+  <si>
+    <t>GTQ 일러스트 1급</t>
+  </si>
+  <si>
+    <t>CIA(국제공인내부감사사)</t>
+  </si>
+  <si>
+    <t>CISA(국제공인정보시스템감사사)</t>
+  </si>
+  <si>
+    <t>ISTQB Certified Tester Foundation Level (ISTQB CTFL)</t>
+  </si>
+  <si>
+    <t>홈피</t>
+  </si>
+  <si>
+    <t>빅데이터분석기사</t>
+  </si>
+  <si>
+    <t>정보보안기사</t>
+  </si>
+  <si>
+    <t>회계정보처리(FAT) 2급</t>
+  </si>
+  <si>
+    <t>응급구조사 2급</t>
+  </si>
+  <si>
+    <t>인명구조요원</t>
+  </si>
+  <si>
+    <t>GAC (Google Analytics Certification)</t>
+  </si>
+  <si>
+    <t>생활체육지도자 3급</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>생활체육지도자 2급</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>생활체육지도자 1급</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -7560,7 +7733,48 @@
     <cellStyle name="보통" xfId="1" builtinId="28"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -7858,11 +8072,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R1394"/>
+  <dimension ref="A1:R1391"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A869" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B884" sqref="B884"/>
+      <pane ySplit="1" topLeftCell="A918" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B938" sqref="B938"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -34974,13 +35188,13 @@
     </row>
     <row r="823" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B823" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="D823">
         <v>0</v>
       </c>
       <c r="E823" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="P823" s="3"/>
       <c r="Q823" s="3"/>
@@ -34988,7 +35202,7 @@
     </row>
     <row r="824" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B824" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="D824">
         <v>0</v>
@@ -35002,13 +35216,13 @@
     </row>
     <row r="825" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B825" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="D825">
         <v>0</v>
       </c>
       <c r="E825" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="P825" s="3"/>
       <c r="Q825" s="3"/>
@@ -35016,7 +35230,7 @@
     </row>
     <row r="826" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B826" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="D826">
         <v>0</v>
@@ -35030,13 +35244,13 @@
     </row>
     <row r="827" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B827" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="D827">
         <v>0</v>
       </c>
       <c r="E827" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="P827" s="3"/>
       <c r="Q827" s="3"/>
@@ -35044,7 +35258,7 @@
     </row>
     <row r="828" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B828" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="D828">
         <v>0</v>
@@ -35058,7 +35272,7 @@
     </row>
     <row r="829" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B829" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="D829">
         <v>0</v>
@@ -35072,13 +35286,13 @@
     </row>
     <row r="830" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B830" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="D830">
         <v>0</v>
       </c>
       <c r="E830" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="P830" s="3"/>
       <c r="Q830" s="3"/>
@@ -35086,13 +35300,13 @@
     </row>
     <row r="831" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B831" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="D831">
         <v>0</v>
       </c>
       <c r="E831" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="P831" s="3"/>
       <c r="Q831" s="3"/>
@@ -35100,7 +35314,7 @@
     </row>
     <row r="832" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B832" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="D832">
         <v>0</v>
@@ -35114,13 +35328,13 @@
     </row>
     <row r="833" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B833" t="s">
-        <v>1879</v>
+        <v>1942</v>
       </c>
       <c r="D833">
         <v>0</v>
       </c>
       <c r="E833" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="P833" s="3"/>
       <c r="Q833" s="3"/>
@@ -35128,7 +35342,7 @@
     </row>
     <row r="834" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B834" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="D834">
         <v>0</v>
@@ -35142,7 +35356,7 @@
     </row>
     <row r="835" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B835" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="D835">
         <v>0</v>
@@ -35156,7 +35370,7 @@
     </row>
     <row r="836" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B836" t="s">
-        <v>1944</v>
+        <v>1945</v>
       </c>
       <c r="D836">
         <v>0</v>
@@ -35170,13 +35384,13 @@
     </row>
     <row r="837" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B837" t="s">
-        <v>1945</v>
+        <v>1880</v>
       </c>
       <c r="D837">
         <v>0</v>
       </c>
       <c r="E837" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="P837" s="3"/>
       <c r="Q837" s="3"/>
@@ -35184,13 +35398,13 @@
     </row>
     <row r="838" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B838" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="D838">
         <v>0</v>
       </c>
       <c r="E838" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="P838" s="3"/>
       <c r="Q838" s="3"/>
@@ -35198,13 +35412,13 @@
     </row>
     <row r="839" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B839" t="s">
-        <v>1881</v>
+        <v>1946</v>
       </c>
       <c r="D839">
         <v>0</v>
       </c>
       <c r="E839" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="P839" s="3"/>
       <c r="Q839" s="3"/>
@@ -35212,7 +35426,7 @@
     </row>
     <row r="840" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B840" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="D840">
         <v>0</v>
@@ -35226,7 +35440,7 @@
     </row>
     <row r="841" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B841" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="D841">
         <v>0</v>
@@ -35240,7 +35454,7 @@
     </row>
     <row r="842" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B842" t="s">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="D842">
         <v>0</v>
@@ -35254,13 +35468,13 @@
     </row>
     <row r="843" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B843" t="s">
-        <v>1949</v>
+        <v>1882</v>
       </c>
       <c r="D843">
         <v>0</v>
       </c>
       <c r="E843" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="P843" s="3"/>
       <c r="Q843" s="3"/>
@@ -35268,13 +35482,13 @@
     </row>
     <row r="844" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B844" t="s">
-        <v>1882</v>
+        <v>1950</v>
       </c>
       <c r="D844">
         <v>0</v>
       </c>
       <c r="E844" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="P844" s="3"/>
       <c r="Q844" s="3"/>
@@ -35282,7 +35496,7 @@
     </row>
     <row r="845" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B845" t="s">
-        <v>1950</v>
+        <v>1951</v>
       </c>
       <c r="D845">
         <v>0</v>
@@ -35296,7 +35510,7 @@
     </row>
     <row r="846" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B846" t="s">
-        <v>1951</v>
+        <v>1953</v>
       </c>
       <c r="D846">
         <v>0</v>
@@ -35310,7 +35524,7 @@
     </row>
     <row r="847" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B847" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="D847">
         <v>0</v>
@@ -35324,7 +35538,7 @@
     </row>
     <row r="848" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B848" t="s">
-        <v>1952</v>
+        <v>1954</v>
       </c>
       <c r="D848">
         <v>0</v>
@@ -35338,7 +35552,7 @@
     </row>
     <row r="849" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B849" t="s">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="D849">
         <v>0</v>
@@ -35352,7 +35566,7 @@
     </row>
     <row r="850" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B850" t="s">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="D850">
         <v>0</v>
@@ -35366,7 +35580,7 @@
     </row>
     <row r="851" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B851" t="s">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="D851">
         <v>0</v>
@@ -35380,7 +35594,7 @@
     </row>
     <row r="852" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B852" t="s">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="D852">
         <v>0</v>
@@ -35394,7 +35608,7 @@
     </row>
     <row r="853" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B853" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="D853">
         <v>0</v>
@@ -35408,7 +35622,7 @@
     </row>
     <row r="854" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B854" t="s">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="D854">
         <v>0</v>
@@ -35422,7 +35636,7 @@
     </row>
     <row r="855" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B855" t="s">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="D855">
         <v>0</v>
@@ -35436,7 +35650,7 @@
     </row>
     <row r="856" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B856" t="s">
-        <v>1961</v>
+        <v>1883</v>
       </c>
       <c r="D856">
         <v>0</v>
@@ -35450,7 +35664,7 @@
     </row>
     <row r="857" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B857" t="s">
-        <v>1883</v>
+        <v>1962</v>
       </c>
       <c r="D857">
         <v>0</v>
@@ -35464,7 +35678,7 @@
     </row>
     <row r="858" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B858" t="s">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="D858">
         <v>0</v>
@@ -35478,7 +35692,7 @@
     </row>
     <row r="859" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B859" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="D859">
         <v>0</v>
@@ -35492,7 +35706,7 @@
     </row>
     <row r="860" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B860" t="s">
-        <v>1964</v>
+        <v>1972</v>
       </c>
       <c r="D860">
         <v>0</v>
@@ -35506,7 +35720,7 @@
     </row>
     <row r="861" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B861" t="s">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="D861">
         <v>0</v>
@@ -35520,7 +35734,7 @@
     </row>
     <row r="862" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B862" t="s">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="D862">
         <v>0</v>
@@ -35534,7 +35748,7 @@
     </row>
     <row r="863" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B863" t="s">
-        <v>1974</v>
+        <v>2386</v>
       </c>
       <c r="D863">
         <v>0</v>
@@ -35548,13 +35762,13 @@
     </row>
     <row r="864" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B864" t="s">
-        <v>2386</v>
+        <v>1965</v>
       </c>
       <c r="D864">
         <v>0</v>
       </c>
       <c r="E864" t="s">
-        <v>1790</v>
+        <v>1792</v>
       </c>
       <c r="P864" s="3"/>
       <c r="Q864" s="3"/>
@@ -35562,7 +35776,7 @@
     </row>
     <row r="865" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B865" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="D865">
         <v>0</v>
@@ -35576,7 +35790,7 @@
     </row>
     <row r="866" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B866" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="D866">
         <v>0</v>
@@ -35590,7 +35804,7 @@
     </row>
     <row r="867" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B867" t="s">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="D867">
         <v>0</v>
@@ -35604,7 +35818,7 @@
     </row>
     <row r="868" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B868" t="s">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="D868">
         <v>0</v>
@@ -35618,7 +35832,7 @@
     </row>
     <row r="869" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B869" t="s">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="D869">
         <v>0</v>
@@ -35632,7 +35846,7 @@
     </row>
     <row r="870" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B870" t="s">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="D870">
         <v>0</v>
@@ -35646,13 +35860,13 @@
     </row>
     <row r="871" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B871" t="s">
-        <v>1971</v>
+        <v>1884</v>
       </c>
       <c r="D871">
         <v>0</v>
       </c>
       <c r="E871" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="P871" s="3"/>
       <c r="Q871" s="3"/>
@@ -35660,13 +35874,13 @@
     </row>
     <row r="872" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B872" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="D872">
         <v>0</v>
       </c>
       <c r="E872" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="P872" s="3"/>
       <c r="Q872" s="3"/>
@@ -35674,13 +35888,13 @@
     </row>
     <row r="873" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B873" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="D873">
         <v>0</v>
       </c>
       <c r="E873" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="P873" s="3"/>
       <c r="Q873" s="3"/>
@@ -35688,13 +35902,13 @@
     </row>
     <row r="874" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B874" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="D874">
         <v>0</v>
       </c>
       <c r="E874" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="P874" s="3"/>
       <c r="Q874" s="3"/>
@@ -35702,13 +35916,13 @@
     </row>
     <row r="875" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B875" t="s">
-        <v>1887</v>
+        <v>1978</v>
       </c>
       <c r="D875">
         <v>0</v>
       </c>
       <c r="E875" t="s">
-        <v>1796</v>
+        <v>1975</v>
       </c>
       <c r="P875" s="3"/>
       <c r="Q875" s="3"/>
@@ -35716,7 +35930,7 @@
     </row>
     <row r="876" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B876" t="s">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="D876">
         <v>0</v>
@@ -35730,7 +35944,7 @@
     </row>
     <row r="877" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B877" t="s">
-        <v>1979</v>
+        <v>2412</v>
       </c>
       <c r="D877">
         <v>0</v>
@@ -35744,7 +35958,7 @@
     </row>
     <row r="878" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B878" t="s">
-        <v>1976</v>
+        <v>1980</v>
       </c>
       <c r="D878">
         <v>0</v>
@@ -35758,7 +35972,7 @@
     </row>
     <row r="879" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B879" t="s">
-        <v>1980</v>
+        <v>1976</v>
       </c>
       <c r="D879">
         <v>0</v>
@@ -35772,7 +35986,7 @@
     </row>
     <row r="880" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B880" t="s">
-        <v>1976</v>
+        <v>2021</v>
       </c>
       <c r="D880">
         <v>0</v>
@@ -35786,7 +36000,7 @@
     </row>
     <row r="881" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B881" t="s">
-        <v>2021</v>
+        <v>1977</v>
       </c>
       <c r="D881">
         <v>0</v>
@@ -35800,334 +36014,499 @@
     </row>
     <row r="882" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B882" t="s">
-        <v>1977</v>
-      </c>
-      <c r="D882">
-        <v>0</v>
-      </c>
-      <c r="E882" t="s">
-        <v>1975</v>
+        <v>2389</v>
       </c>
       <c r="P882" s="3"/>
       <c r="Q882" s="3"/>
       <c r="R882" s="3"/>
     </row>
     <row r="883" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B883" t="s">
+        <v>2390</v>
+      </c>
       <c r="P883" s="3"/>
       <c r="Q883" s="3"/>
       <c r="R883" s="3"/>
     </row>
     <row r="884" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B884" t="s">
+        <v>2388</v>
+      </c>
       <c r="P884" s="3"/>
       <c r="Q884" s="3"/>
       <c r="R884" s="3"/>
     </row>
     <row r="885" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B885" t="s">
+        <v>2387</v>
+      </c>
       <c r="P885" s="3"/>
       <c r="Q885" s="3"/>
       <c r="R885" s="3"/>
     </row>
     <row r="886" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B886" t="s">
+        <v>2391</v>
+      </c>
       <c r="P886" s="3"/>
       <c r="Q886" s="3"/>
       <c r="R886" s="3"/>
     </row>
     <row r="887" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B887" t="s">
+        <v>2393</v>
+      </c>
       <c r="P887" s="3"/>
       <c r="Q887" s="3"/>
       <c r="R887" s="3"/>
     </row>
     <row r="888" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B888" t="s">
+        <v>2429</v>
+      </c>
       <c r="P888" s="3"/>
       <c r="Q888" s="3"/>
       <c r="R888" s="3"/>
     </row>
     <row r="889" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B889" t="s">
+        <v>2430</v>
+      </c>
       <c r="P889" s="3"/>
       <c r="Q889" s="3"/>
       <c r="R889" s="3"/>
     </row>
     <row r="890" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B890" t="s">
+        <v>2392</v>
+      </c>
       <c r="P890" s="3"/>
       <c r="Q890" s="3"/>
       <c r="R890" s="3"/>
     </row>
     <row r="891" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B891" t="s">
+        <v>2433</v>
+      </c>
       <c r="P891" s="3"/>
       <c r="Q891" s="3"/>
       <c r="R891" s="3"/>
     </row>
     <row r="892" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B892" t="s">
+        <v>2394</v>
+      </c>
       <c r="P892" s="3"/>
       <c r="Q892" s="3"/>
       <c r="R892" s="3"/>
     </row>
     <row r="893" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B893" t="s">
+        <v>2395</v>
+      </c>
       <c r="P893" s="3"/>
       <c r="Q893" s="3"/>
       <c r="R893" s="3"/>
     </row>
     <row r="894" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B894" t="s">
+        <v>2431</v>
+      </c>
       <c r="P894" s="3"/>
       <c r="Q894" s="3"/>
       <c r="R894" s="3"/>
     </row>
     <row r="895" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B895" t="s">
+        <v>2432</v>
+      </c>
       <c r="P895" s="3"/>
       <c r="Q895" s="3"/>
       <c r="R895" s="3"/>
     </row>
     <row r="896" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B896" t="s">
+        <v>2401</v>
+      </c>
       <c r="P896" s="3"/>
       <c r="Q896" s="3"/>
       <c r="R896" s="3"/>
     </row>
-    <row r="897" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="897" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B897" t="s">
+        <v>2038</v>
+      </c>
       <c r="P897" s="3"/>
       <c r="Q897" s="3"/>
       <c r="R897" s="3"/>
     </row>
-    <row r="898" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="898" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B898" t="s">
+        <v>2205</v>
+      </c>
       <c r="P898" s="3"/>
       <c r="Q898" s="3"/>
       <c r="R898" s="3"/>
     </row>
-    <row r="899" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="899" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B899" t="s">
+        <v>2434</v>
+      </c>
       <c r="P899" s="3"/>
       <c r="Q899" s="3"/>
       <c r="R899" s="3"/>
     </row>
-    <row r="900" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="900" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B900" t="s">
+        <v>2396</v>
+      </c>
       <c r="P900" s="3"/>
       <c r="Q900" s="3"/>
       <c r="R900" s="3"/>
     </row>
-    <row r="901" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="901" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B901" t="s">
+        <v>2402</v>
+      </c>
       <c r="P901" s="3"/>
       <c r="Q901" s="3"/>
       <c r="R901" s="3"/>
     </row>
-    <row r="902" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="902" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B902" t="s">
+        <v>2403</v>
+      </c>
       <c r="P902" s="3"/>
       <c r="Q902" s="3"/>
       <c r="R902" s="3"/>
     </row>
-    <row r="903" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="903" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B903" t="s">
+        <v>2397</v>
+      </c>
       <c r="P903" s="3"/>
       <c r="Q903" s="3"/>
       <c r="R903" s="3"/>
     </row>
-    <row r="904" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="904" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B904" t="s">
+        <v>2398</v>
+      </c>
       <c r="P904" s="3"/>
       <c r="Q904" s="3"/>
       <c r="R904" s="3"/>
     </row>
-    <row r="905" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="905" spans="2:18" x14ac:dyDescent="0.3">
       <c r="P905" s="3"/>
       <c r="Q905" s="3"/>
       <c r="R905" s="3"/>
     </row>
-    <row r="906" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="906" spans="2:18" x14ac:dyDescent="0.3">
       <c r="P906" s="3"/>
       <c r="Q906" s="3"/>
       <c r="R906" s="3"/>
     </row>
-    <row r="907" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="907" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B907" t="s">
+        <v>2399</v>
+      </c>
       <c r="P907" s="3"/>
       <c r="Q907" s="3"/>
       <c r="R907" s="3"/>
     </row>
-    <row r="908" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="908" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B908" t="s">
+        <v>2421</v>
+      </c>
       <c r="P908" s="3"/>
       <c r="Q908" s="3"/>
       <c r="R908" s="3"/>
     </row>
-    <row r="909" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="909" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B909" t="s">
+        <v>2420</v>
+      </c>
       <c r="P909" s="3"/>
       <c r="Q909" s="3"/>
       <c r="R909" s="3"/>
     </row>
-    <row r="910" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="910" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B910" t="s">
+        <v>2416</v>
+      </c>
       <c r="P910" s="3"/>
       <c r="Q910" s="3"/>
       <c r="R910" s="3"/>
     </row>
-    <row r="911" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="911" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B911" t="s">
+        <v>2400</v>
+      </c>
       <c r="P911" s="3"/>
       <c r="Q911" s="3"/>
       <c r="R911" s="3"/>
     </row>
-    <row r="912" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="912" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B912" t="s">
+        <v>2415</v>
+      </c>
       <c r="P912" s="3"/>
       <c r="Q912" s="3"/>
       <c r="R912" s="3"/>
     </row>
-    <row r="913" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="913" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B913" t="s">
+        <v>2414</v>
+      </c>
       <c r="P913" s="3"/>
       <c r="Q913" s="3"/>
       <c r="R913" s="3"/>
     </row>
-    <row r="914" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="914" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B914" t="s">
+        <v>2413</v>
+      </c>
       <c r="P914" s="3"/>
       <c r="Q914" s="3"/>
       <c r="R914" s="3"/>
     </row>
-    <row r="915" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="915" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B915" t="s">
+        <v>2404</v>
+      </c>
       <c r="P915" s="3"/>
       <c r="Q915" s="3"/>
       <c r="R915" s="3"/>
     </row>
-    <row r="916" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="916" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B916" t="s">
+        <v>2417</v>
+      </c>
       <c r="P916" s="3"/>
       <c r="Q916" s="3"/>
       <c r="R916" s="3"/>
     </row>
-    <row r="917" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="917" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B917" t="s">
+        <v>2418</v>
+      </c>
       <c r="P917" s="3"/>
       <c r="Q917" s="3"/>
       <c r="R917" s="3"/>
     </row>
-    <row r="918" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="918" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B918" t="s">
+        <v>2405</v>
+      </c>
       <c r="P918" s="3"/>
       <c r="Q918" s="3"/>
       <c r="R918" s="3"/>
     </row>
-    <row r="919" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="919" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B919" t="s">
+        <v>2406</v>
+      </c>
       <c r="P919" s="3"/>
       <c r="Q919" s="3"/>
       <c r="R919" s="3"/>
     </row>
-    <row r="920" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="920" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B920" t="s">
+        <v>2407</v>
+      </c>
       <c r="P920" s="3"/>
       <c r="Q920" s="3"/>
       <c r="R920" s="3"/>
     </row>
-    <row r="921" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="921" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B921" t="s">
+        <v>2408</v>
+      </c>
       <c r="P921" s="3"/>
       <c r="Q921" s="3"/>
       <c r="R921" s="3"/>
     </row>
-    <row r="922" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="922" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B922" t="s">
+        <v>2409</v>
+      </c>
       <c r="P922" s="3"/>
       <c r="Q922" s="3"/>
       <c r="R922" s="3"/>
     </row>
-    <row r="923" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="923" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B923" t="s">
+        <v>2410</v>
+      </c>
       <c r="P923" s="3"/>
       <c r="Q923" s="3"/>
       <c r="R923" s="3"/>
     </row>
-    <row r="924" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="924" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B924" t="s">
+        <v>2411</v>
+      </c>
       <c r="P924" s="3"/>
       <c r="Q924" s="3"/>
       <c r="R924" s="3"/>
     </row>
-    <row r="925" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="925" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B925" t="s">
+        <v>2424</v>
+      </c>
       <c r="P925" s="3"/>
       <c r="Q925" s="3"/>
       <c r="R925" s="3"/>
     </row>
-    <row r="926" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="926" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B926" t="s">
+        <v>2423</v>
+      </c>
       <c r="P926" s="3"/>
       <c r="Q926" s="3"/>
       <c r="R926" s="3"/>
     </row>
-    <row r="927" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="927" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B927" t="s">
+        <v>2422</v>
+      </c>
       <c r="P927" s="3"/>
       <c r="Q927" s="3"/>
       <c r="R927" s="3"/>
     </row>
-    <row r="928" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="928" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B928" t="s">
+        <v>2438</v>
+      </c>
       <c r="P928" s="3"/>
       <c r="Q928" s="3"/>
       <c r="R928" s="3"/>
     </row>
-    <row r="929" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="929" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B929" t="s">
+        <v>2419</v>
+      </c>
       <c r="P929" s="3"/>
       <c r="Q929" s="3"/>
       <c r="R929" s="3"/>
     </row>
-    <row r="930" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="930" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B930" t="s">
+        <v>2425</v>
+      </c>
       <c r="P930" s="3"/>
       <c r="Q930" s="3"/>
       <c r="R930" s="3"/>
     </row>
-    <row r="931" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="931" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B931" t="s">
+        <v>2435</v>
+      </c>
+      <c r="O931" s="3"/>
       <c r="P931" s="3"/>
       <c r="Q931" s="3"/>
       <c r="R931" s="3"/>
     </row>
-    <row r="932" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="932" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B932" t="s">
+        <v>2254</v>
+      </c>
+      <c r="O932" s="3"/>
       <c r="P932" s="3"/>
       <c r="Q932" s="3"/>
       <c r="R932" s="3"/>
     </row>
-    <row r="933" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="933" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B933" t="s">
+        <v>2436</v>
+      </c>
+      <c r="O933" s="3"/>
       <c r="P933" s="3"/>
       <c r="Q933" s="3"/>
       <c r="R933" s="3"/>
     </row>
-    <row r="934" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="934" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B934" t="s">
+        <v>2437</v>
+      </c>
       <c r="O934" s="3"/>
       <c r="P934" s="3"/>
       <c r="Q934" s="3"/>
       <c r="R934" s="3"/>
     </row>
-    <row r="935" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="935" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B935" t="s">
+        <v>2428</v>
+      </c>
       <c r="O935" s="3"/>
       <c r="P935" s="3"/>
       <c r="Q935" s="3"/>
       <c r="R935" s="3"/>
     </row>
-    <row r="936" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="936" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B936" t="s">
+        <v>2427</v>
+      </c>
       <c r="O936" s="3"/>
       <c r="P936" s="3"/>
       <c r="Q936" s="3"/>
       <c r="R936" s="3"/>
     </row>
-    <row r="937" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="937" spans="2:18" x14ac:dyDescent="0.3">
       <c r="O937" s="3"/>
       <c r="P937" s="3"/>
       <c r="Q937" s="3"/>
       <c r="R937" s="3"/>
     </row>
-    <row r="938" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="938" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B938" t="s">
+        <v>2426</v>
+      </c>
       <c r="O938" s="3"/>
       <c r="P938" s="3"/>
       <c r="Q938" s="3"/>
       <c r="R938" s="3"/>
     </row>
-    <row r="939" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="939" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B939" t="s">
+        <v>2441</v>
+      </c>
       <c r="O939" s="3"/>
       <c r="P939" s="3"/>
       <c r="Q939" s="3"/>
       <c r="R939" s="3"/>
     </row>
-    <row r="940" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="940" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B940" t="s">
+        <v>2440</v>
+      </c>
       <c r="O940" s="3"/>
       <c r="P940" s="3"/>
       <c r="Q940" s="3"/>
       <c r="R940" s="3"/>
     </row>
-    <row r="941" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="941" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B941" t="s">
+        <v>2439</v>
+      </c>
       <c r="O941" s="3"/>
       <c r="P941" s="3"/>
       <c r="Q941" s="3"/>
       <c r="R941" s="3"/>
     </row>
-    <row r="942" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="942" spans="2:18" x14ac:dyDescent="0.3">
       <c r="O942" s="3"/>
       <c r="P942" s="3"/>
       <c r="Q942" s="3"/>
       <c r="R942" s="3"/>
     </row>
-    <row r="943" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="943" spans="2:18" x14ac:dyDescent="0.3">
       <c r="O943" s="3"/>
       <c r="P943" s="3"/>
       <c r="Q943" s="3"/>
       <c r="R943" s="3"/>
     </row>
-    <row r="944" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="944" spans="2:18" x14ac:dyDescent="0.3">
       <c r="O944" s="3"/>
       <c r="P944" s="3"/>
       <c r="Q944" s="3"/>
@@ -38815,26 +39194,20 @@
       <c r="Q1391" s="3"/>
       <c r="R1391" s="3"/>
     </row>
-    <row r="1392" spans="15:18" x14ac:dyDescent="0.3">
-      <c r="O1392" s="3"/>
-      <c r="P1392" s="3"/>
-      <c r="Q1392" s="3"/>
-      <c r="R1392" s="3"/>
-    </row>
-    <row r="1393" spans="15:18" x14ac:dyDescent="0.3">
-      <c r="O1393" s="3"/>
-      <c r="P1393" s="3"/>
-      <c r="Q1393" s="3"/>
-      <c r="R1393" s="3"/>
-    </row>
-    <row r="1394" spans="15:18" x14ac:dyDescent="0.3">
-      <c r="O1394" s="3"/>
-      <c r="P1394" s="3"/>
-      <c r="Q1394" s="3"/>
-      <c r="R1394" s="3"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="B1:B887 B900:B905 B907:B927 B890 B896 B892:B893 B935:B939 B929:B930 B941:B1048576">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B887 B907:B927 B890 B896 B892:B893 B900:B905 B935:B939 B929:B930 B941:B1048576">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B940">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B940">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/national_cert.xlsx
+++ b/national_cert.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4952" uniqueCount="2442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5080" uniqueCount="2489">
   <si>
     <t>id</t>
   </si>
@@ -7465,10 +7465,6 @@
     <t>굴삭기운전기능사</t>
   </si>
   <si>
-    <t>건설기계조종사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>포크레인기능사</t>
   </si>
   <si>
@@ -7478,33 +7474,15 @@
     <t>병원코디네이터 1급</t>
   </si>
   <si>
-    <t>6급항해사</t>
-  </si>
-  <si>
-    <t>CS관리사 1급</t>
-  </si>
-  <si>
     <t>CS관리사 2급</t>
   </si>
   <si>
     <t>청각사</t>
   </si>
   <si>
-    <t>사회복지사2급</t>
-  </si>
-  <si>
-    <t>평생교육사 2급</t>
-  </si>
-  <si>
-    <t>코디네이터</t>
-  </si>
-  <si>
     <t>컴퓨터활용능력 2급</t>
   </si>
   <si>
-    <t>피부관리사</t>
-  </si>
-  <si>
     <t>청능사</t>
   </si>
   <si>
@@ -7518,21 +7496,6 @@
   </si>
   <si>
     <t>TOEIC</t>
-  </si>
-  <si>
-    <t>PMP</t>
-  </si>
-  <si>
-    <t>PRINCE2</t>
-  </si>
-  <si>
-    <t>MCSE</t>
-  </si>
-  <si>
-    <t>MCP</t>
-  </si>
-  <si>
-    <t>CCNA</t>
   </si>
   <si>
     <t>1종소형운전면허</t>
@@ -7559,13 +7522,7 @@
     <t>ACA Illustrator</t>
   </si>
   <si>
-    <t>바리스타</t>
-  </si>
-  <si>
     <t>워드프로세서</t>
-  </si>
-  <si>
-    <t>컴퓨터그래픽스운용기능사</t>
   </si>
   <si>
     <t>리눅스마스터 2급</t>
@@ -7575,46 +7532,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CPA</t>
-  </si>
-  <si>
     <t>Barista Skills Professional</t>
   </si>
   <si>
-    <t>교통사고분석사</t>
-  </si>
-  <si>
-    <t>인공지능 학습용 데이터 프로젝트 매니저(AIDPM)</t>
-  </si>
-  <si>
-    <t>GTQ 일러스트 1급</t>
-  </si>
-  <si>
-    <t>CIA(국제공인내부감사사)</t>
-  </si>
-  <si>
-    <t>CISA(국제공인정보시스템감사사)</t>
-  </si>
-  <si>
-    <t>ISTQB Certified Tester Foundation Level (ISTQB CTFL)</t>
-  </si>
-  <si>
-    <t>홈피</t>
-  </si>
-  <si>
     <t>빅데이터분석기사</t>
-  </si>
-  <si>
-    <t>정보보안기사</t>
-  </si>
-  <si>
-    <t>회계정보처리(FAT) 2급</t>
-  </si>
-  <si>
-    <t>응급구조사 2급</t>
-  </si>
-  <si>
-    <t>인명구조요원</t>
   </si>
   <si>
     <t>GAC (Google Analytics Certification)</t>
@@ -7629,6 +7550,271 @@
   </si>
   <si>
     <t>생활체육지도자 1급</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>국토교통부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국교통안전공단</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대부금융협회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>해양수산부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>항해사 1급</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>항해사 2급</t>
+  </si>
+  <si>
+    <t>항해사 3급</t>
+  </si>
+  <si>
+    <t>항해사 4급</t>
+  </si>
+  <si>
+    <t>항해사 5급</t>
+  </si>
+  <si>
+    <t>항해사 6급</t>
+  </si>
+  <si>
+    <t>CIA(국제공인내부감사사)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CISA(국제공인정보시스템감사사)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>세계내부 감사인협회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>국제 정보시스템 감사통제협회(ISACA)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국능력교육진흥원</t>
+  </si>
+  <si>
+    <t>CS관리사 1급</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국지식자원개발원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.kie.or.kr/kiehomepage/fc/licenceCSLeadersG1</t>
+  </si>
+  <si>
+    <t>https://www.dataq.or.kr/www/sub/a_07.do</t>
+  </si>
+  <si>
+    <t>데이터자격검정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://audiosoc.or.kr/bbs/?code=notice&amp;mode=view&amp;number=487</t>
+  </si>
+  <si>
+    <t>대한청각학회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대한상공회의소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.ybmit.com/mos/int_certi.jsp</t>
+  </si>
+  <si>
+    <t>YBM IT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adobe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://certification.adobe.com/</t>
+  </si>
+  <si>
+    <t>ACA InDesign</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACA Premiere Pro</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACA After Effects</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACA Animate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACA Dreamweaver</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACA Acrobat Pro</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주식회사한국통합교육지원센터</t>
+  </si>
+  <si>
+    <t>http://www.kiesc.com/</t>
+  </si>
+  <si>
+    <t>바리스타 1급</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>바리스타 2급</t>
+  </si>
+  <si>
+    <t>바리스타 3급</t>
+  </si>
+  <si>
+    <t>디지털정보활용능력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색광고마케터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">검색광고마케터 1급 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNS광고마케터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNS광고마케터 1급</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>코딩활용능력 1급</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>코딩활용능력 2급</t>
+  </si>
+  <si>
+    <t>코딩활용능력 3급</t>
+  </si>
+  <si>
+    <t>AI활용능력 1급</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI활용능력 2급</t>
+  </si>
+  <si>
+    <t>메타버스개발전문가 1급</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메타버스개발전문가 2급</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.ihd.or.kr/main.do</t>
+  </si>
+  <si>
+    <t>바리스타</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보통신기술자격검정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GAIQ</t>
+  </si>
+  <si>
+    <t>Google Ads Display Certification</t>
+  </si>
+  <si>
+    <t>GTQ 3급</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTQi 3급</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTQid 2급</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTQid 1급</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNS마케팅전문가 1급</t>
+  </si>
+  <si>
+    <t>디지털영상편집 1급</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>디지털영상편집 2급</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이썬마스터 1급</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이썬마스터 2급</t>
+  </si>
+  <si>
+    <t>파이썬마스터 3급</t>
+  </si>
+  <si>
+    <t>https://skillshop.withgoogle.com/</t>
+  </si>
+  <si>
+    <t>google</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Google Ads</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Google Analytics</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Google Marketing Platform</t>
+  </si>
+  <si>
+    <t>Google My Business</t>
+  </si>
+  <si>
+    <t>Google Ad Manager</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Google AdMob</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -7636,7 +7822,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7674,6 +7860,12 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3C3C3C"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -7719,7 +7911,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -7728,12 +7920,123 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="보통" xfId="1" builtinId="28"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -8072,11 +8375,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R1391"/>
+  <dimension ref="A1:R1393"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A918" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B938" sqref="B938"/>
+      <pane ySplit="1" topLeftCell="A913" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I959" sqref="I959"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -33605,6 +33908,9 @@
       <c r="R709" s="3"/>
     </row>
     <row r="710" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A710">
+        <v>709</v>
+      </c>
       <c r="B710" t="s">
         <v>1812</v>
       </c>
@@ -33619,6 +33925,9 @@
       <c r="R710" s="3"/>
     </row>
     <row r="711" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A711">
+        <v>710</v>
+      </c>
       <c r="B711" t="s">
         <v>1813</v>
       </c>
@@ -33633,6 +33942,9 @@
       <c r="R711" s="3"/>
     </row>
     <row r="712" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A712">
+        <v>711</v>
+      </c>
       <c r="B712" t="s">
         <v>1814</v>
       </c>
@@ -33647,6 +33959,9 @@
       <c r="R712" s="3"/>
     </row>
     <row r="713" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A713">
+        <v>712</v>
+      </c>
       <c r="B713" t="s">
         <v>1815</v>
       </c>
@@ -33661,6 +33976,9 @@
       <c r="R713" s="3"/>
     </row>
     <row r="714" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A714">
+        <v>713</v>
+      </c>
       <c r="B714" t="s">
         <v>1816</v>
       </c>
@@ -33675,6 +33993,9 @@
       <c r="R714" s="3"/>
     </row>
     <row r="715" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A715">
+        <v>714</v>
+      </c>
       <c r="B715" t="s">
         <v>1888</v>
       </c>
@@ -33689,6 +34010,9 @@
       <c r="R715" s="3"/>
     </row>
     <row r="716" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A716">
+        <v>715</v>
+      </c>
       <c r="B716" t="s">
         <v>1889</v>
       </c>
@@ -33703,6 +34027,9 @@
       <c r="R716" s="3"/>
     </row>
     <row r="717" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A717">
+        <v>716</v>
+      </c>
       <c r="B717" t="s">
         <v>1890</v>
       </c>
@@ -33717,6 +34044,9 @@
       <c r="R717" s="3"/>
     </row>
     <row r="718" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A718">
+        <v>717</v>
+      </c>
       <c r="B718" t="s">
         <v>1817</v>
       </c>
@@ -33731,6 +34061,9 @@
       <c r="R718" s="3"/>
     </row>
     <row r="719" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A719">
+        <v>718</v>
+      </c>
       <c r="B719" t="s">
         <v>1891</v>
       </c>
@@ -33745,6 +34078,9 @@
       <c r="R719" s="3"/>
     </row>
     <row r="720" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A720">
+        <v>719</v>
+      </c>
       <c r="B720" t="s">
         <v>1818</v>
       </c>
@@ -33758,7 +34094,10 @@
       <c r="Q720" s="3"/>
       <c r="R720" s="3"/>
     </row>
-    <row r="721" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A721">
+        <v>720</v>
+      </c>
       <c r="B721" t="s">
         <v>1819</v>
       </c>
@@ -33772,7 +34111,10 @@
       <c r="Q721" s="3"/>
       <c r="R721" s="3"/>
     </row>
-    <row r="722" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A722">
+        <v>721</v>
+      </c>
       <c r="B722" t="s">
         <v>1820</v>
       </c>
@@ -33786,7 +34128,10 @@
       <c r="Q722" s="3"/>
       <c r="R722" s="3"/>
     </row>
-    <row r="723" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A723">
+        <v>722</v>
+      </c>
       <c r="B723" t="s">
         <v>1821</v>
       </c>
@@ -33800,7 +34145,10 @@
       <c r="Q723" s="3"/>
       <c r="R723" s="3"/>
     </row>
-    <row r="724" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A724">
+        <v>723</v>
+      </c>
       <c r="B724" t="s">
         <v>1822</v>
       </c>
@@ -33814,7 +34162,10 @@
       <c r="Q724" s="3"/>
       <c r="R724" s="3"/>
     </row>
-    <row r="725" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A725">
+        <v>724</v>
+      </c>
       <c r="B725" t="s">
         <v>1823</v>
       </c>
@@ -33828,7 +34179,10 @@
       <c r="Q725" s="3"/>
       <c r="R725" s="3"/>
     </row>
-    <row r="726" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A726">
+        <v>725</v>
+      </c>
       <c r="B726" t="s">
         <v>1824</v>
       </c>
@@ -33842,7 +34196,10 @@
       <c r="Q726" s="3"/>
       <c r="R726" s="3"/>
     </row>
-    <row r="727" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A727">
+        <v>726</v>
+      </c>
       <c r="B727" t="s">
         <v>1825</v>
       </c>
@@ -33856,7 +34213,10 @@
       <c r="Q727" s="3"/>
       <c r="R727" s="3"/>
     </row>
-    <row r="728" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A728">
+        <v>727</v>
+      </c>
       <c r="B728" t="s">
         <v>1892</v>
       </c>
@@ -33870,7 +34230,10 @@
       <c r="Q728" s="3"/>
       <c r="R728" s="3"/>
     </row>
-    <row r="729" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A729">
+        <v>728</v>
+      </c>
       <c r="B729" t="s">
         <v>1893</v>
       </c>
@@ -33884,7 +34247,10 @@
       <c r="Q729" s="3"/>
       <c r="R729" s="3"/>
     </row>
-    <row r="730" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A730">
+        <v>729</v>
+      </c>
       <c r="B730" t="s">
         <v>1826</v>
       </c>
@@ -33898,7 +34264,10 @@
       <c r="Q730" s="3"/>
       <c r="R730" s="3"/>
     </row>
-    <row r="731" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A731">
+        <v>730</v>
+      </c>
       <c r="B731" t="s">
         <v>1894</v>
       </c>
@@ -33912,7 +34281,10 @@
       <c r="Q731" s="3"/>
       <c r="R731" s="3"/>
     </row>
-    <row r="732" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A732">
+        <v>731</v>
+      </c>
       <c r="B732" t="s">
         <v>1827</v>
       </c>
@@ -33926,7 +34298,10 @@
       <c r="Q732" s="3"/>
       <c r="R732" s="3"/>
     </row>
-    <row r="733" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A733">
+        <v>732</v>
+      </c>
       <c r="B733" t="s">
         <v>1828</v>
       </c>
@@ -33940,7 +34315,10 @@
       <c r="Q733" s="3"/>
       <c r="R733" s="3"/>
     </row>
-    <row r="734" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A734">
+        <v>733</v>
+      </c>
       <c r="B734" t="s">
         <v>1829</v>
       </c>
@@ -33954,7 +34332,10 @@
       <c r="Q734" s="3"/>
       <c r="R734" s="3"/>
     </row>
-    <row r="735" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A735">
+        <v>734</v>
+      </c>
       <c r="B735" t="s">
         <v>1895</v>
       </c>
@@ -33968,7 +34349,10 @@
       <c r="Q735" s="3"/>
       <c r="R735" s="3"/>
     </row>
-    <row r="736" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A736">
+        <v>735</v>
+      </c>
       <c r="B736" t="s">
         <v>1896</v>
       </c>
@@ -33982,7 +34366,10 @@
       <c r="Q736" s="3"/>
       <c r="R736" s="3"/>
     </row>
-    <row r="737" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A737">
+        <v>736</v>
+      </c>
       <c r="B737" t="s">
         <v>1830</v>
       </c>
@@ -33996,7 +34383,10 @@
       <c r="Q737" s="3"/>
       <c r="R737" s="3"/>
     </row>
-    <row r="738" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A738">
+        <v>737</v>
+      </c>
       <c r="B738" t="s">
         <v>1831</v>
       </c>
@@ -34010,7 +34400,10 @@
       <c r="Q738" s="3"/>
       <c r="R738" s="3"/>
     </row>
-    <row r="739" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A739">
+        <v>738</v>
+      </c>
       <c r="B739" t="s">
         <v>1897</v>
       </c>
@@ -34024,7 +34417,10 @@
       <c r="Q739" s="3"/>
       <c r="R739" s="3"/>
     </row>
-    <row r="740" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A740">
+        <v>739</v>
+      </c>
       <c r="B740" t="s">
         <v>1898</v>
       </c>
@@ -34038,7 +34434,10 @@
       <c r="Q740" s="3"/>
       <c r="R740" s="3"/>
     </row>
-    <row r="741" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A741">
+        <v>740</v>
+      </c>
       <c r="B741" t="s">
         <v>1899</v>
       </c>
@@ -34052,7 +34451,10 @@
       <c r="Q741" s="3"/>
       <c r="R741" s="3"/>
     </row>
-    <row r="742" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A742">
+        <v>741</v>
+      </c>
       <c r="B742" t="s">
         <v>1832</v>
       </c>
@@ -34066,7 +34468,10 @@
       <c r="Q742" s="3"/>
       <c r="R742" s="3"/>
     </row>
-    <row r="743" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A743">
+        <v>742</v>
+      </c>
       <c r="B743" t="s">
         <v>1900</v>
       </c>
@@ -34080,7 +34485,10 @@
       <c r="Q743" s="3"/>
       <c r="R743" s="3"/>
     </row>
-    <row r="744" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A744">
+        <v>743</v>
+      </c>
       <c r="B744" t="s">
         <v>1901</v>
       </c>
@@ -34094,7 +34502,10 @@
       <c r="Q744" s="3"/>
       <c r="R744" s="3"/>
     </row>
-    <row r="745" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A745">
+        <v>744</v>
+      </c>
       <c r="B745" t="s">
         <v>1902</v>
       </c>
@@ -34108,7 +34519,10 @@
       <c r="Q745" s="3"/>
       <c r="R745" s="3"/>
     </row>
-    <row r="746" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A746">
+        <v>745</v>
+      </c>
       <c r="B746" t="s">
         <v>1833</v>
       </c>
@@ -34122,7 +34536,10 @@
       <c r="Q746" s="3"/>
       <c r="R746" s="3"/>
     </row>
-    <row r="747" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A747">
+        <v>746</v>
+      </c>
       <c r="B747" t="s">
         <v>1834</v>
       </c>
@@ -34136,7 +34553,10 @@
       <c r="Q747" s="3"/>
       <c r="R747" s="3"/>
     </row>
-    <row r="748" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A748">
+        <v>747</v>
+      </c>
       <c r="B748" t="s">
         <v>1903</v>
       </c>
@@ -34150,7 +34570,10 @@
       <c r="Q748" s="3"/>
       <c r="R748" s="3"/>
     </row>
-    <row r="749" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A749">
+        <v>748</v>
+      </c>
       <c r="B749" t="s">
         <v>1904</v>
       </c>
@@ -34164,7 +34587,10 @@
       <c r="Q749" s="3"/>
       <c r="R749" s="3"/>
     </row>
-    <row r="750" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A750">
+        <v>749</v>
+      </c>
       <c r="B750" t="s">
         <v>1835</v>
       </c>
@@ -34178,7 +34604,10 @@
       <c r="Q750" s="3"/>
       <c r="R750" s="3"/>
     </row>
-    <row r="751" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A751">
+        <v>750</v>
+      </c>
       <c r="B751" t="s">
         <v>1905</v>
       </c>
@@ -34192,7 +34621,10 @@
       <c r="Q751" s="3"/>
       <c r="R751" s="3"/>
     </row>
-    <row r="752" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A752">
+        <v>751</v>
+      </c>
       <c r="B752" t="s">
         <v>1906</v>
       </c>
@@ -34206,7 +34638,10 @@
       <c r="Q752" s="3"/>
       <c r="R752" s="3"/>
     </row>
-    <row r="753" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A753">
+        <v>752</v>
+      </c>
       <c r="B753" t="s">
         <v>1836</v>
       </c>
@@ -34220,7 +34655,10 @@
       <c r="Q753" s="3"/>
       <c r="R753" s="3"/>
     </row>
-    <row r="754" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A754">
+        <v>753</v>
+      </c>
       <c r="B754" t="s">
         <v>1837</v>
       </c>
@@ -34234,7 +34672,10 @@
       <c r="Q754" s="3"/>
       <c r="R754" s="3"/>
     </row>
-    <row r="755" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A755">
+        <v>754</v>
+      </c>
       <c r="B755" t="s">
         <v>1838</v>
       </c>
@@ -34248,7 +34689,10 @@
       <c r="Q755" s="3"/>
       <c r="R755" s="3"/>
     </row>
-    <row r="756" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A756">
+        <v>755</v>
+      </c>
       <c r="B756" t="s">
         <v>1907</v>
       </c>
@@ -34262,7 +34706,10 @@
       <c r="Q756" s="3"/>
       <c r="R756" s="3"/>
     </row>
-    <row r="757" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A757">
+        <v>756</v>
+      </c>
       <c r="B757" t="s">
         <v>1908</v>
       </c>
@@ -34276,7 +34723,10 @@
       <c r="Q757" s="3"/>
       <c r="R757" s="3"/>
     </row>
-    <row r="758" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A758">
+        <v>757</v>
+      </c>
       <c r="B758" t="s">
         <v>1909</v>
       </c>
@@ -34290,7 +34740,10 @@
       <c r="Q758" s="3"/>
       <c r="R758" s="3"/>
     </row>
-    <row r="759" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A759">
+        <v>758</v>
+      </c>
       <c r="B759" t="s">
         <v>1839</v>
       </c>
@@ -34304,7 +34757,10 @@
       <c r="Q759" s="3"/>
       <c r="R759" s="3"/>
     </row>
-    <row r="760" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A760">
+        <v>759</v>
+      </c>
       <c r="B760" t="s">
         <v>1910</v>
       </c>
@@ -34318,7 +34774,10 @@
       <c r="Q760" s="3"/>
       <c r="R760" s="3"/>
     </row>
-    <row r="761" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A761">
+        <v>760</v>
+      </c>
       <c r="B761" t="s">
         <v>1911</v>
       </c>
@@ -34332,7 +34791,10 @@
       <c r="Q761" s="3"/>
       <c r="R761" s="3"/>
     </row>
-    <row r="762" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A762">
+        <v>761</v>
+      </c>
       <c r="B762" t="s">
         <v>1840</v>
       </c>
@@ -34346,7 +34808,10 @@
       <c r="Q762" s="3"/>
       <c r="R762" s="3"/>
     </row>
-    <row r="763" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A763">
+        <v>762</v>
+      </c>
       <c r="B763" t="s">
         <v>1841</v>
       </c>
@@ -34360,7 +34825,10 @@
       <c r="Q763" s="3"/>
       <c r="R763" s="3"/>
     </row>
-    <row r="764" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A764">
+        <v>763</v>
+      </c>
       <c r="B764" t="s">
         <v>1842</v>
       </c>
@@ -34374,7 +34842,10 @@
       <c r="Q764" s="3"/>
       <c r="R764" s="3"/>
     </row>
-    <row r="765" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A765">
+        <v>764</v>
+      </c>
       <c r="B765" t="s">
         <v>1912</v>
       </c>
@@ -34388,7 +34859,10 @@
       <c r="Q765" s="3"/>
       <c r="R765" s="3"/>
     </row>
-    <row r="766" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A766">
+        <v>765</v>
+      </c>
       <c r="B766" t="s">
         <v>1843</v>
       </c>
@@ -34402,7 +34876,10 @@
       <c r="Q766" s="3"/>
       <c r="R766" s="3"/>
     </row>
-    <row r="767" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A767">
+        <v>766</v>
+      </c>
       <c r="B767" t="s">
         <v>1844</v>
       </c>
@@ -34416,7 +34893,10 @@
       <c r="Q767" s="3"/>
       <c r="R767" s="3"/>
     </row>
-    <row r="768" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A768">
+        <v>767</v>
+      </c>
       <c r="B768" t="s">
         <v>1845</v>
       </c>
@@ -34430,7 +34910,10 @@
       <c r="Q768" s="3"/>
       <c r="R768" s="3"/>
     </row>
-    <row r="769" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A769">
+        <v>768</v>
+      </c>
       <c r="B769" t="s">
         <v>1913</v>
       </c>
@@ -34444,7 +34927,10 @@
       <c r="Q769" s="3"/>
       <c r="R769" s="3"/>
     </row>
-    <row r="770" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A770">
+        <v>769</v>
+      </c>
       <c r="B770" t="s">
         <v>1846</v>
       </c>
@@ -34458,7 +34944,10 @@
       <c r="Q770" s="3"/>
       <c r="R770" s="3"/>
     </row>
-    <row r="771" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A771">
+        <v>770</v>
+      </c>
       <c r="B771" t="s">
         <v>1847</v>
       </c>
@@ -34472,7 +34961,10 @@
       <c r="Q771" s="3"/>
       <c r="R771" s="3"/>
     </row>
-    <row r="772" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A772">
+        <v>771</v>
+      </c>
       <c r="B772" t="s">
         <v>1914</v>
       </c>
@@ -34486,7 +34978,10 @@
       <c r="Q772" s="3"/>
       <c r="R772" s="3"/>
     </row>
-    <row r="773" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A773">
+        <v>772</v>
+      </c>
       <c r="B773" t="s">
         <v>1915</v>
       </c>
@@ -34500,7 +34995,10 @@
       <c r="Q773" s="3"/>
       <c r="R773" s="3"/>
     </row>
-    <row r="774" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A774">
+        <v>773</v>
+      </c>
       <c r="B774" t="s">
         <v>1916</v>
       </c>
@@ -34514,7 +35012,10 @@
       <c r="Q774" s="3"/>
       <c r="R774" s="3"/>
     </row>
-    <row r="775" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A775">
+        <v>774</v>
+      </c>
       <c r="B775" t="s">
         <v>1917</v>
       </c>
@@ -34528,7 +35029,10 @@
       <c r="Q775" s="3"/>
       <c r="R775" s="3"/>
     </row>
-    <row r="776" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A776">
+        <v>775</v>
+      </c>
       <c r="B776" t="s">
         <v>1918</v>
       </c>
@@ -34542,7 +35046,10 @@
       <c r="Q776" s="3"/>
       <c r="R776" s="3"/>
     </row>
-    <row r="777" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A777">
+        <v>776</v>
+      </c>
       <c r="B777" t="s">
         <v>1919</v>
       </c>
@@ -34556,7 +35063,10 @@
       <c r="Q777" s="3"/>
       <c r="R777" s="3"/>
     </row>
-    <row r="778" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A778">
+        <v>777</v>
+      </c>
       <c r="B778" t="s">
         <v>1920</v>
       </c>
@@ -34570,7 +35080,10 @@
       <c r="Q778" s="3"/>
       <c r="R778" s="3"/>
     </row>
-    <row r="779" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A779">
+        <v>778</v>
+      </c>
       <c r="B779" t="s">
         <v>1848</v>
       </c>
@@ -34584,7 +35097,10 @@
       <c r="Q779" s="3"/>
       <c r="R779" s="3"/>
     </row>
-    <row r="780" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A780">
+        <v>779</v>
+      </c>
       <c r="B780" t="s">
         <v>1921</v>
       </c>
@@ -34598,7 +35114,10 @@
       <c r="Q780" s="3"/>
       <c r="R780" s="3"/>
     </row>
-    <row r="781" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A781">
+        <v>780</v>
+      </c>
       <c r="B781" t="s">
         <v>1922</v>
       </c>
@@ -34612,7 +35131,10 @@
       <c r="Q781" s="3"/>
       <c r="R781" s="3"/>
     </row>
-    <row r="782" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A782">
+        <v>781</v>
+      </c>
       <c r="B782" t="s">
         <v>1923</v>
       </c>
@@ -34626,7 +35148,10 @@
       <c r="Q782" s="3"/>
       <c r="R782" s="3"/>
     </row>
-    <row r="783" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A783">
+        <v>782</v>
+      </c>
       <c r="B783" t="s">
         <v>1924</v>
       </c>
@@ -34640,7 +35165,10 @@
       <c r="Q783" s="3"/>
       <c r="R783" s="3"/>
     </row>
-    <row r="784" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A784">
+        <v>783</v>
+      </c>
       <c r="B784" t="s">
         <v>1925</v>
       </c>
@@ -34654,7 +35182,10 @@
       <c r="Q784" s="3"/>
       <c r="R784" s="3"/>
     </row>
-    <row r="785" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A785">
+        <v>784</v>
+      </c>
       <c r="B785" t="s">
         <v>1926</v>
       </c>
@@ -34668,7 +35199,10 @@
       <c r="Q785" s="3"/>
       <c r="R785" s="3"/>
     </row>
-    <row r="786" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A786">
+        <v>785</v>
+      </c>
       <c r="B786" t="s">
         <v>1982</v>
       </c>
@@ -34682,7 +35216,10 @@
       <c r="Q786" s="3"/>
       <c r="R786" s="3"/>
     </row>
-    <row r="787" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A787">
+        <v>786</v>
+      </c>
       <c r="B787" t="s">
         <v>1927</v>
       </c>
@@ -34696,7 +35233,10 @@
       <c r="Q787" s="3"/>
       <c r="R787" s="3"/>
     </row>
-    <row r="788" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A788">
+        <v>787</v>
+      </c>
       <c r="B788" t="s">
         <v>1928</v>
       </c>
@@ -34710,7 +35250,10 @@
       <c r="Q788" s="3"/>
       <c r="R788" s="3"/>
     </row>
-    <row r="789" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A789">
+        <v>788</v>
+      </c>
       <c r="B789" t="s">
         <v>1929</v>
       </c>
@@ -34724,7 +35267,10 @@
       <c r="Q789" s="3"/>
       <c r="R789" s="3"/>
     </row>
-    <row r="790" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A790">
+        <v>789</v>
+      </c>
       <c r="B790" t="s">
         <v>1930</v>
       </c>
@@ -34738,7 +35284,10 @@
       <c r="Q790" s="3"/>
       <c r="R790" s="3"/>
     </row>
-    <row r="791" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A791">
+        <v>790</v>
+      </c>
       <c r="B791" t="s">
         <v>1849</v>
       </c>
@@ -34752,7 +35301,10 @@
       <c r="Q791" s="3"/>
       <c r="R791" s="3"/>
     </row>
-    <row r="792" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A792">
+        <v>791</v>
+      </c>
       <c r="B792" t="s">
         <v>1931</v>
       </c>
@@ -34766,7 +35318,10 @@
       <c r="Q792" s="3"/>
       <c r="R792" s="3"/>
     </row>
-    <row r="793" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A793">
+        <v>792</v>
+      </c>
       <c r="B793" t="s">
         <v>1850</v>
       </c>
@@ -34780,7 +35335,10 @@
       <c r="Q793" s="3"/>
       <c r="R793" s="3"/>
     </row>
-    <row r="794" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A794">
+        <v>793</v>
+      </c>
       <c r="B794" t="s">
         <v>1932</v>
       </c>
@@ -34794,7 +35352,10 @@
       <c r="Q794" s="3"/>
       <c r="R794" s="3"/>
     </row>
-    <row r="795" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A795">
+        <v>794</v>
+      </c>
       <c r="B795" t="s">
         <v>1933</v>
       </c>
@@ -34808,7 +35369,10 @@
       <c r="Q795" s="3"/>
       <c r="R795" s="3"/>
     </row>
-    <row r="796" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A796">
+        <v>795</v>
+      </c>
       <c r="B796" t="s">
         <v>1851</v>
       </c>
@@ -34822,7 +35386,10 @@
       <c r="Q796" s="3"/>
       <c r="R796" s="3"/>
     </row>
-    <row r="797" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A797">
+        <v>796</v>
+      </c>
       <c r="B797" t="s">
         <v>1852</v>
       </c>
@@ -34836,7 +35403,10 @@
       <c r="Q797" s="3"/>
       <c r="R797" s="3"/>
     </row>
-    <row r="798" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A798">
+        <v>797</v>
+      </c>
       <c r="B798" t="s">
         <v>1853</v>
       </c>
@@ -34850,7 +35420,10 @@
       <c r="Q798" s="3"/>
       <c r="R798" s="3"/>
     </row>
-    <row r="799" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A799">
+        <v>798</v>
+      </c>
       <c r="B799" t="s">
         <v>1854</v>
       </c>
@@ -34864,7 +35437,10 @@
       <c r="Q799" s="3"/>
       <c r="R799" s="3"/>
     </row>
-    <row r="800" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A800">
+        <v>799</v>
+      </c>
       <c r="B800" t="s">
         <v>1855</v>
       </c>
@@ -34878,7 +35454,10 @@
       <c r="Q800" s="3"/>
       <c r="R800" s="3"/>
     </row>
-    <row r="801" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A801">
+        <v>800</v>
+      </c>
       <c r="B801" t="s">
         <v>1934</v>
       </c>
@@ -34892,7 +35471,10 @@
       <c r="Q801" s="3"/>
       <c r="R801" s="3"/>
     </row>
-    <row r="802" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A802">
+        <v>801</v>
+      </c>
       <c r="B802" t="s">
         <v>1935</v>
       </c>
@@ -34906,7 +35488,10 @@
       <c r="Q802" s="3"/>
       <c r="R802" s="3"/>
     </row>
-    <row r="803" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A803">
+        <v>802</v>
+      </c>
       <c r="B803" t="s">
         <v>1936</v>
       </c>
@@ -34920,7 +35505,10 @@
       <c r="Q803" s="3"/>
       <c r="R803" s="3"/>
     </row>
-    <row r="804" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A804">
+        <v>803</v>
+      </c>
       <c r="B804" t="s">
         <v>1937</v>
       </c>
@@ -34934,7 +35522,10 @@
       <c r="Q804" s="3"/>
       <c r="R804" s="3"/>
     </row>
-    <row r="805" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A805">
+        <v>804</v>
+      </c>
       <c r="B805" t="s">
         <v>1938</v>
       </c>
@@ -34948,7 +35539,10 @@
       <c r="Q805" s="3"/>
       <c r="R805" s="3"/>
     </row>
-    <row r="806" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A806">
+        <v>805</v>
+      </c>
       <c r="B806" t="s">
         <v>1939</v>
       </c>
@@ -34962,7 +35556,10 @@
       <c r="Q806" s="3"/>
       <c r="R806" s="3"/>
     </row>
-    <row r="807" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A807">
+        <v>806</v>
+      </c>
       <c r="B807" t="s">
         <v>1940</v>
       </c>
@@ -34976,7 +35573,10 @@
       <c r="Q807" s="3"/>
       <c r="R807" s="3"/>
     </row>
-    <row r="808" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A808">
+        <v>807</v>
+      </c>
       <c r="B808" t="s">
         <v>1941</v>
       </c>
@@ -34990,7 +35590,10 @@
       <c r="Q808" s="3"/>
       <c r="R808" s="3"/>
     </row>
-    <row r="809" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A809">
+        <v>808</v>
+      </c>
       <c r="B809" t="s">
         <v>1856</v>
       </c>
@@ -35004,7 +35607,10 @@
       <c r="Q809" s="3"/>
       <c r="R809" s="3"/>
     </row>
-    <row r="810" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A810">
+        <v>809</v>
+      </c>
       <c r="B810" t="s">
         <v>1857</v>
       </c>
@@ -35018,7 +35624,10 @@
       <c r="Q810" s="3"/>
       <c r="R810" s="3"/>
     </row>
-    <row r="811" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A811">
+        <v>810</v>
+      </c>
       <c r="B811" t="s">
         <v>1858</v>
       </c>
@@ -35032,7 +35641,10 @@
       <c r="Q811" s="3"/>
       <c r="R811" s="3"/>
     </row>
-    <row r="812" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A812">
+        <v>811</v>
+      </c>
       <c r="B812" t="s">
         <v>1859</v>
       </c>
@@ -35046,7 +35658,10 @@
       <c r="Q812" s="3"/>
       <c r="R812" s="3"/>
     </row>
-    <row r="813" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A813">
+        <v>812</v>
+      </c>
       <c r="B813" t="s">
         <v>1860</v>
       </c>
@@ -35060,7 +35675,10 @@
       <c r="Q813" s="3"/>
       <c r="R813" s="3"/>
     </row>
-    <row r="814" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A814">
+        <v>813</v>
+      </c>
       <c r="B814" t="s">
         <v>1861</v>
       </c>
@@ -35074,7 +35692,10 @@
       <c r="Q814" s="3"/>
       <c r="R814" s="3"/>
     </row>
-    <row r="815" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A815">
+        <v>814</v>
+      </c>
       <c r="B815" t="s">
         <v>1862</v>
       </c>
@@ -35088,7 +35709,10 @@
       <c r="Q815" s="3"/>
       <c r="R815" s="3"/>
     </row>
-    <row r="816" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A816">
+        <v>815</v>
+      </c>
       <c r="B816" t="s">
         <v>1863</v>
       </c>
@@ -35102,7 +35726,10 @@
       <c r="Q816" s="3"/>
       <c r="R816" s="3"/>
     </row>
-    <row r="817" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A817">
+        <v>816</v>
+      </c>
       <c r="B817" t="s">
         <v>1864</v>
       </c>
@@ -35116,7 +35743,10 @@
       <c r="Q817" s="3"/>
       <c r="R817" s="3"/>
     </row>
-    <row r="818" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A818">
+        <v>817</v>
+      </c>
       <c r="B818" t="s">
         <v>1865</v>
       </c>
@@ -35130,7 +35760,10 @@
       <c r="Q818" s="3"/>
       <c r="R818" s="3"/>
     </row>
-    <row r="819" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A819">
+        <v>818</v>
+      </c>
       <c r="B819" t="s">
         <v>1866</v>
       </c>
@@ -35144,7 +35777,10 @@
       <c r="Q819" s="3"/>
       <c r="R819" s="3"/>
     </row>
-    <row r="820" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A820">
+        <v>819</v>
+      </c>
       <c r="B820" t="s">
         <v>1867</v>
       </c>
@@ -35158,7 +35794,10 @@
       <c r="Q820" s="3"/>
       <c r="R820" s="3"/>
     </row>
-    <row r="821" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A821">
+        <v>820</v>
+      </c>
       <c r="B821" t="s">
         <v>1868</v>
       </c>
@@ -35172,7 +35811,10 @@
       <c r="Q821" s="3"/>
       <c r="R821" s="3"/>
     </row>
-    <row r="822" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A822">
+        <v>821</v>
+      </c>
       <c r="B822" t="s">
         <v>1869</v>
       </c>
@@ -35186,7 +35828,10 @@
       <c r="Q822" s="3"/>
       <c r="R822" s="3"/>
     </row>
-    <row r="823" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A823">
+        <v>822</v>
+      </c>
       <c r="B823" t="s">
         <v>1870</v>
       </c>
@@ -35200,7 +35845,10 @@
       <c r="Q823" s="3"/>
       <c r="R823" s="3"/>
     </row>
-    <row r="824" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A824">
+        <v>823</v>
+      </c>
       <c r="B824" t="s">
         <v>1871</v>
       </c>
@@ -35214,7 +35862,10 @@
       <c r="Q824" s="3"/>
       <c r="R824" s="3"/>
     </row>
-    <row r="825" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A825">
+        <v>824</v>
+      </c>
       <c r="B825" t="s">
         <v>1872</v>
       </c>
@@ -35228,7 +35879,10 @@
       <c r="Q825" s="3"/>
       <c r="R825" s="3"/>
     </row>
-    <row r="826" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A826">
+        <v>825</v>
+      </c>
       <c r="B826" t="s">
         <v>1873</v>
       </c>
@@ -35242,7 +35896,10 @@
       <c r="Q826" s="3"/>
       <c r="R826" s="3"/>
     </row>
-    <row r="827" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A827">
+        <v>826</v>
+      </c>
       <c r="B827" t="s">
         <v>1874</v>
       </c>
@@ -35256,7 +35913,10 @@
       <c r="Q827" s="3"/>
       <c r="R827" s="3"/>
     </row>
-    <row r="828" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A828">
+        <v>827</v>
+      </c>
       <c r="B828" t="s">
         <v>1875</v>
       </c>
@@ -35270,7 +35930,10 @@
       <c r="Q828" s="3"/>
       <c r="R828" s="3"/>
     </row>
-    <row r="829" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A829">
+        <v>828</v>
+      </c>
       <c r="B829" t="s">
         <v>1876</v>
       </c>
@@ -35284,7 +35947,10 @@
       <c r="Q829" s="3"/>
       <c r="R829" s="3"/>
     </row>
-    <row r="830" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A830">
+        <v>829</v>
+      </c>
       <c r="B830" t="s">
         <v>1877</v>
       </c>
@@ -35298,7 +35964,10 @@
       <c r="Q830" s="3"/>
       <c r="R830" s="3"/>
     </row>
-    <row r="831" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A831">
+        <v>830</v>
+      </c>
       <c r="B831" t="s">
         <v>1878</v>
       </c>
@@ -35312,7 +35981,10 @@
       <c r="Q831" s="3"/>
       <c r="R831" s="3"/>
     </row>
-    <row r="832" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A832">
+        <v>831</v>
+      </c>
       <c r="B832" t="s">
         <v>1879</v>
       </c>
@@ -35326,7 +35998,10 @@
       <c r="Q832" s="3"/>
       <c r="R832" s="3"/>
     </row>
-    <row r="833" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A833">
+        <v>832</v>
+      </c>
       <c r="B833" t="s">
         <v>1942</v>
       </c>
@@ -35340,7 +36015,10 @@
       <c r="Q833" s="3"/>
       <c r="R833" s="3"/>
     </row>
-    <row r="834" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A834">
+        <v>833</v>
+      </c>
       <c r="B834" t="s">
         <v>1943</v>
       </c>
@@ -35354,7 +36032,10 @@
       <c r="Q834" s="3"/>
       <c r="R834" s="3"/>
     </row>
-    <row r="835" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A835">
+        <v>834</v>
+      </c>
       <c r="B835" t="s">
         <v>1944</v>
       </c>
@@ -35368,7 +36049,10 @@
       <c r="Q835" s="3"/>
       <c r="R835" s="3"/>
     </row>
-    <row r="836" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A836">
+        <v>835</v>
+      </c>
       <c r="B836" t="s">
         <v>1945</v>
       </c>
@@ -35382,7 +36066,10 @@
       <c r="Q836" s="3"/>
       <c r="R836" s="3"/>
     </row>
-    <row r="837" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A837">
+        <v>836</v>
+      </c>
       <c r="B837" t="s">
         <v>1880</v>
       </c>
@@ -35396,7 +36083,10 @@
       <c r="Q837" s="3"/>
       <c r="R837" s="3"/>
     </row>
-    <row r="838" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A838">
+        <v>837</v>
+      </c>
       <c r="B838" t="s">
         <v>1881</v>
       </c>
@@ -35410,7 +36100,10 @@
       <c r="Q838" s="3"/>
       <c r="R838" s="3"/>
     </row>
-    <row r="839" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A839">
+        <v>838</v>
+      </c>
       <c r="B839" t="s">
         <v>1946</v>
       </c>
@@ -35424,7 +36117,10 @@
       <c r="Q839" s="3"/>
       <c r="R839" s="3"/>
     </row>
-    <row r="840" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A840">
+        <v>839</v>
+      </c>
       <c r="B840" t="s">
         <v>1947</v>
       </c>
@@ -35438,7 +36134,10 @@
       <c r="Q840" s="3"/>
       <c r="R840" s="3"/>
     </row>
-    <row r="841" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A841">
+        <v>840</v>
+      </c>
       <c r="B841" t="s">
         <v>1948</v>
       </c>
@@ -35452,7 +36151,10 @@
       <c r="Q841" s="3"/>
       <c r="R841" s="3"/>
     </row>
-    <row r="842" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A842">
+        <v>841</v>
+      </c>
       <c r="B842" t="s">
         <v>1949</v>
       </c>
@@ -35466,7 +36168,10 @@
       <c r="Q842" s="3"/>
       <c r="R842" s="3"/>
     </row>
-    <row r="843" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A843">
+        <v>842</v>
+      </c>
       <c r="B843" t="s">
         <v>1882</v>
       </c>
@@ -35480,7 +36185,10 @@
       <c r="Q843" s="3"/>
       <c r="R843" s="3"/>
     </row>
-    <row r="844" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A844">
+        <v>843</v>
+      </c>
       <c r="B844" t="s">
         <v>1950</v>
       </c>
@@ -35494,7 +36202,10 @@
       <c r="Q844" s="3"/>
       <c r="R844" s="3"/>
     </row>
-    <row r="845" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A845">
+        <v>844</v>
+      </c>
       <c r="B845" t="s">
         <v>1951</v>
       </c>
@@ -35508,7 +36219,10 @@
       <c r="Q845" s="3"/>
       <c r="R845" s="3"/>
     </row>
-    <row r="846" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A846">
+        <v>845</v>
+      </c>
       <c r="B846" t="s">
         <v>1953</v>
       </c>
@@ -35522,7 +36236,10 @@
       <c r="Q846" s="3"/>
       <c r="R846" s="3"/>
     </row>
-    <row r="847" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A847">
+        <v>846</v>
+      </c>
       <c r="B847" t="s">
         <v>1952</v>
       </c>
@@ -35536,7 +36253,10 @@
       <c r="Q847" s="3"/>
       <c r="R847" s="3"/>
     </row>
-    <row r="848" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A848">
+        <v>847</v>
+      </c>
       <c r="B848" t="s">
         <v>1954</v>
       </c>
@@ -35550,7 +36270,10 @@
       <c r="Q848" s="3"/>
       <c r="R848" s="3"/>
     </row>
-    <row r="849" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A849">
+        <v>848</v>
+      </c>
       <c r="B849" t="s">
         <v>1955</v>
       </c>
@@ -35564,7 +36287,10 @@
       <c r="Q849" s="3"/>
       <c r="R849" s="3"/>
     </row>
-    <row r="850" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A850">
+        <v>849</v>
+      </c>
       <c r="B850" t="s">
         <v>1956</v>
       </c>
@@ -35578,7 +36304,10 @@
       <c r="Q850" s="3"/>
       <c r="R850" s="3"/>
     </row>
-    <row r="851" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A851">
+        <v>850</v>
+      </c>
       <c r="B851" t="s">
         <v>1957</v>
       </c>
@@ -35592,7 +36321,10 @@
       <c r="Q851" s="3"/>
       <c r="R851" s="3"/>
     </row>
-    <row r="852" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A852">
+        <v>851</v>
+      </c>
       <c r="B852" t="s">
         <v>1958</v>
       </c>
@@ -35606,7 +36338,10 @@
       <c r="Q852" s="3"/>
       <c r="R852" s="3"/>
     </row>
-    <row r="853" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A853">
+        <v>852</v>
+      </c>
       <c r="B853" t="s">
         <v>1959</v>
       </c>
@@ -35620,23 +36355,23 @@
       <c r="Q853" s="3"/>
       <c r="R853" s="3"/>
     </row>
-    <row r="854" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A854">
+        <v>853</v>
+      </c>
       <c r="B854" t="s">
-        <v>1960</v>
-      </c>
-      <c r="D854">
-        <v>0</v>
-      </c>
-      <c r="E854" t="s">
-        <v>1790</v>
+        <v>2471</v>
       </c>
       <c r="P854" s="3"/>
       <c r="Q854" s="3"/>
       <c r="R854" s="3"/>
     </row>
-    <row r="855" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A855">
+        <v>854</v>
+      </c>
       <c r="B855" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="D855">
         <v>0</v>
@@ -35648,9 +36383,12 @@
       <c r="Q855" s="3"/>
       <c r="R855" s="3"/>
     </row>
-    <row r="856" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A856">
+        <v>855</v>
+      </c>
       <c r="B856" t="s">
-        <v>1883</v>
+        <v>1961</v>
       </c>
       <c r="D856">
         <v>0</v>
@@ -35662,9 +36400,12 @@
       <c r="Q856" s="3"/>
       <c r="R856" s="3"/>
     </row>
-    <row r="857" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A857">
+        <v>855</v>
+      </c>
       <c r="B857" t="s">
-        <v>1962</v>
+        <v>2472</v>
       </c>
       <c r="D857">
         <v>0</v>
@@ -35676,9 +36417,12 @@
       <c r="Q857" s="3"/>
       <c r="R857" s="3"/>
     </row>
-    <row r="858" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A858">
+        <v>855</v>
+      </c>
       <c r="B858" t="s">
-        <v>1963</v>
+        <v>2474</v>
       </c>
       <c r="D858">
         <v>0</v>
@@ -35690,9 +36434,12 @@
       <c r="Q858" s="3"/>
       <c r="R858" s="3"/>
     </row>
-    <row r="859" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A859">
+        <v>855</v>
+      </c>
       <c r="B859" t="s">
-        <v>1964</v>
+        <v>2473</v>
       </c>
       <c r="D859">
         <v>0</v>
@@ -35704,9 +36451,12 @@
       <c r="Q859" s="3"/>
       <c r="R859" s="3"/>
     </row>
-    <row r="860" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A860">
+        <v>856</v>
+      </c>
       <c r="B860" t="s">
-        <v>1972</v>
+        <v>1883</v>
       </c>
       <c r="D860">
         <v>0</v>
@@ -35718,9 +36468,12 @@
       <c r="Q860" s="3"/>
       <c r="R860" s="3"/>
     </row>
-    <row r="861" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A861">
+        <v>857</v>
+      </c>
       <c r="B861" t="s">
-        <v>1973</v>
+        <v>1962</v>
       </c>
       <c r="D861">
         <v>0</v>
@@ -35732,9 +36485,12 @@
       <c r="Q861" s="3"/>
       <c r="R861" s="3"/>
     </row>
-    <row r="862" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A862">
+        <v>858</v>
+      </c>
       <c r="B862" t="s">
-        <v>1974</v>
+        <v>1963</v>
       </c>
       <c r="D862">
         <v>0</v>
@@ -35746,9 +36502,12 @@
       <c r="Q862" s="3"/>
       <c r="R862" s="3"/>
     </row>
-    <row r="863" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A863">
+        <v>859</v>
+      </c>
       <c r="B863" t="s">
-        <v>2386</v>
+        <v>1964</v>
       </c>
       <c r="D863">
         <v>0</v>
@@ -35760,65 +36519,80 @@
       <c r="Q863" s="3"/>
       <c r="R863" s="3"/>
     </row>
-    <row r="864" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A864">
+        <v>860</v>
+      </c>
       <c r="B864" t="s">
-        <v>1965</v>
+        <v>1972</v>
       </c>
       <c r="D864">
         <v>0</v>
       </c>
       <c r="E864" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="P864" s="3"/>
       <c r="Q864" s="3"/>
       <c r="R864" s="3"/>
     </row>
-    <row r="865" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A865">
+        <v>861</v>
+      </c>
       <c r="B865" t="s">
-        <v>1966</v>
+        <v>1973</v>
       </c>
       <c r="D865">
         <v>0</v>
       </c>
       <c r="E865" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="P865" s="3"/>
       <c r="Q865" s="3"/>
       <c r="R865" s="3"/>
     </row>
-    <row r="866" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A866">
+        <v>862</v>
+      </c>
       <c r="B866" t="s">
-        <v>1967</v>
+        <v>1974</v>
       </c>
       <c r="D866">
         <v>0</v>
       </c>
       <c r="E866" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="P866" s="3"/>
       <c r="Q866" s="3"/>
       <c r="R866" s="3"/>
     </row>
-    <row r="867" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A867">
+        <v>863</v>
+      </c>
       <c r="B867" t="s">
-        <v>1968</v>
+        <v>2386</v>
       </c>
       <c r="D867">
         <v>0</v>
       </c>
       <c r="E867" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="P867" s="3"/>
       <c r="Q867" s="3"/>
       <c r="R867" s="3"/>
     </row>
-    <row r="868" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A868">
+        <v>864</v>
+      </c>
       <c r="B868" t="s">
-        <v>1969</v>
+        <v>1965</v>
       </c>
       <c r="D868">
         <v>0</v>
@@ -35830,9 +36604,12 @@
       <c r="Q868" s="3"/>
       <c r="R868" s="3"/>
     </row>
-    <row r="869" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A869">
+        <v>865</v>
+      </c>
       <c r="B869" t="s">
-        <v>1970</v>
+        <v>1966</v>
       </c>
       <c r="D869">
         <v>0</v>
@@ -35844,9 +36621,12 @@
       <c r="Q869" s="3"/>
       <c r="R869" s="3"/>
     </row>
-    <row r="870" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A870">
+        <v>866</v>
+      </c>
       <c r="B870" t="s">
-        <v>1971</v>
+        <v>1967</v>
       </c>
       <c r="D870">
         <v>0</v>
@@ -35858,121 +36638,148 @@
       <c r="Q870" s="3"/>
       <c r="R870" s="3"/>
     </row>
-    <row r="871" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A871">
+        <v>867</v>
+      </c>
       <c r="B871" t="s">
-        <v>1884</v>
+        <v>1968</v>
       </c>
       <c r="D871">
         <v>0</v>
       </c>
       <c r="E871" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="P871" s="3"/>
       <c r="Q871" s="3"/>
       <c r="R871" s="3"/>
     </row>
-    <row r="872" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A872">
+        <v>868</v>
+      </c>
       <c r="B872" t="s">
-        <v>1885</v>
+        <v>1969</v>
       </c>
       <c r="D872">
         <v>0</v>
       </c>
       <c r="E872" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="P872" s="3"/>
       <c r="Q872" s="3"/>
       <c r="R872" s="3"/>
     </row>
-    <row r="873" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A873">
+        <v>869</v>
+      </c>
       <c r="B873" t="s">
-        <v>1886</v>
+        <v>1970</v>
       </c>
       <c r="D873">
         <v>0</v>
       </c>
       <c r="E873" t="s">
-        <v>1795</v>
+        <v>1792</v>
       </c>
       <c r="P873" s="3"/>
       <c r="Q873" s="3"/>
       <c r="R873" s="3"/>
     </row>
-    <row r="874" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A874">
+        <v>870</v>
+      </c>
       <c r="B874" t="s">
-        <v>1887</v>
+        <v>1971</v>
       </c>
       <c r="D874">
         <v>0</v>
       </c>
       <c r="E874" t="s">
-        <v>1796</v>
+        <v>1792</v>
       </c>
       <c r="P874" s="3"/>
       <c r="Q874" s="3"/>
       <c r="R874" s="3"/>
     </row>
-    <row r="875" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A875">
+        <v>871</v>
+      </c>
       <c r="B875" t="s">
-        <v>1978</v>
+        <v>1884</v>
       </c>
       <c r="D875">
         <v>0</v>
       </c>
       <c r="E875" t="s">
-        <v>1975</v>
+        <v>1793</v>
       </c>
       <c r="P875" s="3"/>
       <c r="Q875" s="3"/>
       <c r="R875" s="3"/>
     </row>
-    <row r="876" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A876">
+        <v>872</v>
+      </c>
       <c r="B876" t="s">
-        <v>1979</v>
+        <v>1885</v>
       </c>
       <c r="D876">
         <v>0</v>
       </c>
       <c r="E876" t="s">
-        <v>1975</v>
+        <v>1794</v>
       </c>
       <c r="P876" s="3"/>
       <c r="Q876" s="3"/>
       <c r="R876" s="3"/>
     </row>
-    <row r="877" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A877">
+        <v>873</v>
+      </c>
       <c r="B877" t="s">
-        <v>2412</v>
+        <v>1886</v>
       </c>
       <c r="D877">
         <v>0</v>
       </c>
       <c r="E877" t="s">
-        <v>1975</v>
+        <v>1795</v>
       </c>
       <c r="P877" s="3"/>
       <c r="Q877" s="3"/>
       <c r="R877" s="3"/>
     </row>
-    <row r="878" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A878">
+        <v>874</v>
+      </c>
       <c r="B878" t="s">
-        <v>1980</v>
+        <v>1887</v>
       </c>
       <c r="D878">
         <v>0</v>
       </c>
       <c r="E878" t="s">
-        <v>1975</v>
+        <v>1796</v>
       </c>
       <c r="P878" s="3"/>
       <c r="Q878" s="3"/>
       <c r="R878" s="3"/>
     </row>
-    <row r="879" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A879">
+        <v>875</v>
+      </c>
       <c r="B879" t="s">
-        <v>1976</v>
+        <v>1978</v>
       </c>
       <c r="D879">
         <v>0</v>
@@ -35984,9 +36791,12 @@
       <c r="Q879" s="3"/>
       <c r="R879" s="3"/>
     </row>
-    <row r="880" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A880">
+        <v>876</v>
+      </c>
       <c r="B880" t="s">
-        <v>2021</v>
+        <v>1979</v>
       </c>
       <c r="D880">
         <v>0</v>
@@ -35998,9 +36808,12 @@
       <c r="Q880" s="3"/>
       <c r="R880" s="3"/>
     </row>
-    <row r="881" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A881">
+        <v>877</v>
+      </c>
       <c r="B881" t="s">
-        <v>1977</v>
+        <v>2400</v>
       </c>
       <c r="D881">
         <v>0</v>
@@ -36012,597 +36825,1239 @@
       <c r="Q881" s="3"/>
       <c r="R881" s="3"/>
     </row>
-    <row r="882" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A882">
+        <v>878</v>
+      </c>
       <c r="B882" t="s">
-        <v>2389</v>
+        <v>1980</v>
+      </c>
+      <c r="D882">
+        <v>0</v>
+      </c>
+      <c r="E882" t="s">
+        <v>1975</v>
       </c>
       <c r="P882" s="3"/>
       <c r="Q882" s="3"/>
       <c r="R882" s="3"/>
     </row>
-    <row r="883" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A883">
+        <v>879</v>
+      </c>
       <c r="B883" t="s">
-        <v>2390</v>
+        <v>1976</v>
+      </c>
+      <c r="D883">
+        <v>0</v>
+      </c>
+      <c r="E883" t="s">
+        <v>1975</v>
       </c>
       <c r="P883" s="3"/>
       <c r="Q883" s="3"/>
       <c r="R883" s="3"/>
     </row>
-    <row r="884" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A884">
+        <v>880</v>
+      </c>
       <c r="B884" t="s">
-        <v>2388</v>
+        <v>2021</v>
+      </c>
+      <c r="D884">
+        <v>0</v>
+      </c>
+      <c r="E884" t="s">
+        <v>1975</v>
       </c>
       <c r="P884" s="3"/>
       <c r="Q884" s="3"/>
       <c r="R884" s="3"/>
     </row>
-    <row r="885" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A885">
+        <v>881</v>
+      </c>
       <c r="B885" t="s">
-        <v>2387</v>
+        <v>1977</v>
+      </c>
+      <c r="D885">
+        <v>0</v>
+      </c>
+      <c r="E885" t="s">
+        <v>1975</v>
       </c>
       <c r="P885" s="3"/>
       <c r="Q885" s="3"/>
       <c r="R885" s="3"/>
     </row>
-    <row r="886" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A886">
+        <v>882</v>
+      </c>
       <c r="B886" t="s">
-        <v>2391</v>
+        <v>2389</v>
+      </c>
+      <c r="E886" t="s">
+        <v>2416</v>
       </c>
       <c r="P886" s="3"/>
       <c r="Q886" s="3"/>
       <c r="R886" s="3"/>
     </row>
-    <row r="887" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A887">
+        <v>883</v>
+      </c>
       <c r="B887" t="s">
-        <v>2393</v>
+        <v>2388</v>
+      </c>
+      <c r="E887" t="s">
+        <v>2416</v>
       </c>
       <c r="P887" s="3"/>
       <c r="Q887" s="3"/>
       <c r="R887" s="3"/>
     </row>
-    <row r="888" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A888">
+        <v>884</v>
+      </c>
       <c r="B888" t="s">
-        <v>2429</v>
+        <v>2387</v>
+      </c>
+      <c r="E888" t="s">
+        <v>2417</v>
       </c>
       <c r="P888" s="3"/>
       <c r="Q888" s="3"/>
       <c r="R888" s="3"/>
     </row>
-    <row r="889" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A889">
+        <v>885</v>
+      </c>
       <c r="B889" t="s">
-        <v>2430</v>
+        <v>2390</v>
+      </c>
+      <c r="E889" t="s">
+        <v>2418</v>
       </c>
       <c r="P889" s="3"/>
       <c r="Q889" s="3"/>
       <c r="R889" s="3"/>
     </row>
-    <row r="890" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A890">
+        <v>886</v>
+      </c>
       <c r="B890" t="s">
-        <v>2392</v>
+        <v>2420</v>
+      </c>
+      <c r="E890" t="s">
+        <v>2419</v>
       </c>
       <c r="P890" s="3"/>
       <c r="Q890" s="3"/>
       <c r="R890" s="3"/>
     </row>
-    <row r="891" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A891">
+        <v>887</v>
+      </c>
       <c r="B891" t="s">
-        <v>2433</v>
+        <v>2421</v>
+      </c>
+      <c r="E891" t="s">
+        <v>2419</v>
       </c>
       <c r="P891" s="3"/>
       <c r="Q891" s="3"/>
       <c r="R891" s="3"/>
     </row>
-    <row r="892" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A892">
+        <v>888</v>
+      </c>
       <c r="B892" t="s">
-        <v>2394</v>
+        <v>2422</v>
+      </c>
+      <c r="E892" t="s">
+        <v>2419</v>
       </c>
       <c r="P892" s="3"/>
       <c r="Q892" s="3"/>
       <c r="R892" s="3"/>
     </row>
-    <row r="893" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A893">
+        <v>889</v>
+      </c>
       <c r="B893" t="s">
-        <v>2395</v>
+        <v>2423</v>
+      </c>
+      <c r="E893" t="s">
+        <v>2419</v>
       </c>
       <c r="P893" s="3"/>
       <c r="Q893" s="3"/>
       <c r="R893" s="3"/>
     </row>
-    <row r="894" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A894">
+        <v>890</v>
+      </c>
       <c r="B894" t="s">
-        <v>2431</v>
+        <v>2424</v>
+      </c>
+      <c r="E894" t="s">
+        <v>2419</v>
       </c>
       <c r="P894" s="3"/>
       <c r="Q894" s="3"/>
       <c r="R894" s="3"/>
     </row>
-    <row r="895" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A895">
+        <v>891</v>
+      </c>
       <c r="B895" t="s">
-        <v>2432</v>
+        <v>2425</v>
+      </c>
+      <c r="E895" t="s">
+        <v>2419</v>
       </c>
       <c r="P895" s="3"/>
       <c r="Q895" s="3"/>
       <c r="R895" s="3"/>
     </row>
-    <row r="896" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A896">
+        <v>892</v>
+      </c>
       <c r="B896" t="s">
-        <v>2401</v>
+        <v>2426</v>
+      </c>
+      <c r="E896" t="s">
+        <v>2428</v>
       </c>
       <c r="P896" s="3"/>
       <c r="Q896" s="3"/>
       <c r="R896" s="3"/>
     </row>
-    <row r="897" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A897">
+        <v>893</v>
+      </c>
       <c r="B897" t="s">
-        <v>2038</v>
+        <v>2427</v>
+      </c>
+      <c r="E897" t="s">
+        <v>2429</v>
       </c>
       <c r="P897" s="3"/>
       <c r="Q897" s="3"/>
       <c r="R897" s="3"/>
     </row>
-    <row r="898" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A898">
+        <v>894</v>
+      </c>
       <c r="B898" t="s">
-        <v>2205</v>
+        <v>2391</v>
+      </c>
+      <c r="E898" s="4" t="s">
+        <v>2430</v>
       </c>
       <c r="P898" s="3"/>
       <c r="Q898" s="3"/>
       <c r="R898" s="3"/>
     </row>
-    <row r="899" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A899">
+        <v>895</v>
+      </c>
       <c r="B899" t="s">
+        <v>2411</v>
+      </c>
+      <c r="E899" t="s">
+        <v>2435</v>
+      </c>
+      <c r="G899" t="s">
         <v>2434</v>
       </c>
       <c r="P899" s="3"/>
       <c r="Q899" s="3"/>
       <c r="R899" s="3"/>
     </row>
-    <row r="900" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A900">
+        <v>896</v>
+      </c>
       <c r="B900" t="s">
-        <v>2396</v>
+        <v>2431</v>
+      </c>
+      <c r="E900" t="s">
+        <v>2432</v>
+      </c>
+      <c r="G900" t="s">
+        <v>2433</v>
       </c>
       <c r="P900" s="3"/>
       <c r="Q900" s="3"/>
       <c r="R900" s="3"/>
     </row>
-    <row r="901" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A901">
+        <v>897</v>
+      </c>
       <c r="B901" t="s">
-        <v>2402</v>
+        <v>2392</v>
+      </c>
+      <c r="E901" t="s">
+        <v>2432</v>
+      </c>
+      <c r="G901" t="s">
+        <v>2433</v>
       </c>
       <c r="P901" s="3"/>
       <c r="Q901" s="3"/>
       <c r="R901" s="3"/>
     </row>
-    <row r="902" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A902">
+        <v>898</v>
+      </c>
       <c r="B902" t="s">
-        <v>2403</v>
+        <v>2393</v>
+      </c>
+      <c r="E902" t="s">
+        <v>2437</v>
+      </c>
+      <c r="G902" t="s">
+        <v>2436</v>
       </c>
       <c r="P902" s="3"/>
       <c r="Q902" s="3"/>
       <c r="R902" s="3"/>
     </row>
-    <row r="903" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A903">
+        <v>899</v>
+      </c>
       <c r="B903" t="s">
-        <v>2397</v>
+        <v>2395</v>
       </c>
       <c r="P903" s="3"/>
       <c r="Q903" s="3"/>
       <c r="R903" s="3"/>
     </row>
-    <row r="904" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A904">
+        <v>900</v>
+      </c>
       <c r="B904" t="s">
-        <v>2398</v>
+        <v>2396</v>
+      </c>
+      <c r="E904" t="s">
+        <v>2449</v>
+      </c>
+      <c r="G904" t="s">
+        <v>2450</v>
       </c>
       <c r="P904" s="3"/>
       <c r="Q904" s="3"/>
       <c r="R904" s="3"/>
     </row>
-    <row r="905" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A905">
+        <v>901</v>
+      </c>
+      <c r="B905" t="s">
+        <v>2407</v>
+      </c>
+      <c r="E905" t="s">
+        <v>1778</v>
+      </c>
       <c r="P905" s="3"/>
       <c r="Q905" s="3"/>
       <c r="R905" s="3"/>
     </row>
-    <row r="906" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A906">
+        <v>902</v>
+      </c>
+      <c r="B906" t="s">
+        <v>2404</v>
+      </c>
+      <c r="E906" t="s">
+        <v>2438</v>
+      </c>
       <c r="P906" s="3"/>
       <c r="Q906" s="3"/>
       <c r="R906" s="3"/>
     </row>
-    <row r="907" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A907">
+        <v>903</v>
+      </c>
       <c r="B907" t="s">
-        <v>2399</v>
+        <v>2394</v>
+      </c>
+      <c r="E907" t="s">
+        <v>2438</v>
       </c>
       <c r="P907" s="3"/>
       <c r="Q907" s="3"/>
       <c r="R907" s="3"/>
     </row>
-    <row r="908" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A908">
+        <v>904</v>
+      </c>
       <c r="B908" t="s">
-        <v>2421</v>
+        <v>2403</v>
+      </c>
+      <c r="E908" t="s">
+        <v>2440</v>
+      </c>
+      <c r="G908" t="s">
+        <v>2439</v>
       </c>
       <c r="P908" s="3"/>
       <c r="Q908" s="3"/>
       <c r="R908" s="3"/>
     </row>
-    <row r="909" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A909">
+        <v>905</v>
+      </c>
       <c r="B909" t="s">
-        <v>2420</v>
+        <v>2402</v>
+      </c>
+      <c r="E909" t="s">
+        <v>2440</v>
+      </c>
+      <c r="G909" t="s">
+        <v>2439</v>
       </c>
       <c r="P909" s="3"/>
       <c r="Q909" s="3"/>
       <c r="R909" s="3"/>
     </row>
-    <row r="910" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A910">
+        <v>906</v>
+      </c>
       <c r="B910" t="s">
-        <v>2416</v>
+        <v>2401</v>
+      </c>
+      <c r="E910" t="s">
+        <v>2440</v>
+      </c>
+      <c r="G910" t="s">
+        <v>2439</v>
       </c>
       <c r="P910" s="3"/>
       <c r="Q910" s="3"/>
       <c r="R910" s="3"/>
     </row>
-    <row r="911" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A911">
+        <v>907</v>
+      </c>
       <c r="B911" t="s">
-        <v>2400</v>
+        <v>2397</v>
+      </c>
+      <c r="E911" t="s">
+        <v>2440</v>
+      </c>
+      <c r="G911" t="s">
+        <v>2439</v>
       </c>
       <c r="P911" s="3"/>
       <c r="Q911" s="3"/>
       <c r="R911" s="3"/>
     </row>
-    <row r="912" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A912">
+        <v>908</v>
+      </c>
       <c r="B912" t="s">
-        <v>2415</v>
+        <v>2405</v>
+      </c>
+      <c r="E912" t="s">
+        <v>2441</v>
+      </c>
+      <c r="G912" t="s">
+        <v>2442</v>
       </c>
       <c r="P912" s="3"/>
       <c r="Q912" s="3"/>
       <c r="R912" s="3"/>
     </row>
-    <row r="913" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A913">
+        <v>909</v>
+      </c>
       <c r="B913" t="s">
-        <v>2414</v>
+        <v>2443</v>
+      </c>
+      <c r="E913" t="s">
+        <v>2441</v>
+      </c>
+      <c r="G913" t="s">
+        <v>2442</v>
       </c>
       <c r="P913" s="3"/>
       <c r="Q913" s="3"/>
       <c r="R913" s="3"/>
     </row>
-    <row r="914" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A914">
+        <v>910</v>
+      </c>
       <c r="B914" t="s">
-        <v>2413</v>
+        <v>2444</v>
+      </c>
+      <c r="E914" t="s">
+        <v>2441</v>
+      </c>
+      <c r="G914" t="s">
+        <v>2442</v>
       </c>
       <c r="P914" s="3"/>
       <c r="Q914" s="3"/>
       <c r="R914" s="3"/>
     </row>
-    <row r="915" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A915">
+        <v>911</v>
+      </c>
       <c r="B915" t="s">
-        <v>2404</v>
+        <v>2445</v>
+      </c>
+      <c r="E915" t="s">
+        <v>2441</v>
+      </c>
+      <c r="G915" t="s">
+        <v>2442</v>
       </c>
       <c r="P915" s="3"/>
       <c r="Q915" s="3"/>
       <c r="R915" s="3"/>
     </row>
-    <row r="916" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A916">
+        <v>912</v>
+      </c>
       <c r="B916" t="s">
-        <v>2417</v>
+        <v>2446</v>
+      </c>
+      <c r="E916" t="s">
+        <v>2441</v>
+      </c>
+      <c r="G916" t="s">
+        <v>2442</v>
       </c>
       <c r="P916" s="3"/>
       <c r="Q916" s="3"/>
       <c r="R916" s="3"/>
     </row>
-    <row r="917" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A917">
+        <v>913</v>
+      </c>
       <c r="B917" t="s">
-        <v>2418</v>
+        <v>2447</v>
+      </c>
+      <c r="E917" t="s">
+        <v>2441</v>
+      </c>
+      <c r="G917" t="s">
+        <v>2442</v>
       </c>
       <c r="P917" s="3"/>
       <c r="Q917" s="3"/>
       <c r="R917" s="3"/>
     </row>
-    <row r="918" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A918">
+        <v>914</v>
+      </c>
       <c r="B918" t="s">
-        <v>2405</v>
+        <v>2448</v>
+      </c>
+      <c r="E918" t="s">
+        <v>2441</v>
+      </c>
+      <c r="G918" t="s">
+        <v>2442</v>
       </c>
       <c r="P918" s="3"/>
       <c r="Q918" s="3"/>
       <c r="R918" s="3"/>
     </row>
-    <row r="919" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A919">
+        <v>915</v>
+      </c>
       <c r="B919" t="s">
         <v>2406</v>
+      </c>
+      <c r="E919" t="s">
+        <v>2441</v>
+      </c>
+      <c r="G919" t="s">
+        <v>2442</v>
       </c>
       <c r="P919" s="3"/>
       <c r="Q919" s="3"/>
       <c r="R919" s="3"/>
     </row>
-    <row r="920" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A920">
+        <v>916</v>
+      </c>
       <c r="B920" t="s">
-        <v>2407</v>
+        <v>2398</v>
       </c>
       <c r="P920" s="3"/>
       <c r="Q920" s="3"/>
       <c r="R920" s="3"/>
     </row>
-    <row r="921" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A921">
+        <v>917</v>
+      </c>
       <c r="B921" t="s">
-        <v>2408</v>
+        <v>2399</v>
       </c>
       <c r="P921" s="3"/>
       <c r="Q921" s="3"/>
       <c r="R921" s="3"/>
     </row>
-    <row r="922" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A922">
+        <v>918</v>
+      </c>
       <c r="B922" t="s">
         <v>2409</v>
+      </c>
+      <c r="E922" t="s">
+        <v>2468</v>
+      </c>
+      <c r="G922" t="s">
+        <v>2466</v>
       </c>
       <c r="P922" s="3"/>
       <c r="Q922" s="3"/>
       <c r="R922" s="3"/>
     </row>
-    <row r="923" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A923">
+        <v>919</v>
+      </c>
       <c r="B923" t="s">
-        <v>2410</v>
+        <v>2408</v>
+      </c>
+      <c r="E923" t="s">
+        <v>2468</v>
+      </c>
+      <c r="G923" t="s">
+        <v>2466</v>
       </c>
       <c r="P923" s="3"/>
       <c r="Q923" s="3"/>
       <c r="R923" s="3"/>
     </row>
-    <row r="924" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A924">
+        <v>920</v>
+      </c>
       <c r="B924" t="s">
-        <v>2411</v>
+        <v>2412</v>
       </c>
       <c r="P924" s="3"/>
       <c r="Q924" s="3"/>
       <c r="R924" s="3"/>
     </row>
-    <row r="925" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A925">
+        <v>921</v>
+      </c>
       <c r="B925" t="s">
-        <v>2424</v>
+        <v>2467</v>
       </c>
       <c r="P925" s="3"/>
       <c r="Q925" s="3"/>
       <c r="R925" s="3"/>
     </row>
-    <row r="926" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A926">
+        <v>921</v>
+      </c>
       <c r="B926" t="s">
-        <v>2423</v>
+        <v>2451</v>
       </c>
       <c r="P926" s="3"/>
       <c r="Q926" s="3"/>
       <c r="R926" s="3"/>
     </row>
-    <row r="927" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A927">
+        <v>922</v>
+      </c>
       <c r="B927" t="s">
-        <v>2422</v>
+        <v>2452</v>
+      </c>
+      <c r="F927">
+        <v>920</v>
       </c>
       <c r="P927" s="3"/>
       <c r="Q927" s="3"/>
       <c r="R927" s="3"/>
     </row>
-    <row r="928" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A928">
+        <v>923</v>
+      </c>
       <c r="B928" t="s">
-        <v>2438</v>
+        <v>2453</v>
+      </c>
+      <c r="F928">
+        <v>920</v>
       </c>
       <c r="P928" s="3"/>
       <c r="Q928" s="3"/>
       <c r="R928" s="3"/>
     </row>
-    <row r="929" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A929">
+        <v>924</v>
+      </c>
       <c r="B929" t="s">
-        <v>2419</v>
+        <v>2410</v>
       </c>
       <c r="P929" s="3"/>
       <c r="Q929" s="3"/>
       <c r="R929" s="3"/>
     </row>
-    <row r="930" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A930">
+        <v>925</v>
+      </c>
       <c r="B930" t="s">
-        <v>2425</v>
-      </c>
+        <v>2254</v>
+      </c>
+      <c r="O930" s="3"/>
       <c r="P930" s="3"/>
       <c r="Q930" s="3"/>
       <c r="R930" s="3"/>
     </row>
-    <row r="931" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A931">
+        <v>926</v>
+      </c>
       <c r="B931" t="s">
-        <v>2435</v>
+        <v>2415</v>
       </c>
       <c r="O931" s="3"/>
       <c r="P931" s="3"/>
       <c r="Q931" s="3"/>
       <c r="R931" s="3"/>
     </row>
-    <row r="932" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A932">
+        <v>927</v>
+      </c>
       <c r="B932" t="s">
-        <v>2254</v>
+        <v>2414</v>
+      </c>
+      <c r="F932">
+        <v>925</v>
       </c>
       <c r="O932" s="3"/>
       <c r="P932" s="3"/>
       <c r="Q932" s="3"/>
       <c r="R932" s="3"/>
     </row>
-    <row r="933" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A933">
+        <v>928</v>
+      </c>
       <c r="B933" t="s">
-        <v>2436</v>
+        <v>2413</v>
+      </c>
+      <c r="F933">
+        <v>925</v>
       </c>
       <c r="O933" s="3"/>
       <c r="P933" s="3"/>
       <c r="Q933" s="3"/>
       <c r="R933" s="3"/>
     </row>
-    <row r="934" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A934">
+        <v>929</v>
+      </c>
       <c r="B934" t="s">
-        <v>2437</v>
+        <v>2454</v>
+      </c>
+      <c r="E934" t="s">
+        <v>2468</v>
+      </c>
+      <c r="G934" t="s">
+        <v>2466</v>
       </c>
       <c r="O934" s="3"/>
       <c r="P934" s="3"/>
       <c r="Q934" s="3"/>
       <c r="R934" s="3"/>
     </row>
-    <row r="935" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A935">
+        <v>930</v>
+      </c>
       <c r="B935" t="s">
-        <v>2428</v>
+        <v>2455</v>
+      </c>
+      <c r="E935" t="s">
+        <v>2468</v>
+      </c>
+      <c r="G935" t="s">
+        <v>2466</v>
       </c>
       <c r="O935" s="3"/>
       <c r="P935" s="3"/>
       <c r="Q935" s="3"/>
       <c r="R935" s="3"/>
     </row>
-    <row r="936" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A936">
+        <v>930</v>
+      </c>
       <c r="B936" t="s">
-        <v>2427</v>
+        <v>2456</v>
+      </c>
+      <c r="E936" t="s">
+        <v>2468</v>
+      </c>
+      <c r="G936" t="s">
+        <v>2466</v>
       </c>
       <c r="O936" s="3"/>
       <c r="P936" s="3"/>
       <c r="Q936" s="3"/>
       <c r="R936" s="3"/>
     </row>
-    <row r="937" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A937">
+        <v>931</v>
+      </c>
+      <c r="B937" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E937" t="s">
+        <v>2468</v>
+      </c>
+      <c r="G937" t="s">
+        <v>2466</v>
+      </c>
       <c r="O937" s="3"/>
       <c r="P937" s="3"/>
       <c r="Q937" s="3"/>
       <c r="R937" s="3"/>
     </row>
-    <row r="938" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A938">
+        <v>931</v>
+      </c>
       <c r="B938" t="s">
-        <v>2426</v>
+        <v>2458</v>
+      </c>
+      <c r="E938" t="s">
+        <v>2468</v>
+      </c>
+      <c r="G938" t="s">
+        <v>2466</v>
       </c>
       <c r="O938" s="3"/>
       <c r="P938" s="3"/>
       <c r="Q938" s="3"/>
       <c r="R938" s="3"/>
     </row>
-    <row r="939" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A939">
+        <v>932</v>
+      </c>
       <c r="B939" t="s">
-        <v>2441</v>
+        <v>2459</v>
+      </c>
+      <c r="E939" t="s">
+        <v>2468</v>
+      </c>
+      <c r="G939" t="s">
+        <v>2466</v>
       </c>
       <c r="O939" s="3"/>
       <c r="P939" s="3"/>
       <c r="Q939" s="3"/>
       <c r="R939" s="3"/>
     </row>
-    <row r="940" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A940">
+        <v>933</v>
+      </c>
       <c r="B940" t="s">
-        <v>2440</v>
+        <v>2460</v>
+      </c>
+      <c r="E940" t="s">
+        <v>2468</v>
+      </c>
+      <c r="G940" t="s">
+        <v>2466</v>
       </c>
       <c r="O940" s="3"/>
       <c r="P940" s="3"/>
       <c r="Q940" s="3"/>
       <c r="R940" s="3"/>
     </row>
-    <row r="941" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A941">
+        <v>934</v>
+      </c>
       <c r="B941" t="s">
-        <v>2439</v>
+        <v>2461</v>
+      </c>
+      <c r="E941" t="s">
+        <v>2468</v>
+      </c>
+      <c r="G941" t="s">
+        <v>2466</v>
       </c>
       <c r="O941" s="3"/>
       <c r="P941" s="3"/>
       <c r="Q941" s="3"/>
       <c r="R941" s="3"/>
     </row>
-    <row r="942" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A942">
+        <v>935</v>
+      </c>
+      <c r="B942" t="s">
+        <v>2462</v>
+      </c>
+      <c r="E942" t="s">
+        <v>2468</v>
+      </c>
+      <c r="G942" t="s">
+        <v>2466</v>
+      </c>
       <c r="O942" s="3"/>
       <c r="P942" s="3"/>
       <c r="Q942" s="3"/>
       <c r="R942" s="3"/>
     </row>
-    <row r="943" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A943">
+        <v>936</v>
+      </c>
+      <c r="B943" t="s">
+        <v>2463</v>
+      </c>
+      <c r="E943" t="s">
+        <v>2468</v>
+      </c>
+      <c r="G943" t="s">
+        <v>2466</v>
+      </c>
       <c r="O943" s="3"/>
       <c r="P943" s="3"/>
       <c r="Q943" s="3"/>
       <c r="R943" s="3"/>
     </row>
-    <row r="944" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A944">
+        <v>937</v>
+      </c>
+      <c r="B944" t="s">
+        <v>2464</v>
+      </c>
+      <c r="E944" t="s">
+        <v>2468</v>
+      </c>
+      <c r="G944" t="s">
+        <v>2466</v>
+      </c>
       <c r="O944" s="3"/>
       <c r="P944" s="3"/>
       <c r="Q944" s="3"/>
       <c r="R944" s="3"/>
     </row>
-    <row r="945" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A945">
+        <v>938</v>
+      </c>
+      <c r="B945" t="s">
+        <v>2465</v>
+      </c>
+      <c r="E945" t="s">
+        <v>2468</v>
+      </c>
+      <c r="G945" t="s">
+        <v>2466</v>
+      </c>
       <c r="O945" s="3"/>
       <c r="P945" s="3"/>
       <c r="Q945" s="3"/>
       <c r="R945" s="3"/>
     </row>
-    <row r="946" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A946">
+        <v>939</v>
+      </c>
+      <c r="B946" t="s">
+        <v>2476</v>
+      </c>
+      <c r="E946" t="s">
+        <v>2468</v>
+      </c>
+      <c r="G946" t="s">
+        <v>2466</v>
+      </c>
       <c r="O946" s="3"/>
       <c r="P946" s="3"/>
       <c r="Q946" s="3"/>
       <c r="R946" s="3"/>
     </row>
-    <row r="947" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A947">
+        <v>940</v>
+      </c>
+      <c r="B947" t="s">
+        <v>2477</v>
+      </c>
+      <c r="E947" t="s">
+        <v>2468</v>
+      </c>
+      <c r="G947" t="s">
+        <v>2466</v>
+      </c>
       <c r="O947" s="3"/>
       <c r="P947" s="3"/>
       <c r="Q947" s="3"/>
       <c r="R947" s="3"/>
     </row>
-    <row r="948" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A948">
+        <v>941</v>
+      </c>
+      <c r="B948" t="s">
+        <v>2478</v>
+      </c>
+      <c r="E948" t="s">
+        <v>2468</v>
+      </c>
+      <c r="G948" t="s">
+        <v>2466</v>
+      </c>
       <c r="O948" s="3"/>
       <c r="P948" s="3"/>
       <c r="Q948" s="3"/>
       <c r="R948" s="3"/>
     </row>
-    <row r="949" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A949">
+        <v>942</v>
+      </c>
+      <c r="B949" t="s">
+        <v>2479</v>
+      </c>
+      <c r="E949" t="s">
+        <v>2468</v>
+      </c>
+      <c r="G949" t="s">
+        <v>2466</v>
+      </c>
       <c r="O949" s="3"/>
       <c r="P949" s="3"/>
       <c r="Q949" s="3"/>
       <c r="R949" s="3"/>
     </row>
-    <row r="950" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A950">
+        <v>943</v>
+      </c>
+      <c r="B950" t="s">
+        <v>2480</v>
+      </c>
+      <c r="E950" t="s">
+        <v>2468</v>
+      </c>
+      <c r="G950" t="s">
+        <v>2466</v>
+      </c>
       <c r="O950" s="3"/>
       <c r="P950" s="3"/>
       <c r="Q950" s="3"/>
       <c r="R950" s="3"/>
     </row>
-    <row r="951" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A951">
+        <v>944</v>
+      </c>
+      <c r="B951" t="s">
+        <v>2484</v>
+      </c>
+      <c r="E951" t="s">
+        <v>2482</v>
+      </c>
+      <c r="G951" t="s">
+        <v>2481</v>
+      </c>
       <c r="O951" s="3"/>
       <c r="P951" s="3"/>
       <c r="Q951" s="3"/>
       <c r="R951" s="3"/>
     </row>
-    <row r="952" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A952">
+        <v>944</v>
+      </c>
+      <c r="B952" t="s">
+        <v>2469</v>
+      </c>
+      <c r="E952" t="s">
+        <v>2482</v>
+      </c>
+      <c r="G952" t="s">
+        <v>2481</v>
+      </c>
       <c r="O952" s="3"/>
       <c r="P952" s="3"/>
       <c r="Q952" s="3"/>
       <c r="R952" s="3"/>
     </row>
-    <row r="953" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A953">
+        <v>945</v>
+      </c>
+      <c r="B953" t="s">
+        <v>2483</v>
+      </c>
+      <c r="E953" t="s">
+        <v>2482</v>
+      </c>
+      <c r="G953" t="s">
+        <v>2481</v>
+      </c>
       <c r="O953" s="3"/>
       <c r="P953" s="3"/>
       <c r="Q953" s="3"/>
       <c r="R953" s="3"/>
     </row>
-    <row r="954" spans="15:18" x14ac:dyDescent="0.3">
-      <c r="O954" s="3"/>
-      <c r="P954" s="3"/>
-      <c r="Q954" s="3"/>
-      <c r="R954" s="3"/>
-    </row>
-    <row r="955" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A954">
+        <v>945</v>
+      </c>
+      <c r="B954" t="s">
+        <v>2470</v>
+      </c>
+      <c r="E954" t="s">
+        <v>2482</v>
+      </c>
+      <c r="G954" t="s">
+        <v>2481</v>
+      </c>
+    </row>
+    <row r="955" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A955">
+        <v>946</v>
+      </c>
+      <c r="B955" t="s">
+        <v>2485</v>
+      </c>
+      <c r="E955" t="s">
+        <v>2482</v>
+      </c>
+      <c r="G955" t="s">
+        <v>2481</v>
+      </c>
       <c r="O955" s="3"/>
       <c r="P955" s="3"/>
       <c r="Q955" s="3"/>
       <c r="R955" s="3"/>
     </row>
-    <row r="956" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A956">
+        <v>947</v>
+      </c>
+      <c r="B956" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E956" t="s">
+        <v>2482</v>
+      </c>
+      <c r="G956" t="s">
+        <v>2481</v>
+      </c>
       <c r="O956" s="3"/>
       <c r="P956" s="3"/>
       <c r="Q956" s="3"/>
       <c r="R956" s="3"/>
     </row>
-    <row r="957" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A957">
+        <v>948</v>
+      </c>
+      <c r="B957" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E957" t="s">
+        <v>2482</v>
+      </c>
+      <c r="G957" t="s">
+        <v>2481</v>
+      </c>
       <c r="O957" s="3"/>
       <c r="P957" s="3"/>
       <c r="Q957" s="3"/>
       <c r="R957" s="3"/>
     </row>
-    <row r="958" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A958">
+        <v>949</v>
+      </c>
+      <c r="B958" t="s">
+        <v>2488</v>
+      </c>
+      <c r="E958" t="s">
+        <v>2482</v>
+      </c>
+      <c r="G958" t="s">
+        <v>2481</v>
+      </c>
       <c r="O958" s="3"/>
       <c r="P958" s="3"/>
       <c r="Q958" s="3"/>
       <c r="R958" s="3"/>
     </row>
-    <row r="959" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A959">
+        <v>950</v>
+      </c>
+      <c r="B959" t="s">
+        <v>2475</v>
+      </c>
       <c r="O959" s="3"/>
       <c r="P959" s="3"/>
       <c r="Q959" s="3"/>
       <c r="R959" s="3"/>
     </row>
-    <row r="960" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:18" x14ac:dyDescent="0.3">
       <c r="O960" s="3"/>
       <c r="P960" s="3"/>
       <c r="Q960" s="3"/>
@@ -39194,19 +40649,64 @@
       <c r="Q1391" s="3"/>
       <c r="R1391" s="3"/>
     </row>
+    <row r="1392" spans="15:18" x14ac:dyDescent="0.3">
+      <c r="O1392" s="3"/>
+      <c r="P1392" s="3"/>
+      <c r="Q1392" s="3"/>
+      <c r="R1392" s="3"/>
+    </row>
+    <row r="1393" spans="15:18" x14ac:dyDescent="0.3">
+      <c r="O1393" s="3"/>
+      <c r="P1393" s="3"/>
+      <c r="Q1393" s="3"/>
+      <c r="R1393" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B1:B887 B900:B905 B907:B927 B890 B896 B892:B893 B935:B939 B929:B930 B941:B1048576">
+  <conditionalFormatting sqref="B960:B1048576 B931 B898 B929 B900:B923 B933:B938 B944 B925 B1:B855 B859:B895 B946:B950 B953">
+    <cfRule type="duplicateValues" dxfId="14" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B932">
+    <cfRule type="duplicateValues" dxfId="13" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B932">
+    <cfRule type="duplicateValues" dxfId="12" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B931">
+    <cfRule type="duplicateValues" dxfId="11" priority="47"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B926:B928">
+    <cfRule type="duplicateValues" dxfId="10" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B939:B941">
+    <cfRule type="duplicateValues" dxfId="9" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B942:B943">
+    <cfRule type="duplicateValues" dxfId="8" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B856">
+    <cfRule type="duplicateValues" dxfId="7" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B858">
+    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B857">
+    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B945">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B951">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B887 B907:B927 B890 B896 B892:B893 B900:B905 B935:B939 B929:B930 B941:B1048576">
+  <conditionalFormatting sqref="B955:B956 B958">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B940">
+  <conditionalFormatting sqref="B957">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B940">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="K954:XFD954">
+    <cfRule type="duplicateValues" dxfId="0" priority="60"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/national_cert.xlsx
+++ b/national_cert.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5080" uniqueCount="2489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5088" uniqueCount="2493">
   <si>
     <t>id</t>
   </si>
@@ -7816,6 +7816,19 @@
   <si>
     <t>Google AdMob</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACA Premiere</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACA Indesign</t>
+  </si>
+  <si>
+    <t>JLPT N1급</t>
+  </si>
+  <si>
+    <t>JLPT</t>
   </si>
 </sst>
 </file>
@@ -7926,7 +7939,27 @@
     <cellStyle name="보통" xfId="1" builtinId="28"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -8375,11 +8408,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R1393"/>
+  <dimension ref="A1:R1395"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A913" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I959" sqref="I959"/>
+      <pane ySplit="1" topLeftCell="A950" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A964" sqref="A964"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -37317,10 +37350,10 @@
     </row>
     <row r="914" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A914">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B914" t="s">
-        <v>2444</v>
+        <v>2490</v>
       </c>
       <c r="E914" t="s">
         <v>2441</v>
@@ -37334,10 +37367,10 @@
     </row>
     <row r="915" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A915">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B915" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="E915" t="s">
         <v>2441</v>
@@ -37351,10 +37384,10 @@
     </row>
     <row r="916" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A916">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="B916" t="s">
-        <v>2446</v>
+        <v>2489</v>
       </c>
       <c r="E916" t="s">
         <v>2441</v>
@@ -37368,10 +37401,10 @@
     </row>
     <row r="917" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A917">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="B917" t="s">
-        <v>2447</v>
+        <v>2445</v>
       </c>
       <c r="E917" t="s">
         <v>2441</v>
@@ -37385,10 +37418,10 @@
     </row>
     <row r="918" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A918">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="B918" t="s">
-        <v>2448</v>
+        <v>2446</v>
       </c>
       <c r="E918" t="s">
         <v>2441</v>
@@ -37402,10 +37435,10 @@
     </row>
     <row r="919" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A919">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B919" t="s">
-        <v>2406</v>
+        <v>2447</v>
       </c>
       <c r="E919" t="s">
         <v>2441</v>
@@ -37419,10 +37452,16 @@
     </row>
     <row r="920" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A920">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="B920" t="s">
-        <v>2398</v>
+        <v>2448</v>
+      </c>
+      <c r="E920" t="s">
+        <v>2441</v>
+      </c>
+      <c r="G920" t="s">
+        <v>2442</v>
       </c>
       <c r="P920" s="3"/>
       <c r="Q920" s="3"/>
@@ -37430,10 +37469,16 @@
     </row>
     <row r="921" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A921">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B921" t="s">
-        <v>2399</v>
+        <v>2406</v>
+      </c>
+      <c r="E921" t="s">
+        <v>2441</v>
+      </c>
+      <c r="G921" t="s">
+        <v>2442</v>
       </c>
       <c r="P921" s="3"/>
       <c r="Q921" s="3"/>
@@ -37441,16 +37486,10 @@
     </row>
     <row r="922" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A922">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="B922" t="s">
-        <v>2409</v>
-      </c>
-      <c r="E922" t="s">
-        <v>2468</v>
-      </c>
-      <c r="G922" t="s">
-        <v>2466</v>
+        <v>2398</v>
       </c>
       <c r="P922" s="3"/>
       <c r="Q922" s="3"/>
@@ -37458,16 +37497,10 @@
     </row>
     <row r="923" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A923">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B923" t="s">
-        <v>2408</v>
-      </c>
-      <c r="E923" t="s">
-        <v>2468</v>
-      </c>
-      <c r="G923" t="s">
-        <v>2466</v>
+        <v>2399</v>
       </c>
       <c r="P923" s="3"/>
       <c r="Q923" s="3"/>
@@ -37475,10 +37508,16 @@
     </row>
     <row r="924" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A924">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="B924" t="s">
-        <v>2412</v>
+        <v>2409</v>
+      </c>
+      <c r="E924" t="s">
+        <v>2468</v>
+      </c>
+      <c r="G924" t="s">
+        <v>2466</v>
       </c>
       <c r="P924" s="3"/>
       <c r="Q924" s="3"/>
@@ -37486,10 +37525,16 @@
     </row>
     <row r="925" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A925">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="B925" t="s">
-        <v>2467</v>
+        <v>2408</v>
+      </c>
+      <c r="E925" t="s">
+        <v>2468</v>
+      </c>
+      <c r="G925" t="s">
+        <v>2466</v>
       </c>
       <c r="P925" s="3"/>
       <c r="Q925" s="3"/>
@@ -37497,10 +37542,10 @@
     </row>
     <row r="926" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A926">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B926" t="s">
-        <v>2451</v>
+        <v>2412</v>
       </c>
       <c r="P926" s="3"/>
       <c r="Q926" s="3"/>
@@ -37508,13 +37553,10 @@
     </row>
     <row r="927" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A927">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B927" t="s">
-        <v>2452</v>
-      </c>
-      <c r="F927">
-        <v>920</v>
+        <v>2467</v>
       </c>
       <c r="P927" s="3"/>
       <c r="Q927" s="3"/>
@@ -37522,13 +37564,10 @@
     </row>
     <row r="928" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A928">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B928" t="s">
-        <v>2453</v>
-      </c>
-      <c r="F928">
-        <v>920</v>
+        <v>2451</v>
       </c>
       <c r="P928" s="3"/>
       <c r="Q928" s="3"/>
@@ -37536,10 +37575,13 @@
     </row>
     <row r="929" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A929">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="B929" t="s">
-        <v>2410</v>
+        <v>2452</v>
+      </c>
+      <c r="F929">
+        <v>920</v>
       </c>
       <c r="P929" s="3"/>
       <c r="Q929" s="3"/>
@@ -37547,37 +37589,35 @@
     </row>
     <row r="930" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A930">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B930" t="s">
-        <v>2254</v>
-      </c>
-      <c r="O930" s="3"/>
+        <v>2453</v>
+      </c>
+      <c r="F930">
+        <v>920</v>
+      </c>
       <c r="P930" s="3"/>
       <c r="Q930" s="3"/>
       <c r="R930" s="3"/>
     </row>
     <row r="931" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A931">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="B931" t="s">
-        <v>2415</v>
-      </c>
-      <c r="O931" s="3"/>
+        <v>2410</v>
+      </c>
       <c r="P931" s="3"/>
       <c r="Q931" s="3"/>
       <c r="R931" s="3"/>
     </row>
     <row r="932" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A932">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B932" t="s">
-        <v>2414</v>
-      </c>
-      <c r="F932">
-        <v>925</v>
+        <v>2254</v>
       </c>
       <c r="O932" s="3"/>
       <c r="P932" s="3"/>
@@ -37586,13 +37626,10 @@
     </row>
     <row r="933" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A933">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="B933" t="s">
-        <v>2413</v>
-      </c>
-      <c r="F933">
-        <v>925</v>
+        <v>2415</v>
       </c>
       <c r="O933" s="3"/>
       <c r="P933" s="3"/>
@@ -37601,16 +37638,13 @@
     </row>
     <row r="934" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A934">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="B934" t="s">
-        <v>2454</v>
-      </c>
-      <c r="E934" t="s">
-        <v>2468</v>
-      </c>
-      <c r="G934" t="s">
-        <v>2466</v>
+        <v>2414</v>
+      </c>
+      <c r="F934">
+        <v>925</v>
       </c>
       <c r="O934" s="3"/>
       <c r="P934" s="3"/>
@@ -37619,16 +37653,13 @@
     </row>
     <row r="935" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A935">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="B935" t="s">
-        <v>2455</v>
-      </c>
-      <c r="E935" t="s">
-        <v>2468</v>
-      </c>
-      <c r="G935" t="s">
-        <v>2466</v>
+        <v>2413</v>
+      </c>
+      <c r="F935">
+        <v>925</v>
       </c>
       <c r="O935" s="3"/>
       <c r="P935" s="3"/>
@@ -37637,10 +37668,10 @@
     </row>
     <row r="936" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A936">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B936" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="E936" t="s">
         <v>2468</v>
@@ -37655,10 +37686,10 @@
     </row>
     <row r="937" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A937">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B937" t="s">
-        <v>2457</v>
+        <v>2455</v>
       </c>
       <c r="E937" t="s">
         <v>2468</v>
@@ -37673,10 +37704,10 @@
     </row>
     <row r="938" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A938">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B938" t="s">
-        <v>2458</v>
+        <v>2456</v>
       </c>
       <c r="E938" t="s">
         <v>2468</v>
@@ -37691,10 +37722,10 @@
     </row>
     <row r="939" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A939">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B939" t="s">
-        <v>2459</v>
+        <v>2457</v>
       </c>
       <c r="E939" t="s">
         <v>2468</v>
@@ -37709,10 +37740,10 @@
     </row>
     <row r="940" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A940">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="B940" t="s">
-        <v>2460</v>
+        <v>2458</v>
       </c>
       <c r="E940" t="s">
         <v>2468</v>
@@ -37727,10 +37758,10 @@
     </row>
     <row r="941" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A941">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="B941" t="s">
-        <v>2461</v>
+        <v>2459</v>
       </c>
       <c r="E941" t="s">
         <v>2468</v>
@@ -37745,10 +37776,10 @@
     </row>
     <row r="942" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A942">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="B942" t="s">
-        <v>2462</v>
+        <v>2460</v>
       </c>
       <c r="E942" t="s">
         <v>2468</v>
@@ -37763,10 +37794,10 @@
     </row>
     <row r="943" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A943">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="B943" t="s">
-        <v>2463</v>
+        <v>2461</v>
       </c>
       <c r="E943" t="s">
         <v>2468</v>
@@ -37781,10 +37812,10 @@
     </row>
     <row r="944" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A944">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="B944" t="s">
-        <v>2464</v>
+        <v>2462</v>
       </c>
       <c r="E944" t="s">
         <v>2468</v>
@@ -37799,10 +37830,10 @@
     </row>
     <row r="945" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A945">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="B945" t="s">
-        <v>2465</v>
+        <v>2463</v>
       </c>
       <c r="E945" t="s">
         <v>2468</v>
@@ -37817,10 +37848,10 @@
     </row>
     <row r="946" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A946">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="B946" t="s">
-        <v>2476</v>
+        <v>2464</v>
       </c>
       <c r="E946" t="s">
         <v>2468</v>
@@ -37835,10 +37866,10 @@
     </row>
     <row r="947" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A947">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="B947" t="s">
-        <v>2477</v>
+        <v>2465</v>
       </c>
       <c r="E947" t="s">
         <v>2468</v>
@@ -37853,10 +37884,10 @@
     </row>
     <row r="948" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A948">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="B948" t="s">
-        <v>2478</v>
+        <v>2476</v>
       </c>
       <c r="E948" t="s">
         <v>2468</v>
@@ -37871,10 +37902,10 @@
     </row>
     <row r="949" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A949">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="B949" t="s">
-        <v>2479</v>
+        <v>2477</v>
       </c>
       <c r="E949" t="s">
         <v>2468</v>
@@ -37889,10 +37920,10 @@
     </row>
     <row r="950" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A950">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="B950" t="s">
-        <v>2480</v>
+        <v>2478</v>
       </c>
       <c r="E950" t="s">
         <v>2468</v>
@@ -37907,16 +37938,16 @@
     </row>
     <row r="951" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A951">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="B951" t="s">
-        <v>2484</v>
+        <v>2479</v>
       </c>
       <c r="E951" t="s">
-        <v>2482</v>
+        <v>2468</v>
       </c>
       <c r="G951" t="s">
-        <v>2481</v>
+        <v>2466</v>
       </c>
       <c r="O951" s="3"/>
       <c r="P951" s="3"/>
@@ -37925,16 +37956,16 @@
     </row>
     <row r="952" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A952">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B952" t="s">
-        <v>2469</v>
+        <v>2480</v>
       </c>
       <c r="E952" t="s">
-        <v>2482</v>
+        <v>2468</v>
       </c>
       <c r="G952" t="s">
-        <v>2481</v>
+        <v>2466</v>
       </c>
       <c r="O952" s="3"/>
       <c r="P952" s="3"/>
@@ -37943,10 +37974,10 @@
     </row>
     <row r="953" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A953">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B953" t="s">
-        <v>2483</v>
+        <v>2484</v>
       </c>
       <c r="E953" t="s">
         <v>2482</v>
@@ -37961,10 +37992,10 @@
     </row>
     <row r="954" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A954">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B954" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="E954" t="s">
         <v>2482</v>
@@ -37972,13 +38003,17 @@
       <c r="G954" t="s">
         <v>2481</v>
       </c>
+      <c r="O954" s="3"/>
+      <c r="P954" s="3"/>
+      <c r="Q954" s="3"/>
+      <c r="R954" s="3"/>
     </row>
     <row r="955" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A955">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B955" t="s">
-        <v>2485</v>
+        <v>2483</v>
       </c>
       <c r="E955" t="s">
         <v>2482</v>
@@ -37993,10 +38028,10 @@
     </row>
     <row r="956" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A956">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="B956" t="s">
-        <v>2486</v>
+        <v>2470</v>
       </c>
       <c r="E956" t="s">
         <v>2482</v>
@@ -38004,17 +38039,13 @@
       <c r="G956" t="s">
         <v>2481</v>
       </c>
-      <c r="O956" s="3"/>
-      <c r="P956" s="3"/>
-      <c r="Q956" s="3"/>
-      <c r="R956" s="3"/>
     </row>
     <row r="957" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A957">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="B957" t="s">
-        <v>2487</v>
+        <v>2485</v>
       </c>
       <c r="E957" t="s">
         <v>2482</v>
@@ -38029,10 +38060,10 @@
     </row>
     <row r="958" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A958">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="B958" t="s">
-        <v>2488</v>
+        <v>2486</v>
       </c>
       <c r="E958" t="s">
         <v>2482</v>
@@ -38047,10 +38078,16 @@
     </row>
     <row r="959" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A959">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="B959" t="s">
-        <v>2475</v>
+        <v>2487</v>
+      </c>
+      <c r="E959" t="s">
+        <v>2482</v>
+      </c>
+      <c r="G959" t="s">
+        <v>2481</v>
       </c>
       <c r="O959" s="3"/>
       <c r="P959" s="3"/>
@@ -38058,102 +38095,132 @@
       <c r="R959" s="3"/>
     </row>
     <row r="960" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A960">
+        <v>949</v>
+      </c>
+      <c r="B960" t="s">
+        <v>2488</v>
+      </c>
+      <c r="E960" t="s">
+        <v>2482</v>
+      </c>
+      <c r="G960" t="s">
+        <v>2481</v>
+      </c>
       <c r="O960" s="3"/>
       <c r="P960" s="3"/>
       <c r="Q960" s="3"/>
       <c r="R960" s="3"/>
     </row>
-    <row r="961" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A961">
+        <v>950</v>
+      </c>
+      <c r="B961" t="s">
+        <v>2475</v>
+      </c>
       <c r="O961" s="3"/>
       <c r="P961" s="3"/>
       <c r="Q961" s="3"/>
       <c r="R961" s="3"/>
     </row>
-    <row r="962" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A962">
+        <v>951</v>
+      </c>
+      <c r="B962" t="s">
+        <v>2491</v>
+      </c>
       <c r="O962" s="3"/>
       <c r="P962" s="3"/>
       <c r="Q962" s="3"/>
       <c r="R962" s="3"/>
     </row>
-    <row r="963" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A963">
+        <v>951</v>
+      </c>
+      <c r="B963" t="s">
+        <v>2492</v>
+      </c>
       <c r="O963" s="3"/>
       <c r="P963" s="3"/>
       <c r="Q963" s="3"/>
       <c r="R963" s="3"/>
     </row>
-    <row r="964" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:18" x14ac:dyDescent="0.3">
       <c r="O964" s="3"/>
       <c r="P964" s="3"/>
       <c r="Q964" s="3"/>
       <c r="R964" s="3"/>
     </row>
-    <row r="965" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:18" x14ac:dyDescent="0.3">
       <c r="O965" s="3"/>
       <c r="P965" s="3"/>
       <c r="Q965" s="3"/>
       <c r="R965" s="3"/>
     </row>
-    <row r="966" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:18" x14ac:dyDescent="0.3">
       <c r="O966" s="3"/>
       <c r="P966" s="3"/>
       <c r="Q966" s="3"/>
       <c r="R966" s="3"/>
     </row>
-    <row r="967" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:18" x14ac:dyDescent="0.3">
       <c r="O967" s="3"/>
       <c r="P967" s="3"/>
       <c r="Q967" s="3"/>
       <c r="R967" s="3"/>
     </row>
-    <row r="968" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:18" x14ac:dyDescent="0.3">
       <c r="O968" s="3"/>
       <c r="P968" s="3"/>
       <c r="Q968" s="3"/>
       <c r="R968" s="3"/>
     </row>
-    <row r="969" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:18" x14ac:dyDescent="0.3">
       <c r="O969" s="3"/>
       <c r="P969" s="3"/>
       <c r="Q969" s="3"/>
       <c r="R969" s="3"/>
     </row>
-    <row r="970" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:18" x14ac:dyDescent="0.3">
       <c r="O970" s="3"/>
       <c r="P970" s="3"/>
       <c r="Q970" s="3"/>
       <c r="R970" s="3"/>
     </row>
-    <row r="971" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:18" x14ac:dyDescent="0.3">
       <c r="O971" s="3"/>
       <c r="P971" s="3"/>
       <c r="Q971" s="3"/>
       <c r="R971" s="3"/>
     </row>
-    <row r="972" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:18" x14ac:dyDescent="0.3">
       <c r="O972" s="3"/>
       <c r="P972" s="3"/>
       <c r="Q972" s="3"/>
       <c r="R972" s="3"/>
     </row>
-    <row r="973" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:18" x14ac:dyDescent="0.3">
       <c r="O973" s="3"/>
       <c r="P973" s="3"/>
       <c r="Q973" s="3"/>
       <c r="R973" s="3"/>
     </row>
-    <row r="974" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:18" x14ac:dyDescent="0.3">
       <c r="O974" s="3"/>
       <c r="P974" s="3"/>
       <c r="Q974" s="3"/>
       <c r="R974" s="3"/>
     </row>
-    <row r="975" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:18" x14ac:dyDescent="0.3">
       <c r="O975" s="3"/>
       <c r="P975" s="3"/>
       <c r="Q975" s="3"/>
       <c r="R975" s="3"/>
     </row>
-    <row r="976" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:18" x14ac:dyDescent="0.3">
       <c r="O976" s="3"/>
       <c r="P976" s="3"/>
       <c r="Q976" s="3"/>
@@ -40661,52 +40728,70 @@
       <c r="Q1393" s="3"/>
       <c r="R1393" s="3"/>
     </row>
+    <row r="1394" spans="15:18" x14ac:dyDescent="0.3">
+      <c r="O1394" s="3"/>
+      <c r="P1394" s="3"/>
+      <c r="Q1394" s="3"/>
+      <c r="R1394" s="3"/>
+    </row>
+    <row r="1395" spans="15:18" x14ac:dyDescent="0.3">
+      <c r="O1395" s="3"/>
+      <c r="P1395" s="3"/>
+      <c r="Q1395" s="3"/>
+      <c r="R1395" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B960:B1048576 B931 B898 B929 B900:B923 B933:B938 B944 B925 B1:B855 B859:B895 B946:B950 B953">
-    <cfRule type="duplicateValues" dxfId="14" priority="20"/>
+  <conditionalFormatting sqref="B962:B1048576 B933 B898 B931 B900:B912 B935:B940 B946 B927 B1:B855 B859:B895 B948:B952 B955 B916:B925 B914">
+    <cfRule type="duplicateValues" dxfId="16" priority="22"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B932">
-    <cfRule type="duplicateValues" dxfId="13" priority="18"/>
+  <conditionalFormatting sqref="B934">
+    <cfRule type="duplicateValues" dxfId="15" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B932">
-    <cfRule type="duplicateValues" dxfId="12" priority="17"/>
+  <conditionalFormatting sqref="B934">
+    <cfRule type="duplicateValues" dxfId="14" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B931">
-    <cfRule type="duplicateValues" dxfId="11" priority="47"/>
+  <conditionalFormatting sqref="B933">
+    <cfRule type="duplicateValues" dxfId="13" priority="49"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B926:B928">
-    <cfRule type="duplicateValues" dxfId="10" priority="13"/>
+  <conditionalFormatting sqref="B928:B930">
+    <cfRule type="duplicateValues" dxfId="12" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B939:B941">
+  <conditionalFormatting sqref="B941:B943">
+    <cfRule type="duplicateValues" dxfId="11" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B944:B945">
+    <cfRule type="duplicateValues" dxfId="10" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B856">
     <cfRule type="duplicateValues" dxfId="9" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B942:B943">
+  <conditionalFormatting sqref="B858">
     <cfRule type="duplicateValues" dxfId="8" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B856">
+  <conditionalFormatting sqref="B857">
     <cfRule type="duplicateValues" dxfId="7" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B858">
-    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
+  <conditionalFormatting sqref="B947">
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B857">
-    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
+  <conditionalFormatting sqref="B953">
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B945">
+  <conditionalFormatting sqref="B957:B958 B960">
     <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B951">
+  <conditionalFormatting sqref="B959">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B955:B956 B958">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  <conditionalFormatting sqref="K956:XFD956">
+    <cfRule type="duplicateValues" dxfId="2" priority="62"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B957">
+  <conditionalFormatting sqref="B915">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K954:XFD954">
-    <cfRule type="duplicateValues" dxfId="0" priority="60"/>
+  <conditionalFormatting sqref="B913">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
